--- a/data/Aid/分类算法数据-师兄.xlsx
+++ b/data/Aid/分类算法数据-师兄.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef3b8070ea8c7de/Project/BertWithPretrained/data/Aid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0C73F36-F6E1-4F86-AD30-9D977144375A}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C692982A-2FA4-4E8E-874C-2E2E4584C924}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="6285" windowWidth="24045" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8908,10 +8908,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9204,7 +9200,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B344" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F1682" sqref="F1682"/>
     </sheetView>
   </sheetViews>
@@ -9241,7 +9237,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>2200027</v>
       </c>
@@ -9300,7 +9296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2200063</v>
       </c>
@@ -9356,7 +9352,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2200085</v>
       </c>
@@ -9415,7 +9411,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>2200091</v>
       </c>
@@ -9443,7 +9439,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>2200092</v>
       </c>
@@ -9515,7 +9511,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>2200134</v>
       </c>
@@ -9539,7 +9535,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>2200137</v>
       </c>
@@ -9563,7 +9559,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>2200139</v>
       </c>
@@ -9749,7 +9745,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2200146</v>
       </c>
@@ -9797,7 +9793,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2200148</v>
       </c>
@@ -9824,7 +9820,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2200149</v>
       </c>
@@ -9923,7 +9919,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2200153</v>
       </c>
@@ -10139,7 +10135,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>2200164</v>
       </c>
@@ -10166,7 +10162,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>2200171</v>
       </c>
@@ -10193,7 +10189,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>2200172</v>
       </c>
@@ -10652,7 +10648,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>2200189</v>
       </c>
@@ -10679,7 +10675,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>2200191</v>
       </c>
@@ -10754,7 +10750,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>2200195</v>
       </c>
@@ -10781,7 +10777,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>2200196</v>
       </c>
@@ -10943,7 +10939,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>2200202</v>
       </c>
@@ -11024,7 +11020,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>2200205</v>
       </c>
@@ -11078,7 +11074,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>2200207</v>
       </c>
@@ -11129,7 +11125,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>2200209</v>
       </c>
@@ -11237,7 +11233,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>2200213</v>
       </c>
@@ -11264,7 +11260,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>2200214</v>
       </c>
@@ -11291,7 +11287,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>2200215</v>
       </c>
@@ -11372,7 +11368,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>2200218</v>
       </c>
@@ -11399,7 +11395,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>2200219</v>
       </c>
@@ -11426,7 +11422,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>2200221</v>
       </c>
@@ -11534,7 +11530,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>2200230</v>
       </c>
@@ -11615,7 +11611,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>2200234</v>
       </c>
@@ -11642,7 +11638,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>2200236</v>
       </c>
@@ -12203,7 +12199,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>2200260</v>
       </c>
@@ -12230,7 +12226,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>2200261</v>
       </c>
@@ -12311,7 +12307,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>2200264</v>
       </c>
@@ -12338,7 +12334,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>2200265</v>
       </c>
@@ -12365,7 +12361,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>2200267</v>
       </c>
@@ -12392,7 +12388,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>2200268</v>
       </c>
@@ -12419,7 +12415,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>2200269</v>
       </c>
@@ -12551,7 +12547,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>2200274</v>
       </c>
@@ -12605,7 +12601,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>2200276</v>
       </c>
@@ -12659,7 +12655,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>2200278</v>
       </c>
@@ -12683,7 +12679,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>2200279</v>
       </c>
@@ -12710,7 +12706,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>2200280</v>
       </c>
@@ -12737,7 +12733,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>2200281</v>
       </c>
@@ -12764,7 +12760,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>2200282</v>
       </c>
@@ -12791,7 +12787,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>2200283</v>
       </c>
@@ -12845,7 +12841,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>2200285</v>
       </c>
@@ -13031,7 +13027,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>2200295</v>
       </c>
@@ -13058,7 +13054,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>2200296</v>
       </c>
@@ -13085,7 +13081,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1">
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>2200297</v>
       </c>
@@ -13139,7 +13135,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>2200322</v>
       </c>
@@ -13163,7 +13159,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>2200335</v>
       </c>
@@ -13187,7 +13183,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1">
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>2200337</v>
       </c>
@@ -13211,7 +13207,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>2200340</v>
       </c>
@@ -13262,7 +13258,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>2200356</v>
       </c>
@@ -13313,7 +13309,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1">
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>2200372</v>
       </c>
@@ -13340,7 +13336,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1">
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>2200373</v>
       </c>
@@ -13394,7 +13390,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1">
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>2200378</v>
       </c>
@@ -13421,7 +13417,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1">
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>2200380</v>
       </c>
@@ -13472,7 +13468,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>2200413</v>
       </c>
@@ -13631,7 +13627,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>2200431</v>
       </c>
@@ -13760,7 +13756,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1">
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>2200441</v>
       </c>
@@ -13814,7 +13810,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1">
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>2200444</v>
       </c>
@@ -13919,7 +13915,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1">
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>2200449</v>
       </c>
@@ -13946,7 +13942,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>2200450</v>
       </c>
@@ -13973,7 +13969,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1">
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>2200451</v>
       </c>
@@ -14000,7 +13996,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>2200452</v>
       </c>
@@ -14051,7 +14047,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1">
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>2200454</v>
       </c>
@@ -14078,7 +14074,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1">
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>2200456</v>
       </c>
@@ -14105,7 +14101,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1">
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>2200457</v>
       </c>
@@ -14132,7 +14128,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1">
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>2200459</v>
       </c>
@@ -14159,7 +14155,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1">
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>2200460</v>
       </c>
@@ -14267,7 +14263,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1">
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>2200504</v>
       </c>
@@ -14294,7 +14290,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1">
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>2200508</v>
       </c>
@@ -14348,7 +14344,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1">
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>2200513</v>
       </c>
@@ -14402,7 +14398,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1">
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>2200516</v>
       </c>
@@ -14429,7 +14425,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1">
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>2200517</v>
       </c>
@@ -14456,7 +14452,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1">
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>2200518</v>
       </c>
@@ -14537,7 +14533,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1">
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>2200521</v>
       </c>
@@ -14564,7 +14560,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1">
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>2200522</v>
       </c>
@@ -14618,7 +14614,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1">
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>2200524</v>
       </c>
@@ -14645,7 +14641,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1">
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>2200525</v>
       </c>
@@ -14834,7 +14830,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1">
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>2200546</v>
       </c>
@@ -14861,7 +14857,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1">
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>2200548</v>
       </c>
@@ -14888,7 +14884,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1">
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>2200549</v>
       </c>
@@ -14915,7 +14911,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1">
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>2200550</v>
       </c>
@@ -14996,7 +14992,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1">
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>2200591</v>
       </c>
@@ -15023,7 +15019,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1">
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>2200593</v>
       </c>
@@ -15077,7 +15073,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1">
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>2200600</v>
       </c>
@@ -15104,7 +15100,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1">
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>2200637</v>
       </c>
@@ -15131,7 +15127,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1">
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>2200638</v>
       </c>
@@ -15158,7 +15154,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1">
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>2200639</v>
       </c>
@@ -15290,7 +15286,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1">
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>2200666</v>
       </c>
@@ -15344,7 +15340,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1">
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>2200668</v>
       </c>
@@ -15398,7 +15394,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1">
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>2200670</v>
       </c>
@@ -15425,7 +15421,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1">
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>2200672</v>
       </c>
@@ -15506,7 +15502,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1">
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>2200675</v>
       </c>
@@ -15533,7 +15529,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1">
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>2200676</v>
       </c>
@@ -15560,7 +15556,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1">
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>2200677</v>
       </c>
@@ -15641,7 +15637,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1">
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>2200682</v>
       </c>
@@ -15719,7 +15715,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1">
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>2200694</v>
       </c>
@@ -15824,7 +15820,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1">
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>2200701</v>
       </c>
@@ -15851,7 +15847,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1">
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>2200703</v>
       </c>
@@ -15905,7 +15901,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1">
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>2200706</v>
       </c>
@@ -15932,7 +15928,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1">
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>2200707</v>
       </c>
@@ -16094,7 +16090,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1">
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>2200715</v>
       </c>
@@ -16121,7 +16117,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1">
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>2200716</v>
       </c>
@@ -16310,7 +16306,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1">
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>2200731</v>
       </c>
@@ -16337,7 +16333,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1">
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>2200732</v>
       </c>
@@ -16364,7 +16360,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1">
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>2200734</v>
       </c>
@@ -16499,7 +16495,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1">
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>2200739</v>
       </c>
@@ -16634,7 +16630,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1">
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>2200747</v>
       </c>
@@ -16688,7 +16684,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>2200749</v>
       </c>
@@ -16769,7 +16765,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>2200752</v>
       </c>
@@ -16796,7 +16792,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>2200757</v>
       </c>
@@ -16877,7 +16873,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>2200761</v>
       </c>
@@ -16904,7 +16900,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>2200789</v>
       </c>
@@ -16931,7 +16927,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>2200790</v>
       </c>
@@ -16958,7 +16954,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>2200791</v>
       </c>
@@ -16985,7 +16981,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>2200792</v>
       </c>
@@ -17012,7 +17008,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>2200798</v>
       </c>
@@ -17066,7 +17062,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>2200800</v>
       </c>
@@ -17093,7 +17089,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>2200801</v>
       </c>
@@ -17117,7 +17113,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>2200802</v>
       </c>
@@ -17198,7 +17194,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>2200805</v>
       </c>
@@ -17333,7 +17329,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>2200812</v>
       </c>
@@ -17441,7 +17437,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>2200818</v>
       </c>
@@ -17495,7 +17491,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>2200820</v>
       </c>
@@ -17576,7 +17572,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>2200825</v>
       </c>
@@ -17711,7 +17707,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>2200831</v>
       </c>
@@ -17738,7 +17734,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>2200832</v>
       </c>
@@ -17792,7 +17788,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>2200835</v>
       </c>
@@ -17819,7 +17815,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>2200836</v>
       </c>
@@ -18228,7 +18224,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>2200860</v>
       </c>
@@ -18255,7 +18251,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>2200865</v>
       </c>
@@ -18306,7 +18302,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>2200867</v>
       </c>
@@ -18333,7 +18329,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>2200868</v>
       </c>
@@ -18360,7 +18356,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>2200870</v>
       </c>
@@ -18465,7 +18461,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>2200880</v>
       </c>
@@ -18492,7 +18488,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>2200881</v>
       </c>
@@ -18546,7 +18542,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>2200889</v>
       </c>
@@ -18573,7 +18569,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1">
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>2200891</v>
       </c>
@@ -18600,7 +18596,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1">
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>2200893</v>
       </c>
@@ -18678,7 +18674,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1">
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>2200897</v>
       </c>
@@ -18702,7 +18698,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1">
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>2200912</v>
       </c>
@@ -18729,7 +18725,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1">
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>2200916</v>
       </c>
@@ -18756,7 +18752,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1">
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>2200917</v>
       </c>
@@ -18969,7 +18965,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1">
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>2200932</v>
       </c>
@@ -19101,7 +19097,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>2200940</v>
       </c>
@@ -19152,7 +19148,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>2200942</v>
       </c>
@@ -19179,7 +19175,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>2200944</v>
       </c>
@@ -19233,7 +19229,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>2200952</v>
       </c>
@@ -19260,7 +19256,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>2200956</v>
       </c>
@@ -19368,7 +19364,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>2200971</v>
       </c>
@@ -19473,7 +19469,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>2200981</v>
       </c>
@@ -19497,7 +19493,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>2200983</v>
       </c>
@@ -19521,7 +19517,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>2200984</v>
       </c>
@@ -19623,7 +19619,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>2200994</v>
       </c>
@@ -19758,7 +19754,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="300" hidden="1">
+    <row r="398" spans="1:8" ht="300">
       <c r="A398">
         <v>2201003</v>
       </c>
@@ -19812,7 +19808,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>2201007</v>
       </c>
@@ -19917,7 +19913,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>2201012</v>
       </c>
@@ -19944,7 +19940,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>2201019</v>
       </c>
@@ -19971,7 +19967,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>2201021</v>
       </c>
@@ -20133,7 +20129,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>2201028</v>
       </c>
@@ -20160,7 +20156,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1">
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>2201029</v>
       </c>
@@ -20187,7 +20183,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1">
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>2201031</v>
       </c>
@@ -20214,7 +20210,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1">
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>2201035</v>
       </c>
@@ -20292,7 +20288,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1">
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>2201044</v>
       </c>
@@ -20424,7 +20420,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1">
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>2201063</v>
       </c>
@@ -20451,7 +20447,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1">
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>2201066</v>
       </c>
@@ -20502,7 +20498,7 @@
         <v>互-</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1">
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>2201068</v>
       </c>
@@ -20604,7 +20600,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1">
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>2201074</v>
       </c>
@@ -20790,7 +20786,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1">
+    <row r="437" spans="1:8">
       <c r="A437">
         <v>2201087</v>
       </c>
@@ -20922,7 +20918,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1">
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>2201095</v>
       </c>
@@ -21027,7 +21023,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1">
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>2201100</v>
       </c>
@@ -21234,7 +21230,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1">
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>2201113</v>
       </c>
@@ -21261,7 +21257,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1">
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>2201117</v>
       </c>
@@ -21288,7 +21284,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1">
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>2201119</v>
       </c>
@@ -21474,7 +21470,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1">
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>2201145</v>
       </c>
@@ -21501,7 +21497,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1">
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>2201147</v>
       </c>
@@ -21555,7 +21551,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1">
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>2201154</v>
       </c>
@@ -21978,7 +21974,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1">
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>2201174</v>
       </c>
@@ -22005,7 +22001,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1">
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>2201175</v>
       </c>
@@ -22032,7 +22028,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1">
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>2201177</v>
       </c>
@@ -22059,7 +22055,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1">
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>2201178</v>
       </c>
@@ -22113,7 +22109,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1">
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>2201180</v>
       </c>
@@ -22326,7 +22322,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1">
+    <row r="495" spans="1:8">
       <c r="A495">
         <v>2201193</v>
       </c>
@@ -22353,7 +22349,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1">
+    <row r="496" spans="1:8">
       <c r="A496">
         <v>2201195</v>
       </c>
@@ -22503,7 +22499,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1">
+    <row r="502" spans="1:8">
       <c r="A502">
         <v>2201223</v>
       </c>
@@ -22575,7 +22571,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1">
+    <row r="505" spans="1:8">
       <c r="A505">
         <v>2201227</v>
       </c>
@@ -22602,7 +22598,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1">
+    <row r="506" spans="1:8">
       <c r="A506">
         <v>2201229</v>
       </c>
@@ -22626,7 +22622,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1">
+    <row r="507" spans="1:8">
       <c r="A507">
         <v>2201230</v>
       </c>
@@ -22650,7 +22646,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1">
+    <row r="508" spans="1:8">
       <c r="A508">
         <v>2201231</v>
       </c>
@@ -22674,7 +22670,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1">
+    <row r="509" spans="1:8">
       <c r="A509">
         <v>2201233</v>
       </c>
@@ -22701,7 +22697,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1">
+    <row r="510" spans="1:8">
       <c r="A510">
         <v>2201234</v>
       </c>
@@ -22728,7 +22724,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1">
+    <row r="511" spans="1:8">
       <c r="A511">
         <v>2201236</v>
       </c>
@@ -22782,7 +22778,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1">
+    <row r="513" spans="1:8">
       <c r="A513">
         <v>2201240</v>
       </c>
@@ -22809,7 +22805,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1">
+    <row r="514" spans="1:8">
       <c r="A514">
         <v>2201258</v>
       </c>
@@ -22833,7 +22829,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1">
+    <row r="515" spans="1:8">
       <c r="A515">
         <v>2201262</v>
       </c>
@@ -22962,7 +22958,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1">
+    <row r="520" spans="1:8">
       <c r="A520">
         <v>2201275</v>
       </c>
@@ -23016,7 +23012,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1">
+    <row r="522" spans="1:8">
       <c r="A522">
         <v>2201284</v>
       </c>
@@ -23151,7 +23147,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1">
+    <row r="527" spans="1:8">
       <c r="A527">
         <v>2201290</v>
       </c>
@@ -23481,7 +23477,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="165" hidden="1">
+    <row r="540" spans="1:8" ht="165">
       <c r="A540">
         <v>2201305</v>
       </c>
@@ -23535,7 +23531,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1">
+    <row r="542" spans="1:8">
       <c r="A542">
         <v>2201314</v>
       </c>
@@ -23616,7 +23612,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1">
+    <row r="545" spans="1:8">
       <c r="A545">
         <v>2201317</v>
       </c>
@@ -23832,7 +23828,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1">
+    <row r="553" spans="1:8">
       <c r="A553">
         <v>2201325</v>
       </c>
@@ -23886,7 +23882,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1">
+    <row r="555" spans="1:8">
       <c r="A555">
         <v>2201327</v>
       </c>
@@ -24099,7 +24095,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1">
+    <row r="563" spans="1:8">
       <c r="A563">
         <v>2201337</v>
       </c>
@@ -24153,7 +24149,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1">
+    <row r="565" spans="1:8">
       <c r="A565">
         <v>2201339</v>
       </c>
@@ -24234,7 +24230,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1">
+    <row r="568" spans="1:8">
       <c r="A568">
         <v>2201356</v>
       </c>
@@ -24288,7 +24284,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1">
+    <row r="570" spans="1:8">
       <c r="A570">
         <v>2201359</v>
       </c>
@@ -24315,7 +24311,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1">
+    <row r="571" spans="1:8">
       <c r="A571">
         <v>2201360</v>
       </c>
@@ -24342,7 +24338,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1">
+    <row r="572" spans="1:8">
       <c r="A572">
         <v>2201361</v>
       </c>
@@ -24555,7 +24551,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1">
+    <row r="580" spans="1:8">
       <c r="A580">
         <v>2201371</v>
       </c>
@@ -24705,7 +24701,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1">
+    <row r="586" spans="1:8">
       <c r="A586">
         <v>2201379</v>
       </c>
@@ -24945,7 +24941,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1">
+    <row r="595" spans="1:8">
       <c r="A595">
         <v>2201388</v>
       </c>
@@ -25233,7 +25229,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1">
+    <row r="606" spans="1:8">
       <c r="A606">
         <v>2201416</v>
       </c>
@@ -25260,7 +25256,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1">
+    <row r="607" spans="1:8">
       <c r="A607">
         <v>2201417</v>
       </c>
@@ -25365,7 +25361,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1">
+    <row r="611" spans="1:8">
       <c r="A611">
         <v>2201422</v>
       </c>
@@ -25392,7 +25388,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1">
+    <row r="612" spans="1:8">
       <c r="A612">
         <v>2201423</v>
       </c>
@@ -25419,7 +25415,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1">
+    <row r="613" spans="1:8">
       <c r="A613">
         <v>2201424</v>
       </c>
@@ -25446,7 +25442,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1">
+    <row r="614" spans="1:8">
       <c r="A614">
         <v>2201425</v>
       </c>
@@ -25473,7 +25469,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1">
+    <row r="615" spans="1:8">
       <c r="A615">
         <v>2201426</v>
       </c>
@@ -25500,7 +25496,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1">
+    <row r="616" spans="1:8">
       <c r="A616">
         <v>2201427</v>
       </c>
@@ -25809,7 +25805,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1">
+    <row r="628" spans="1:8">
       <c r="A628">
         <v>2201440</v>
       </c>
@@ -25836,7 +25832,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1">
+    <row r="629" spans="1:8">
       <c r="A629">
         <v>2201441</v>
       </c>
@@ -25863,7 +25859,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1">
+    <row r="630" spans="1:8">
       <c r="A630">
         <v>2201442</v>
       </c>
@@ -25890,7 +25886,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1">
+    <row r="631" spans="1:8">
       <c r="A631">
         <v>2201443</v>
       </c>
@@ -26388,7 +26384,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1">
+    <row r="650" spans="1:8">
       <c r="A650">
         <v>2201465</v>
       </c>
@@ -26469,7 +26465,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1">
+    <row r="653" spans="1:8">
       <c r="A653">
         <v>2201468</v>
       </c>
@@ -26493,7 +26489,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1">
+    <row r="654" spans="1:8">
       <c r="A654">
         <v>2201469</v>
       </c>
@@ -26520,7 +26516,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1">
+    <row r="655" spans="1:8">
       <c r="A655">
         <v>2201470</v>
       </c>
@@ -26547,7 +26543,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1">
+    <row r="656" spans="1:8">
       <c r="A656">
         <v>2201471</v>
       </c>
@@ -26574,7 +26570,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1">
+    <row r="657" spans="1:8">
       <c r="A657">
         <v>2201472</v>
       </c>
@@ -26628,7 +26624,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="659" spans="1:8" hidden="1">
+    <row r="659" spans="1:8">
       <c r="A659">
         <v>2201474</v>
       </c>
@@ -26682,7 +26678,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="661" spans="1:8" hidden="1">
+    <row r="661" spans="1:8">
       <c r="A661">
         <v>2201480</v>
       </c>
@@ -26709,7 +26705,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="662" spans="1:8" hidden="1">
+    <row r="662" spans="1:8">
       <c r="A662">
         <v>2201481</v>
       </c>
@@ -26763,7 +26759,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1">
+    <row r="664" spans="1:8">
       <c r="A664">
         <v>2201483</v>
       </c>
@@ -26790,7 +26786,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="665" spans="1:8" hidden="1">
+    <row r="665" spans="1:8">
       <c r="A665">
         <v>2201484</v>
       </c>
@@ -26898,7 +26894,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="669" spans="1:8" hidden="1">
+    <row r="669" spans="1:8">
       <c r="A669">
         <v>2201489</v>
       </c>
@@ -26925,7 +26921,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="670" spans="1:8" hidden="1">
+    <row r="670" spans="1:8">
       <c r="A670">
         <v>2201492</v>
       </c>
@@ -26952,7 +26948,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="671" spans="1:8" hidden="1">
+    <row r="671" spans="1:8">
       <c r="A671">
         <v>2201494</v>
       </c>
@@ -27087,7 +27083,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="676" spans="1:8" hidden="1">
+    <row r="676" spans="1:8">
       <c r="A676">
         <v>2201505</v>
       </c>
@@ -27111,7 +27107,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="677" spans="1:8" hidden="1">
+    <row r="677" spans="1:8">
       <c r="A677">
         <v>2201507</v>
       </c>
@@ -27135,7 +27131,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="678" spans="1:8" hidden="1">
+    <row r="678" spans="1:8">
       <c r="A678">
         <v>2201510</v>
       </c>
@@ -27159,7 +27155,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="345" hidden="1">
+    <row r="679" spans="1:8" ht="345">
       <c r="A679">
         <v>2201511</v>
       </c>
@@ -27264,7 +27260,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="683" spans="1:8" hidden="1">
+    <row r="683" spans="1:8">
       <c r="A683">
         <v>2201516</v>
       </c>
@@ -27288,7 +27284,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1">
+    <row r="684" spans="1:8">
       <c r="A684">
         <v>2201524</v>
       </c>
@@ -27312,7 +27308,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="685" spans="1:8" hidden="1">
+    <row r="685" spans="1:8">
       <c r="A685">
         <v>2201525</v>
       </c>
@@ -27336,7 +27332,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="686" spans="1:8" hidden="1">
+    <row r="686" spans="1:8">
       <c r="A686">
         <v>2201526</v>
       </c>
@@ -27387,7 +27383,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="688" spans="1:8" hidden="1">
+    <row r="688" spans="1:8">
       <c r="A688">
         <v>2201550</v>
       </c>
@@ -27411,7 +27407,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="689" spans="1:8" hidden="1">
+    <row r="689" spans="1:8">
       <c r="A689">
         <v>2201551</v>
       </c>
@@ -27435,7 +27431,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="690" spans="1:8" hidden="1">
+    <row r="690" spans="1:8">
       <c r="A690">
         <v>2201555</v>
       </c>
@@ -27459,7 +27455,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="691" spans="1:8" hidden="1">
+    <row r="691" spans="1:8">
       <c r="A691">
         <v>2201556</v>
       </c>
@@ -27483,7 +27479,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="692" spans="1:8" hidden="1">
+    <row r="692" spans="1:8">
       <c r="A692">
         <v>2201557</v>
       </c>
@@ -27507,7 +27503,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="693" spans="1:8" hidden="1">
+    <row r="693" spans="1:8">
       <c r="A693">
         <v>2201558</v>
       </c>
@@ -27531,7 +27527,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="694" spans="1:8" hidden="1">
+    <row r="694" spans="1:8">
       <c r="A694">
         <v>2201559</v>
       </c>
@@ -27555,7 +27551,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="695" spans="1:8" hidden="1">
+    <row r="695" spans="1:8">
       <c r="A695">
         <v>2201566</v>
       </c>
@@ -27579,7 +27575,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="696" spans="1:8" hidden="1">
+    <row r="696" spans="1:8">
       <c r="A696">
         <v>2201567</v>
       </c>
@@ -27603,7 +27599,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="697" spans="1:8" hidden="1">
+    <row r="697" spans="1:8">
       <c r="A697">
         <v>2201568</v>
       </c>
@@ -27627,7 +27623,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="698" spans="1:8" hidden="1">
+    <row r="698" spans="1:8">
       <c r="A698">
         <v>2201569</v>
       </c>
@@ -27651,7 +27647,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="699" spans="1:8" hidden="1">
+    <row r="699" spans="1:8">
       <c r="A699">
         <v>2201570</v>
       </c>
@@ -27675,7 +27671,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="700" spans="1:8" hidden="1">
+    <row r="700" spans="1:8">
       <c r="A700">
         <v>2201572</v>
       </c>
@@ -27699,7 +27695,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="701" spans="1:8" hidden="1">
+    <row r="701" spans="1:8">
       <c r="A701">
         <v>2201574</v>
       </c>
@@ -27819,7 +27815,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="706" spans="1:8" hidden="1">
+    <row r="706" spans="1:8">
       <c r="A706">
         <v>2201579</v>
       </c>
@@ -27843,7 +27839,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="707" spans="1:8" hidden="1">
+    <row r="707" spans="1:8">
       <c r="A707">
         <v>2201580</v>
       </c>
@@ -27867,7 +27863,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="708" spans="1:8" hidden="1">
+    <row r="708" spans="1:8">
       <c r="A708">
         <v>2201583</v>
       </c>
@@ -27891,7 +27887,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="709" spans="1:8" hidden="1">
+    <row r="709" spans="1:8">
       <c r="A709">
         <v>2201584</v>
       </c>
@@ -27915,7 +27911,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1">
+    <row r="710" spans="1:8">
       <c r="A710">
         <v>2201585</v>
       </c>
@@ -27939,7 +27935,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1">
+    <row r="711" spans="1:8">
       <c r="A711">
         <v>2201586</v>
       </c>
@@ -27963,7 +27959,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="712" spans="1:8" hidden="1">
+    <row r="712" spans="1:8">
       <c r="A712">
         <v>2201587</v>
       </c>
@@ -27987,7 +27983,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="713" spans="1:8" hidden="1">
+    <row r="713" spans="1:8">
       <c r="A713">
         <v>2201588</v>
       </c>
@@ -28011,7 +28007,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1">
+    <row r="714" spans="1:8">
       <c r="A714">
         <v>2201589</v>
       </c>
@@ -28035,7 +28031,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="715" spans="1:8" hidden="1">
+    <row r="715" spans="1:8">
       <c r="A715">
         <v>2201590</v>
       </c>
@@ -28083,7 +28079,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1">
+    <row r="717" spans="1:8">
       <c r="A717">
         <v>2201592</v>
       </c>
@@ -28107,7 +28103,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="718" spans="1:8" hidden="1">
+    <row r="718" spans="1:8">
       <c r="A718">
         <v>2201593</v>
       </c>
@@ -28155,7 +28151,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="720" spans="1:8" hidden="1">
+    <row r="720" spans="1:8">
       <c r="A720">
         <v>2201595</v>
       </c>
@@ -28230,7 +28226,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="723" spans="1:8" hidden="1">
+    <row r="723" spans="1:8">
       <c r="A723">
         <v>2201598</v>
       </c>
@@ -28254,7 +28250,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="724" spans="1:8" hidden="1">
+    <row r="724" spans="1:8">
       <c r="A724">
         <v>2201599</v>
       </c>
@@ -28305,7 +28301,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="726" spans="1:8" hidden="1">
+    <row r="726" spans="1:8">
       <c r="A726">
         <v>2201601</v>
       </c>
@@ -28356,7 +28352,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="728" spans="1:8" hidden="1">
+    <row r="728" spans="1:8">
       <c r="A728">
         <v>2201604</v>
       </c>
@@ -28407,7 +28403,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="730" spans="1:8" hidden="1">
+    <row r="730" spans="1:8">
       <c r="A730">
         <v>2201606</v>
       </c>
@@ -28431,7 +28427,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="731" spans="1:8" hidden="1">
+    <row r="731" spans="1:8">
       <c r="A731">
         <v>2201607</v>
       </c>
@@ -28482,7 +28478,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="733" spans="1:8" hidden="1">
+    <row r="733" spans="1:8">
       <c r="A733">
         <v>2201609</v>
       </c>
@@ -28530,7 +28526,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="735" spans="1:8" hidden="1">
+    <row r="735" spans="1:8">
       <c r="A735">
         <v>2201611</v>
       </c>
@@ -28554,7 +28550,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="736" spans="1:8" hidden="1">
+    <row r="736" spans="1:8">
       <c r="A736">
         <v>2201612</v>
       </c>
@@ -28578,7 +28574,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="737" spans="1:8" hidden="1">
+    <row r="737" spans="1:8">
       <c r="A737">
         <v>2201613</v>
       </c>
@@ -28602,7 +28598,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="738" spans="1:8" hidden="1">
+    <row r="738" spans="1:8">
       <c r="A738">
         <v>2201614</v>
       </c>
@@ -28626,7 +28622,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="739" spans="1:8" hidden="1">
+    <row r="739" spans="1:8">
       <c r="A739">
         <v>2201615</v>
       </c>
@@ -28650,7 +28646,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="740" spans="1:8" hidden="1">
+    <row r="740" spans="1:8">
       <c r="A740">
         <v>2201617</v>
       </c>
@@ -28674,7 +28670,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="741" spans="1:8" hidden="1">
+    <row r="741" spans="1:8">
       <c r="A741">
         <v>2201618</v>
       </c>
@@ -28698,7 +28694,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="742" spans="1:8" hidden="1">
+    <row r="742" spans="1:8">
       <c r="A742">
         <v>2201619</v>
       </c>
@@ -28722,7 +28718,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="743" spans="1:8" hidden="1">
+    <row r="743" spans="1:8">
       <c r="A743">
         <v>2201620</v>
       </c>
@@ -28746,7 +28742,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="744" spans="1:8" hidden="1">
+    <row r="744" spans="1:8">
       <c r="A744">
         <v>2201621</v>
       </c>
@@ -28770,7 +28766,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="745" spans="1:8" hidden="1">
+    <row r="745" spans="1:8">
       <c r="A745">
         <v>2201622</v>
       </c>
@@ -28794,7 +28790,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="746" spans="1:8" ht="90" hidden="1">
+    <row r="746" spans="1:8" ht="90">
       <c r="A746">
         <v>2201623</v>
       </c>
@@ -28818,7 +28814,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="747" spans="1:8" hidden="1">
+    <row r="747" spans="1:8">
       <c r="A747">
         <v>2201624</v>
       </c>
@@ -28842,7 +28838,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="748" spans="1:8" hidden="1">
+    <row r="748" spans="1:8">
       <c r="A748">
         <v>2201625</v>
       </c>
@@ -28866,7 +28862,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="749" spans="1:8" hidden="1">
+    <row r="749" spans="1:8">
       <c r="A749">
         <v>2201626</v>
       </c>
@@ -28890,7 +28886,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="750" spans="1:8" hidden="1">
+    <row r="750" spans="1:8">
       <c r="A750">
         <v>2201627</v>
       </c>
@@ -28914,7 +28910,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="751" spans="1:8" hidden="1">
+    <row r="751" spans="1:8">
       <c r="A751">
         <v>2201628</v>
       </c>
@@ -28938,7 +28934,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="752" spans="1:8" hidden="1">
+    <row r="752" spans="1:8">
       <c r="A752">
         <v>2201629</v>
       </c>
@@ -28962,7 +28958,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="753" spans="1:8" hidden="1">
+    <row r="753" spans="1:8">
       <c r="A753">
         <v>2201630</v>
       </c>
@@ -29013,7 +29009,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="755" spans="1:8" hidden="1">
+    <row r="755" spans="1:8">
       <c r="A755">
         <v>2201632</v>
       </c>
@@ -29037,7 +29033,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="756" spans="1:8" hidden="1">
+    <row r="756" spans="1:8">
       <c r="A756">
         <v>2201634</v>
       </c>
@@ -29061,7 +29057,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="757" spans="1:8" hidden="1">
+    <row r="757" spans="1:8">
       <c r="A757">
         <v>2201638</v>
       </c>
@@ -29085,7 +29081,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="758" spans="1:8" hidden="1">
+    <row r="758" spans="1:8">
       <c r="A758">
         <v>2201639</v>
       </c>
@@ -29109,7 +29105,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="759" spans="1:8" hidden="1">
+    <row r="759" spans="1:8">
       <c r="A759">
         <v>2201640</v>
       </c>
@@ -29133,7 +29129,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="760" spans="1:8" hidden="1">
+    <row r="760" spans="1:8">
       <c r="A760">
         <v>2201641</v>
       </c>
@@ -29157,7 +29153,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="761" spans="1:8" hidden="1">
+    <row r="761" spans="1:8">
       <c r="A761">
         <v>2201642</v>
       </c>
@@ -29181,7 +29177,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="762" spans="1:8" hidden="1">
+    <row r="762" spans="1:8">
       <c r="A762">
         <v>2201645</v>
       </c>
@@ -29205,7 +29201,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="763" spans="1:8" hidden="1">
+    <row r="763" spans="1:8">
       <c r="A763">
         <v>2201646</v>
       </c>
@@ -29229,7 +29225,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="764" spans="1:8" hidden="1">
+    <row r="764" spans="1:8">
       <c r="A764">
         <v>2201647</v>
       </c>
@@ -29253,7 +29249,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="765" spans="1:8" hidden="1">
+    <row r="765" spans="1:8">
       <c r="A765">
         <v>2201648</v>
       </c>
@@ -29277,7 +29273,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="766" spans="1:8" hidden="1">
+    <row r="766" spans="1:8">
       <c r="A766">
         <v>2201650</v>
       </c>
@@ -29328,7 +29324,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="768" spans="1:8" hidden="1">
+    <row r="768" spans="1:8">
       <c r="A768">
         <v>2201653</v>
       </c>
@@ -29406,7 +29402,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="771" spans="1:8" hidden="1">
+    <row r="771" spans="1:8">
       <c r="A771">
         <v>2201656</v>
       </c>
@@ -29430,7 +29426,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="772" spans="1:8" hidden="1">
+    <row r="772" spans="1:8">
       <c r="A772">
         <v>2201657</v>
       </c>
@@ -29478,7 +29474,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="774" spans="1:8" hidden="1">
+    <row r="774" spans="1:8">
       <c r="A774">
         <v>2201669</v>
       </c>
@@ -29505,7 +29501,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="775" spans="1:8" hidden="1">
+    <row r="775" spans="1:8">
       <c r="A775">
         <v>2201671</v>
       </c>
@@ -29529,7 +29525,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="776" spans="1:8" hidden="1">
+    <row r="776" spans="1:8">
       <c r="A776">
         <v>2201672</v>
       </c>
@@ -29580,7 +29576,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="778" spans="1:8" hidden="1">
+    <row r="778" spans="1:8">
       <c r="A778">
         <v>2201674</v>
       </c>
@@ -29604,7 +29600,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="779" spans="1:8" hidden="1">
+    <row r="779" spans="1:8">
       <c r="A779">
         <v>2201675</v>
       </c>
@@ -29628,7 +29624,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="780" spans="1:8" hidden="1">
+    <row r="780" spans="1:8">
       <c r="A780">
         <v>2201676</v>
       </c>
@@ -29652,7 +29648,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="781" spans="1:8" hidden="1">
+    <row r="781" spans="1:8">
       <c r="A781">
         <v>2201677</v>
       </c>
@@ -29676,7 +29672,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="782" spans="1:8" hidden="1">
+    <row r="782" spans="1:8">
       <c r="A782">
         <v>2201679</v>
       </c>
@@ -29700,7 +29696,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="783" spans="1:8" hidden="1">
+    <row r="783" spans="1:8">
       <c r="A783">
         <v>2201680</v>
       </c>
@@ -29724,7 +29720,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="784" spans="1:8" hidden="1">
+    <row r="784" spans="1:8">
       <c r="A784">
         <v>2201682</v>
       </c>
@@ -29748,7 +29744,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="785" spans="1:8" hidden="1">
+    <row r="785" spans="1:8">
       <c r="A785">
         <v>2201685</v>
       </c>
@@ -29772,7 +29768,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="786" spans="1:8" hidden="1">
+    <row r="786" spans="1:8">
       <c r="A786">
         <v>2201690</v>
       </c>
@@ -29796,7 +29792,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="787" spans="1:8" hidden="1">
+    <row r="787" spans="1:8">
       <c r="A787">
         <v>2201691</v>
       </c>
@@ -29820,7 +29816,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="788" spans="1:8" hidden="1">
+    <row r="788" spans="1:8">
       <c r="A788">
         <v>2201692</v>
       </c>
@@ -29844,7 +29840,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="789" spans="1:8" hidden="1">
+    <row r="789" spans="1:8">
       <c r="A789">
         <v>2201693</v>
       </c>
@@ -29868,7 +29864,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="790" spans="1:8" hidden="1">
+    <row r="790" spans="1:8">
       <c r="A790">
         <v>2201695</v>
       </c>
@@ -29892,7 +29888,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="791" spans="1:8" hidden="1">
+    <row r="791" spans="1:8">
       <c r="A791">
         <v>2201696</v>
       </c>
@@ -29916,7 +29912,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="792" spans="1:8" hidden="1">
+    <row r="792" spans="1:8">
       <c r="A792">
         <v>2201699</v>
       </c>
@@ -29940,7 +29936,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="793" spans="1:8" hidden="1">
+    <row r="793" spans="1:8">
       <c r="A793">
         <v>2201700</v>
       </c>
@@ -29964,7 +29960,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="794" spans="1:8" hidden="1">
+    <row r="794" spans="1:8">
       <c r="A794">
         <v>2201701</v>
       </c>
@@ -30069,7 +30065,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="798" spans="1:8" hidden="1">
+    <row r="798" spans="1:8">
       <c r="A798">
         <v>2201705</v>
       </c>
@@ -30093,7 +30089,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="799" spans="1:8" hidden="1">
+    <row r="799" spans="1:8">
       <c r="A799">
         <v>2201706</v>
       </c>
@@ -30117,7 +30113,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="800" spans="1:8" hidden="1">
+    <row r="800" spans="1:8">
       <c r="A800">
         <v>2201710</v>
       </c>
@@ -30141,7 +30137,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="801" spans="1:8" hidden="1">
+    <row r="801" spans="1:8">
       <c r="A801">
         <v>2201711</v>
       </c>
@@ -30165,7 +30161,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="802" spans="1:8" hidden="1">
+    <row r="802" spans="1:8">
       <c r="A802">
         <v>2201712</v>
       </c>
@@ -30189,7 +30185,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="803" spans="1:8" hidden="1">
+    <row r="803" spans="1:8">
       <c r="A803">
         <v>2201715</v>
       </c>
@@ -30213,7 +30209,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="804" spans="1:8" hidden="1">
+    <row r="804" spans="1:8">
       <c r="A804">
         <v>2201716</v>
       </c>
@@ -30261,7 +30257,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="806" spans="1:8" hidden="1">
+    <row r="806" spans="1:8">
       <c r="A806">
         <v>2201719</v>
       </c>
@@ -30336,7 +30332,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="809" spans="1:8" hidden="1">
+    <row r="809" spans="1:8">
       <c r="A809">
         <v>2201724</v>
       </c>
@@ -30387,7 +30383,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="811" spans="1:8" hidden="1">
+    <row r="811" spans="1:8">
       <c r="A811">
         <v>2201726</v>
       </c>
@@ -30411,7 +30407,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="812" spans="1:8" hidden="1">
+    <row r="812" spans="1:8">
       <c r="A812">
         <v>2201727</v>
       </c>
@@ -30462,7 +30458,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="814" spans="1:8" hidden="1">
+    <row r="814" spans="1:8">
       <c r="A814">
         <v>2201733</v>
       </c>
@@ -30513,7 +30509,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="816" spans="1:8" hidden="1">
+    <row r="816" spans="1:8">
       <c r="A816">
         <v>2201736</v>
       </c>
@@ -30537,7 +30533,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="817" spans="1:8" hidden="1">
+    <row r="817" spans="1:8">
       <c r="A817">
         <v>2201738</v>
       </c>
@@ -30561,7 +30557,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="818" spans="1:8" hidden="1">
+    <row r="818" spans="1:8">
       <c r="A818">
         <v>2201739</v>
       </c>
@@ -30585,7 +30581,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="819" spans="1:8" hidden="1">
+    <row r="819" spans="1:8">
       <c r="A819">
         <v>2201740</v>
       </c>
@@ -30609,7 +30605,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="820" spans="1:8" hidden="1">
+    <row r="820" spans="1:8">
       <c r="A820">
         <v>2201741</v>
       </c>
@@ -30633,7 +30629,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="821" spans="1:8" hidden="1">
+    <row r="821" spans="1:8">
       <c r="A821">
         <v>2201743</v>
       </c>
@@ -30657,7 +30653,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="822" spans="1:8" hidden="1">
+    <row r="822" spans="1:8">
       <c r="A822">
         <v>2201744</v>
       </c>
@@ -30681,7 +30677,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="823" spans="1:8" hidden="1">
+    <row r="823" spans="1:8">
       <c r="A823">
         <v>2201745</v>
       </c>
@@ -30732,7 +30728,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="825" spans="1:8" hidden="1">
+    <row r="825" spans="1:8">
       <c r="A825">
         <v>2201747</v>
       </c>
@@ -30756,7 +30752,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="826" spans="1:8" hidden="1">
+    <row r="826" spans="1:8">
       <c r="A826">
         <v>2201748</v>
       </c>
@@ -30780,7 +30776,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="827" spans="1:8" hidden="1">
+    <row r="827" spans="1:8">
       <c r="A827">
         <v>2201749</v>
       </c>
@@ -30804,7 +30800,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="828" spans="1:8" hidden="1">
+    <row r="828" spans="1:8">
       <c r="A828">
         <v>2201752</v>
       </c>
@@ -30828,7 +30824,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="829" spans="1:8" hidden="1">
+    <row r="829" spans="1:8">
       <c r="A829">
         <v>2201756</v>
       </c>
@@ -30852,7 +30848,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="830" spans="1:8" hidden="1">
+    <row r="830" spans="1:8">
       <c r="A830">
         <v>2201757</v>
       </c>
@@ -30876,7 +30872,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="831" spans="1:8" hidden="1">
+    <row r="831" spans="1:8">
       <c r="A831">
         <v>2201758</v>
       </c>
@@ -30924,7 +30920,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="833" spans="1:8" hidden="1">
+    <row r="833" spans="1:8">
       <c r="A833">
         <v>2201760</v>
       </c>
@@ -30948,7 +30944,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="834" spans="1:8" hidden="1">
+    <row r="834" spans="1:8">
       <c r="A834">
         <v>2201761</v>
       </c>
@@ -31026,7 +31022,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="837" spans="1:8" hidden="1">
+    <row r="837" spans="1:8">
       <c r="A837">
         <v>2201764</v>
       </c>
@@ -31104,7 +31100,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="840" spans="1:8" hidden="1">
+    <row r="840" spans="1:8">
       <c r="A840">
         <v>2201767</v>
       </c>
@@ -31128,7 +31124,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="841" spans="1:8" hidden="1">
+    <row r="841" spans="1:8">
       <c r="A841">
         <v>2201770</v>
       </c>
@@ -31152,7 +31148,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="842" spans="1:8" hidden="1">
+    <row r="842" spans="1:8">
       <c r="A842">
         <v>2201779</v>
       </c>
@@ -31176,7 +31172,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="843" spans="1:8" hidden="1">
+    <row r="843" spans="1:8">
       <c r="A843">
         <v>2201780</v>
       </c>
@@ -31200,7 +31196,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="844" spans="1:8" hidden="1">
+    <row r="844" spans="1:8">
       <c r="A844">
         <v>2201781</v>
       </c>
@@ -31227,7 +31223,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="845" spans="1:8" hidden="1">
+    <row r="845" spans="1:8">
       <c r="A845">
         <v>2201782</v>
       </c>
@@ -31251,7 +31247,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="846" spans="1:8" hidden="1">
+    <row r="846" spans="1:8">
       <c r="A846">
         <v>2201785</v>
       </c>
@@ -31275,7 +31271,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="847" spans="1:8" hidden="1">
+    <row r="847" spans="1:8">
       <c r="A847">
         <v>2201787</v>
       </c>
@@ -31353,7 +31349,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="850" spans="1:8" hidden="1">
+    <row r="850" spans="1:8">
       <c r="A850">
         <v>2201790</v>
       </c>
@@ -31377,7 +31373,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="851" spans="1:8" hidden="1">
+    <row r="851" spans="1:8">
       <c r="A851">
         <v>2201792</v>
       </c>
@@ -31428,7 +31424,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="853" spans="1:8" hidden="1">
+    <row r="853" spans="1:8">
       <c r="A853">
         <v>2201803</v>
       </c>
@@ -31479,7 +31475,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="855" spans="1:8" hidden="1">
+    <row r="855" spans="1:8">
       <c r="A855">
         <v>2201805</v>
       </c>
@@ -31503,7 +31499,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="856" spans="1:8" hidden="1">
+    <row r="856" spans="1:8">
       <c r="A856">
         <v>2201806</v>
       </c>
@@ -31527,7 +31523,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="857" spans="1:8" hidden="1">
+    <row r="857" spans="1:8">
       <c r="A857">
         <v>2201807</v>
       </c>
@@ -31551,7 +31547,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="858" spans="1:8" hidden="1">
+    <row r="858" spans="1:8">
       <c r="A858">
         <v>2201811</v>
       </c>
@@ -31575,7 +31571,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="859" spans="1:8" hidden="1">
+    <row r="859" spans="1:8">
       <c r="A859">
         <v>2201812</v>
       </c>
@@ -31599,7 +31595,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="860" spans="1:8" hidden="1">
+    <row r="860" spans="1:8">
       <c r="A860">
         <v>2201813</v>
       </c>
@@ -31623,7 +31619,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="861" spans="1:8" hidden="1">
+    <row r="861" spans="1:8">
       <c r="A861">
         <v>2201814</v>
       </c>
@@ -31647,7 +31643,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="862" spans="1:8" hidden="1">
+    <row r="862" spans="1:8">
       <c r="A862">
         <v>2201815</v>
       </c>
@@ -31671,7 +31667,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="863" spans="1:8" hidden="1">
+    <row r="863" spans="1:8">
       <c r="A863">
         <v>2201816</v>
       </c>
@@ -31695,7 +31691,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="864" spans="1:8" hidden="1">
+    <row r="864" spans="1:8">
       <c r="A864">
         <v>2201818</v>
       </c>
@@ -31719,7 +31715,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="865" spans="1:8" hidden="1">
+    <row r="865" spans="1:8">
       <c r="A865">
         <v>2201819</v>
       </c>
@@ -31743,7 +31739,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="866" spans="1:8" hidden="1">
+    <row r="866" spans="1:8">
       <c r="A866">
         <v>2201820</v>
       </c>
@@ -31767,7 +31763,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="867" spans="1:8" hidden="1">
+    <row r="867" spans="1:8">
       <c r="A867">
         <v>2201823</v>
       </c>
@@ -31791,7 +31787,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="868" spans="1:8" hidden="1">
+    <row r="868" spans="1:8">
       <c r="A868">
         <v>2201830</v>
       </c>
@@ -31815,7 +31811,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="869" spans="1:8" hidden="1">
+    <row r="869" spans="1:8">
       <c r="A869">
         <v>2201831</v>
       </c>
@@ -31839,7 +31835,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="870" spans="1:8" hidden="1">
+    <row r="870" spans="1:8">
       <c r="A870">
         <v>2201834</v>
       </c>
@@ -31863,7 +31859,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="871" spans="1:8" hidden="1">
+    <row r="871" spans="1:8">
       <c r="A871">
         <v>2201835</v>
       </c>
@@ -31887,7 +31883,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="872" spans="1:8" hidden="1">
+    <row r="872" spans="1:8">
       <c r="A872">
         <v>2201836</v>
       </c>
@@ -31911,7 +31907,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="873" spans="1:8" hidden="1">
+    <row r="873" spans="1:8">
       <c r="A873">
         <v>2201837</v>
       </c>
@@ -31986,7 +31982,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="876" spans="1:8" hidden="1">
+    <row r="876" spans="1:8">
       <c r="A876">
         <v>2201840</v>
       </c>
@@ -32037,7 +32033,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="878" spans="1:8" hidden="1">
+    <row r="878" spans="1:8">
       <c r="A878">
         <v>2201842</v>
       </c>
@@ -32061,7 +32057,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="879" spans="1:8" hidden="1">
+    <row r="879" spans="1:8">
       <c r="A879">
         <v>2201843</v>
       </c>
@@ -32085,7 +32081,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="880" spans="1:8" hidden="1">
+    <row r="880" spans="1:8">
       <c r="A880">
         <v>2201844</v>
       </c>
@@ -32136,7 +32132,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="882" spans="1:8" hidden="1">
+    <row r="882" spans="1:8">
       <c r="A882">
         <v>2201846</v>
       </c>
@@ -32160,7 +32156,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="883" spans="1:8" hidden="1">
+    <row r="883" spans="1:8">
       <c r="A883">
         <v>2201847</v>
       </c>
@@ -32346,7 +32342,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="890" spans="1:8" hidden="1">
+    <row r="890" spans="1:8">
       <c r="A890">
         <v>2201855</v>
       </c>
@@ -32397,7 +32393,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="892" spans="1:8" hidden="1">
+    <row r="892" spans="1:8">
       <c r="A892">
         <v>2201857</v>
       </c>
@@ -32421,7 +32417,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="893" spans="1:8" hidden="1">
+    <row r="893" spans="1:8">
       <c r="A893">
         <v>2201858</v>
       </c>
@@ -32445,7 +32441,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="894" spans="1:8" hidden="1">
+    <row r="894" spans="1:8">
       <c r="A894">
         <v>2201859</v>
       </c>
@@ -32523,7 +32519,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="897" spans="1:8" hidden="1">
+    <row r="897" spans="1:8">
       <c r="A897">
         <v>2201863</v>
       </c>
@@ -32547,7 +32543,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="898" spans="1:8" hidden="1">
+    <row r="898" spans="1:8">
       <c r="A898">
         <v>2201864</v>
       </c>
@@ -32571,7 +32567,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="899" spans="1:8" hidden="1">
+    <row r="899" spans="1:8">
       <c r="A899">
         <v>2201865</v>
       </c>
@@ -32811,7 +32807,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="908" spans="1:8" hidden="1">
+    <row r="908" spans="1:8">
       <c r="A908">
         <v>2201875</v>
       </c>
@@ -32835,7 +32831,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="909" spans="1:8" hidden="1">
+    <row r="909" spans="1:8">
       <c r="A909">
         <v>2201876</v>
       </c>
@@ -32910,7 +32906,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="912" spans="1:8" hidden="1">
+    <row r="912" spans="1:8">
       <c r="A912">
         <v>2201879</v>
       </c>
@@ -32937,7 +32933,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="913" spans="1:8" hidden="1">
+    <row r="913" spans="1:8">
       <c r="A913">
         <v>2201880</v>
       </c>
@@ -32988,7 +32984,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="915" spans="1:8" hidden="1">
+    <row r="915" spans="1:8">
       <c r="A915">
         <v>2201882</v>
       </c>
@@ -33012,7 +33008,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="916" spans="1:8" hidden="1">
+    <row r="916" spans="1:8">
       <c r="A916">
         <v>2201883</v>
       </c>
@@ -33036,7 +33032,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="917" spans="1:8" hidden="1">
+    <row r="917" spans="1:8">
       <c r="A917">
         <v>2201884</v>
       </c>
@@ -33060,7 +33056,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="918" spans="1:8" hidden="1">
+    <row r="918" spans="1:8">
       <c r="A918">
         <v>2201885</v>
       </c>
@@ -33135,7 +33131,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="921" spans="1:8" hidden="1">
+    <row r="921" spans="1:8">
       <c r="A921">
         <v>2201888</v>
       </c>
@@ -33213,7 +33209,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="924" spans="1:8" hidden="1">
+    <row r="924" spans="1:8">
       <c r="A924">
         <v>2201893</v>
       </c>
@@ -33264,7 +33260,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="926" spans="1:8" hidden="1">
+    <row r="926" spans="1:8">
       <c r="A926">
         <v>2201895</v>
       </c>
@@ -33288,7 +33284,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="927" spans="1:8" hidden="1">
+    <row r="927" spans="1:8">
       <c r="A927">
         <v>2201897</v>
       </c>
@@ -33312,7 +33308,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="928" spans="1:8" hidden="1">
+    <row r="928" spans="1:8">
       <c r="A928">
         <v>2201898</v>
       </c>
@@ -33360,7 +33356,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="930" spans="1:8" hidden="1">
+    <row r="930" spans="1:8">
       <c r="A930">
         <v>2201900</v>
       </c>
@@ -33384,7 +33380,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="931" spans="1:8" hidden="1">
+    <row r="931" spans="1:8">
       <c r="A931">
         <v>2201901</v>
       </c>
@@ -33408,7 +33404,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="932" spans="1:8" hidden="1">
+    <row r="932" spans="1:8">
       <c r="A932">
         <v>2201902</v>
       </c>
@@ -33432,7 +33428,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="933" spans="1:8" hidden="1">
+    <row r="933" spans="1:8">
       <c r="A933">
         <v>2201903</v>
       </c>
@@ -33456,7 +33452,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="934" spans="1:8" hidden="1">
+    <row r="934" spans="1:8">
       <c r="A934">
         <v>2201905</v>
       </c>
@@ -33480,7 +33476,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="935" spans="1:8" hidden="1">
+    <row r="935" spans="1:8">
       <c r="A935">
         <v>2201906</v>
       </c>
@@ -33504,7 +33500,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="936" spans="1:8" hidden="1">
+    <row r="936" spans="1:8">
       <c r="A936">
         <v>2201907</v>
       </c>
@@ -33555,7 +33551,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="938" spans="1:8" hidden="1">
+    <row r="938" spans="1:8">
       <c r="A938">
         <v>2201909</v>
       </c>
@@ -33579,7 +33575,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="939" spans="1:8" hidden="1">
+    <row r="939" spans="1:8">
       <c r="A939">
         <v>2201910</v>
       </c>
@@ -33630,7 +33626,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="941" spans="1:8" hidden="1">
+    <row r="941" spans="1:8">
       <c r="A941">
         <v>2201913</v>
       </c>
@@ -33756,7 +33752,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="946" spans="1:8" hidden="1">
+    <row r="946" spans="1:8">
       <c r="A946">
         <v>2201919</v>
       </c>
@@ -33780,7 +33776,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="947" spans="1:8" hidden="1">
+    <row r="947" spans="1:8">
       <c r="A947">
         <v>2201920</v>
       </c>
@@ -33804,7 +33800,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="948" spans="1:8" hidden="1">
+    <row r="948" spans="1:8">
       <c r="A948">
         <v>2201921</v>
       </c>
@@ -33828,7 +33824,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="949" spans="1:8" hidden="1">
+    <row r="949" spans="1:8">
       <c r="A949">
         <v>2201922</v>
       </c>
@@ -33879,7 +33875,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="951" spans="1:8" hidden="1">
+    <row r="951" spans="1:8">
       <c r="A951">
         <v>2201926</v>
       </c>
@@ -33954,7 +33950,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="954" spans="1:8" hidden="1">
+    <row r="954" spans="1:8">
       <c r="A954">
         <v>2201930</v>
       </c>
@@ -33978,7 +33974,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="955" spans="1:8" hidden="1">
+    <row r="955" spans="1:8">
       <c r="A955">
         <v>2201931</v>
       </c>
@@ -34002,7 +33998,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="956" spans="1:8" hidden="1">
+    <row r="956" spans="1:8">
       <c r="A956">
         <v>2201932</v>
       </c>
@@ -34053,7 +34049,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="958" spans="1:8" hidden="1">
+    <row r="958" spans="1:8">
       <c r="A958">
         <v>2201934</v>
       </c>
@@ -34104,7 +34100,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="960" spans="1:8" hidden="1">
+    <row r="960" spans="1:8">
       <c r="A960">
         <v>2201936</v>
       </c>
@@ -34155,7 +34151,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="962" spans="1:8" hidden="1">
+    <row r="962" spans="1:8">
       <c r="A962">
         <v>2201939</v>
       </c>
@@ -34233,7 +34229,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="965" spans="1:8" hidden="1">
+    <row r="965" spans="1:8">
       <c r="A965">
         <v>2201948</v>
       </c>
@@ -34257,7 +34253,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="966" spans="1:8" hidden="1">
+    <row r="966" spans="1:8">
       <c r="A966">
         <v>2201954</v>
       </c>
@@ -34281,7 +34277,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="967" spans="1:8" hidden="1">
+    <row r="967" spans="1:8">
       <c r="A967">
         <v>2201962</v>
       </c>
@@ -34488,7 +34484,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="975" spans="1:8" hidden="1">
+    <row r="975" spans="1:8">
       <c r="A975">
         <v>2201971</v>
       </c>
@@ -34515,7 +34511,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="976" spans="1:8" hidden="1">
+    <row r="976" spans="1:8">
       <c r="A976">
         <v>2201972</v>
       </c>
@@ -34539,7 +34535,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="977" spans="1:8" hidden="1">
+    <row r="977" spans="1:8">
       <c r="A977">
         <v>2201973</v>
       </c>
@@ -34563,7 +34559,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="978" spans="1:8" hidden="1">
+    <row r="978" spans="1:8">
       <c r="A978">
         <v>2201974</v>
       </c>
@@ -34587,7 +34583,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="979" spans="1:8" hidden="1">
+    <row r="979" spans="1:8">
       <c r="A979">
         <v>2201975</v>
       </c>
@@ -34692,7 +34688,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="983" spans="1:8" hidden="1">
+    <row r="983" spans="1:8">
       <c r="A983">
         <v>2201981</v>
       </c>
@@ -34716,7 +34712,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="984" spans="1:8" hidden="1">
+    <row r="984" spans="1:8">
       <c r="A984">
         <v>2201982</v>
       </c>
@@ -34791,7 +34787,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="987" spans="1:8" hidden="1">
+    <row r="987" spans="1:8">
       <c r="A987">
         <v>2201986</v>
       </c>
@@ -35274,7 +35270,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1005" spans="1:8" hidden="1">
+    <row r="1005" spans="1:8">
       <c r="A1005">
         <v>2202006</v>
       </c>
@@ -37707,7 +37703,7 @@
         <v/>
       </c>
     </row>
-    <row r="1096" spans="1:8" ht="75" hidden="1">
+    <row r="1096" spans="1:8" ht="75">
       <c r="A1096">
         <v>2202159</v>
       </c>
@@ -38073,7 +38069,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1110" spans="1:8" hidden="1">
+    <row r="1110" spans="1:8">
       <c r="A1110">
         <v>2202203</v>
       </c>
@@ -41001,7 +40997,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1219" spans="1:8" ht="165" hidden="1">
+    <row r="1219" spans="1:8" ht="165">
       <c r="A1219">
         <v>2202367</v>
       </c>
@@ -41364,7 +41360,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1233" spans="1:8" hidden="1">
+    <row r="1233" spans="1:8">
       <c r="A1233">
         <v>2202440</v>
       </c>
@@ -41412,7 +41408,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1235" spans="1:8" hidden="1">
+    <row r="1235" spans="1:8">
       <c r="A1235">
         <v>2202443</v>
       </c>
@@ -41436,7 +41432,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1236" spans="1:8" hidden="1">
+    <row r="1236" spans="1:8">
       <c r="A1236">
         <v>2202445</v>
       </c>
@@ -41460,7 +41456,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1237" spans="1:8" hidden="1">
+    <row r="1237" spans="1:8">
       <c r="A1237">
         <v>2202447</v>
       </c>
@@ -41484,7 +41480,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1238" spans="1:8" hidden="1">
+    <row r="1238" spans="1:8">
       <c r="A1238">
         <v>2202448</v>
       </c>
@@ -41508,7 +41504,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1239" spans="1:8" hidden="1">
+    <row r="1239" spans="1:8">
       <c r="A1239">
         <v>2202452</v>
       </c>
@@ -41532,7 +41528,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1240" spans="1:8" hidden="1">
+    <row r="1240" spans="1:8">
       <c r="A1240">
         <v>2202453</v>
       </c>
@@ -41556,7 +41552,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1241" spans="1:8" hidden="1">
+    <row r="1241" spans="1:8">
       <c r="A1241">
         <v>2202454</v>
       </c>
@@ -41580,7 +41576,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1242" spans="1:8" hidden="1">
+    <row r="1242" spans="1:8">
       <c r="A1242">
         <v>2202455</v>
       </c>
@@ -41604,7 +41600,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1243" spans="1:8" hidden="1">
+    <row r="1243" spans="1:8">
       <c r="A1243">
         <v>2202457</v>
       </c>
@@ -41628,7 +41624,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1244" spans="1:8" hidden="1">
+    <row r="1244" spans="1:8">
       <c r="A1244">
         <v>2202458</v>
       </c>
@@ -41652,7 +41648,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1245" spans="1:8" hidden="1">
+    <row r="1245" spans="1:8">
       <c r="A1245">
         <v>2202459</v>
       </c>
@@ -41676,7 +41672,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1246" spans="1:8" hidden="1">
+    <row r="1246" spans="1:8">
       <c r="A1246">
         <v>2202460</v>
       </c>
@@ -41700,7 +41696,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1247" spans="1:8" hidden="1">
+    <row r="1247" spans="1:8">
       <c r="A1247">
         <v>2202461</v>
       </c>
@@ -41724,7 +41720,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1248" spans="1:8" hidden="1">
+    <row r="1248" spans="1:8">
       <c r="A1248">
         <v>2202462</v>
       </c>
@@ -41772,7 +41768,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1250" spans="1:8" hidden="1">
+    <row r="1250" spans="1:8">
       <c r="A1250">
         <v>2202464</v>
       </c>
@@ -41796,7 +41792,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1251" spans="1:8" hidden="1">
+    <row r="1251" spans="1:8">
       <c r="A1251">
         <v>2202466</v>
       </c>
@@ -41820,7 +41816,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1252" spans="1:8" hidden="1">
+    <row r="1252" spans="1:8">
       <c r="A1252">
         <v>2202468</v>
       </c>
@@ -41844,7 +41840,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1253" spans="1:8" hidden="1">
+    <row r="1253" spans="1:8">
       <c r="A1253">
         <v>2202469</v>
       </c>
@@ -41868,7 +41864,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1254" spans="1:8" hidden="1">
+    <row r="1254" spans="1:8">
       <c r="A1254">
         <v>2202470</v>
       </c>
@@ -41916,7 +41912,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1256" spans="1:8" hidden="1">
+    <row r="1256" spans="1:8">
       <c r="A1256">
         <v>2202472</v>
       </c>
@@ -41940,7 +41936,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1257" spans="1:8" hidden="1">
+    <row r="1257" spans="1:8">
       <c r="A1257">
         <v>2202473</v>
       </c>
@@ -41964,7 +41960,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1258" spans="1:8" hidden="1">
+    <row r="1258" spans="1:8">
       <c r="A1258">
         <v>2202474</v>
       </c>
@@ -41988,7 +41984,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1259" spans="1:8" hidden="1">
+    <row r="1259" spans="1:8">
       <c r="A1259">
         <v>2202476</v>
       </c>
@@ -42012,7 +42008,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1260" spans="1:8" hidden="1">
+    <row r="1260" spans="1:8">
       <c r="A1260">
         <v>2202477</v>
       </c>
@@ -42036,7 +42032,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1261" spans="1:8" hidden="1">
+    <row r="1261" spans="1:8">
       <c r="A1261">
         <v>2202478</v>
       </c>
@@ -42060,7 +42056,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1262" spans="1:8" hidden="1">
+    <row r="1262" spans="1:8">
       <c r="A1262">
         <v>2202479</v>
       </c>
@@ -42084,7 +42080,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1263" spans="1:8" hidden="1">
+    <row r="1263" spans="1:8">
       <c r="A1263">
         <v>2202481</v>
       </c>
@@ -42108,7 +42104,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1264" spans="1:8" hidden="1">
+    <row r="1264" spans="1:8">
       <c r="A1264">
         <v>2202482</v>
       </c>
@@ -42159,7 +42155,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1266" spans="1:8" hidden="1">
+    <row r="1266" spans="1:8">
       <c r="A1266">
         <v>2202485</v>
       </c>
@@ -42183,7 +42179,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1267" spans="1:8" hidden="1">
+    <row r="1267" spans="1:8">
       <c r="A1267">
         <v>2202486</v>
       </c>
@@ -42207,7 +42203,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1268" spans="1:8" hidden="1">
+    <row r="1268" spans="1:8">
       <c r="A1268">
         <v>2202487</v>
       </c>
@@ -42258,7 +42254,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1270" spans="1:8" hidden="1">
+    <row r="1270" spans="1:8">
       <c r="A1270">
         <v>2202489</v>
       </c>
@@ -42282,7 +42278,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1271" spans="1:8" hidden="1">
+    <row r="1271" spans="1:8">
       <c r="A1271">
         <v>2202490</v>
       </c>
@@ -42360,7 +42356,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1274" spans="1:8" hidden="1">
+    <row r="1274" spans="1:8">
       <c r="A1274">
         <v>2202494</v>
       </c>
@@ -42384,7 +42380,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1275" spans="1:8" hidden="1">
+    <row r="1275" spans="1:8">
       <c r="A1275">
         <v>2202495</v>
       </c>
@@ -42432,7 +42428,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1277" spans="1:8" hidden="1">
+    <row r="1277" spans="1:8">
       <c r="A1277">
         <v>2202499</v>
       </c>
@@ -42456,7 +42452,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1278" spans="1:8" hidden="1">
+    <row r="1278" spans="1:8">
       <c r="A1278">
         <v>2202500</v>
       </c>
@@ -42480,7 +42476,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1279" spans="1:8" hidden="1">
+    <row r="1279" spans="1:8">
       <c r="A1279">
         <v>2202501</v>
       </c>
@@ -42504,7 +42500,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1280" spans="1:8" hidden="1">
+    <row r="1280" spans="1:8">
       <c r="A1280">
         <v>2202502</v>
       </c>
@@ -42528,7 +42524,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1281" spans="1:8" hidden="1">
+    <row r="1281" spans="1:8">
       <c r="A1281">
         <v>2202504</v>
       </c>
@@ -42552,7 +42548,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1282" spans="1:8" hidden="1">
+    <row r="1282" spans="1:8">
       <c r="A1282">
         <v>2202505</v>
       </c>
@@ -42576,7 +42572,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1283" spans="1:8" hidden="1">
+    <row r="1283" spans="1:8">
       <c r="A1283">
         <v>2202506</v>
       </c>
@@ -42600,7 +42596,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1284" spans="1:8" hidden="1">
+    <row r="1284" spans="1:8">
       <c r="A1284">
         <v>2202507</v>
       </c>
@@ -42624,7 +42620,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1285" spans="1:8" hidden="1">
+    <row r="1285" spans="1:8">
       <c r="A1285">
         <v>2202508</v>
       </c>
@@ -42648,7 +42644,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1286" spans="1:8" hidden="1">
+    <row r="1286" spans="1:8">
       <c r="A1286">
         <v>2202509</v>
       </c>
@@ -42672,7 +42668,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1287" spans="1:8" hidden="1">
+    <row r="1287" spans="1:8">
       <c r="A1287">
         <v>2202510</v>
       </c>
@@ -42696,7 +42692,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1288" spans="1:8" hidden="1">
+    <row r="1288" spans="1:8">
       <c r="A1288">
         <v>2202512</v>
       </c>
@@ -42747,7 +42743,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1290" spans="1:8" hidden="1">
+    <row r="1290" spans="1:8">
       <c r="A1290">
         <v>2202515</v>
       </c>
@@ -42801,7 +42797,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1292" spans="1:8" hidden="1">
+    <row r="1292" spans="1:8">
       <c r="A1292">
         <v>2202519</v>
       </c>
@@ -42825,7 +42821,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1293" spans="1:8" hidden="1">
+    <row r="1293" spans="1:8">
       <c r="A1293">
         <v>2202521</v>
       </c>
@@ -42849,7 +42845,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1294" spans="1:8" hidden="1">
+    <row r="1294" spans="1:8">
       <c r="A1294">
         <v>2202522</v>
       </c>
@@ -42873,7 +42869,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1295" spans="1:8" hidden="1">
+    <row r="1295" spans="1:8">
       <c r="A1295">
         <v>2202523</v>
       </c>
@@ -42897,7 +42893,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1296" spans="1:8" hidden="1">
+    <row r="1296" spans="1:8">
       <c r="A1296">
         <v>2202524</v>
       </c>
@@ -42975,7 +42971,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1299" spans="1:8" hidden="1">
+    <row r="1299" spans="1:8">
       <c r="A1299">
         <v>2202527</v>
       </c>
@@ -43053,7 +43049,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1302" spans="1:8" hidden="1">
+    <row r="1302" spans="1:8">
       <c r="A1302">
         <v>2202530</v>
       </c>
@@ -43077,7 +43073,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1303" spans="1:8" hidden="1">
+    <row r="1303" spans="1:8">
       <c r="A1303">
         <v>2202531</v>
       </c>
@@ -43101,7 +43097,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1304" spans="1:8" hidden="1">
+    <row r="1304" spans="1:8">
       <c r="A1304">
         <v>2202533</v>
       </c>
@@ -43125,7 +43121,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1305" spans="1:8" hidden="1">
+    <row r="1305" spans="1:8">
       <c r="A1305">
         <v>2202534</v>
       </c>
@@ -43149,7 +43145,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1306" spans="1:8" hidden="1">
+    <row r="1306" spans="1:8">
       <c r="A1306">
         <v>2202538</v>
       </c>
@@ -43173,7 +43169,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1307" spans="1:8" hidden="1">
+    <row r="1307" spans="1:8">
       <c r="A1307">
         <v>2202539</v>
       </c>
@@ -43197,7 +43193,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1308" spans="1:8" hidden="1">
+    <row r="1308" spans="1:8">
       <c r="A1308">
         <v>2202540</v>
       </c>
@@ -43221,7 +43217,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1309" spans="1:8" hidden="1">
+    <row r="1309" spans="1:8">
       <c r="A1309">
         <v>2202542</v>
       </c>
@@ -43245,7 +43241,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1310" spans="1:8" hidden="1">
+    <row r="1310" spans="1:8">
       <c r="A1310">
         <v>2202543</v>
       </c>
@@ -43269,7 +43265,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1311" spans="1:8" hidden="1">
+    <row r="1311" spans="1:8">
       <c r="A1311">
         <v>2202544</v>
       </c>
@@ -43293,7 +43289,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1312" spans="1:8" hidden="1">
+    <row r="1312" spans="1:8">
       <c r="A1312">
         <v>2202545</v>
       </c>
@@ -43317,7 +43313,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1313" spans="1:8" hidden="1">
+    <row r="1313" spans="1:8">
       <c r="A1313">
         <v>2202546</v>
       </c>
@@ -43395,7 +43391,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1316" spans="1:8" hidden="1">
+    <row r="1316" spans="1:8">
       <c r="A1316">
         <v>2202551</v>
       </c>
@@ -43419,7 +43415,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1317" spans="1:8" hidden="1">
+    <row r="1317" spans="1:8">
       <c r="A1317">
         <v>2202552</v>
       </c>
@@ -43470,7 +43466,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1319" spans="1:8" hidden="1">
+    <row r="1319" spans="1:8">
       <c r="A1319">
         <v>2202555</v>
       </c>
@@ -43494,7 +43490,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1320" spans="1:8" hidden="1">
+    <row r="1320" spans="1:8">
       <c r="A1320">
         <v>2202558</v>
       </c>
@@ -43518,7 +43514,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1321" spans="1:8" hidden="1">
+    <row r="1321" spans="1:8">
       <c r="A1321">
         <v>2202560</v>
       </c>
@@ -43542,7 +43538,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1322" spans="1:8" hidden="1">
+    <row r="1322" spans="1:8">
       <c r="A1322">
         <v>2202561</v>
       </c>
@@ -43566,7 +43562,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1323" spans="1:8" hidden="1">
+    <row r="1323" spans="1:8">
       <c r="A1323">
         <v>2202563</v>
       </c>
@@ -43590,7 +43586,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1324" spans="1:8" hidden="1">
+    <row r="1324" spans="1:8">
       <c r="A1324">
         <v>2202569</v>
       </c>
@@ -43614,7 +43610,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1325" spans="1:8" hidden="1">
+    <row r="1325" spans="1:8">
       <c r="A1325">
         <v>2202572</v>
       </c>
@@ -43638,7 +43634,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1326" spans="1:8" hidden="1">
+    <row r="1326" spans="1:8">
       <c r="A1326">
         <v>2202573</v>
       </c>
@@ -43662,7 +43658,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1327" spans="1:8" hidden="1">
+    <row r="1327" spans="1:8">
       <c r="A1327">
         <v>2202574</v>
       </c>
@@ -43974,7 +43970,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1339" spans="1:8" hidden="1">
+    <row r="1339" spans="1:8">
       <c r="A1339">
         <v>2202586</v>
       </c>
@@ -44076,7 +44072,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1343" spans="1:8" hidden="1">
+    <row r="1343" spans="1:8">
       <c r="A1343">
         <v>2202591</v>
       </c>
@@ -44100,7 +44096,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1344" spans="1:8" hidden="1">
+    <row r="1344" spans="1:8">
       <c r="A1344">
         <v>2202592</v>
       </c>
@@ -44124,7 +44120,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1345" spans="1:8" hidden="1">
+    <row r="1345" spans="1:8">
       <c r="A1345">
         <v>2202593</v>
       </c>
@@ -44202,7 +44198,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1348" spans="1:8" hidden="1">
+    <row r="1348" spans="1:8">
       <c r="A1348">
         <v>2202597</v>
       </c>
@@ -44226,7 +44222,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1349" spans="1:8" hidden="1">
+    <row r="1349" spans="1:8">
       <c r="A1349">
         <v>2202608</v>
       </c>
@@ -44250,7 +44246,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1350" spans="1:8" hidden="1">
+    <row r="1350" spans="1:8">
       <c r="A1350">
         <v>2202610</v>
       </c>
@@ -44274,7 +44270,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1351" spans="1:8" hidden="1">
+    <row r="1351" spans="1:8">
       <c r="A1351">
         <v>2202611</v>
       </c>
@@ -44298,7 +44294,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1352" spans="1:8" hidden="1">
+    <row r="1352" spans="1:8">
       <c r="A1352">
         <v>2202612</v>
       </c>
@@ -44451,7 +44447,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1358" spans="1:8" hidden="1">
+    <row r="1358" spans="1:8">
       <c r="A1358">
         <v>2202618</v>
       </c>
@@ -44475,7 +44471,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1359" spans="1:8" hidden="1">
+    <row r="1359" spans="1:8">
       <c r="A1359">
         <v>2202619</v>
       </c>
@@ -44499,7 +44495,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1360" spans="1:8" hidden="1">
+    <row r="1360" spans="1:8">
       <c r="A1360">
         <v>2202620</v>
       </c>
@@ -44523,7 +44519,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1361" spans="1:8" hidden="1">
+    <row r="1361" spans="1:8">
       <c r="A1361">
         <v>2202621</v>
       </c>
@@ -44814,7 +44810,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1372" spans="1:8" hidden="1">
+    <row r="1372" spans="1:8">
       <c r="A1372">
         <v>2202662</v>
       </c>
@@ -44838,7 +44834,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1373" spans="1:8" hidden="1">
+    <row r="1373" spans="1:8">
       <c r="A1373">
         <v>2202663</v>
       </c>
@@ -44862,7 +44858,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1374" spans="1:8" hidden="1">
+    <row r="1374" spans="1:8">
       <c r="A1374">
         <v>2202664</v>
       </c>
@@ -44886,7 +44882,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1375" spans="1:8" hidden="1">
+    <row r="1375" spans="1:8">
       <c r="A1375">
         <v>2202665</v>
       </c>
@@ -44910,7 +44906,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1376" spans="1:8" hidden="1">
+    <row r="1376" spans="1:8">
       <c r="A1376">
         <v>2202666</v>
       </c>
@@ -45042,7 +45038,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1381" spans="1:8" hidden="1">
+    <row r="1381" spans="1:8">
       <c r="A1381">
         <v>2202673</v>
       </c>
@@ -45117,7 +45113,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1384" spans="1:8" hidden="1">
+    <row r="1384" spans="1:8">
       <c r="A1384">
         <v>2202677</v>
       </c>
@@ -45168,7 +45164,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1386" spans="1:8" hidden="1">
+    <row r="1386" spans="1:8">
       <c r="A1386">
         <v>2202684</v>
       </c>
@@ -45192,7 +45188,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1387" spans="1:8" hidden="1">
+    <row r="1387" spans="1:8">
       <c r="A1387">
         <v>2202685</v>
       </c>
@@ -45219,7 +45215,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1388" spans="1:8" hidden="1">
+    <row r="1388" spans="1:8">
       <c r="A1388">
         <v>2202686</v>
       </c>
@@ -45243,7 +45239,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1389" spans="1:8" hidden="1">
+    <row r="1389" spans="1:8">
       <c r="A1389">
         <v>2202687</v>
       </c>
@@ -45321,7 +45317,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1392" spans="1:8" hidden="1">
+    <row r="1392" spans="1:8">
       <c r="A1392">
         <v>2202690</v>
       </c>
@@ -45345,7 +45341,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1393" spans="1:8" hidden="1">
+    <row r="1393" spans="1:8">
       <c r="A1393">
         <v>2202691</v>
       </c>
@@ -45504,7 +45500,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1399" spans="1:8" ht="210" hidden="1">
+    <row r="1399" spans="1:8" ht="210">
       <c r="A1399">
         <v>2202698</v>
       </c>
@@ -45690,7 +45686,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1406" spans="1:8" hidden="1">
+    <row r="1406" spans="1:8">
       <c r="A1406">
         <v>2202705</v>
       </c>
@@ -45714,7 +45710,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1407" spans="1:8" hidden="1">
+    <row r="1407" spans="1:8">
       <c r="A1407">
         <v>2202706</v>
       </c>
@@ -45738,7 +45734,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1408" spans="1:8" hidden="1">
+    <row r="1408" spans="1:8">
       <c r="A1408">
         <v>2202707</v>
       </c>
@@ -45840,7 +45836,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1412" spans="1:8" hidden="1">
+    <row r="1412" spans="1:8">
       <c r="A1412">
         <v>2202720</v>
       </c>
@@ -46107,7 +46103,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1422" spans="1:8" hidden="1">
+    <row r="1422" spans="1:8">
       <c r="A1422">
         <v>2202731</v>
       </c>
@@ -46131,7 +46127,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1423" spans="1:8" hidden="1">
+    <row r="1423" spans="1:8">
       <c r="A1423">
         <v>2202732</v>
       </c>
@@ -46155,7 +46151,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1424" spans="1:8" hidden="1">
+    <row r="1424" spans="1:8">
       <c r="A1424">
         <v>2202733</v>
       </c>
@@ -46179,7 +46175,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1425" spans="1:8" hidden="1">
+    <row r="1425" spans="1:8">
       <c r="A1425">
         <v>2202734</v>
       </c>
@@ -46227,7 +46223,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1427" spans="1:8" hidden="1">
+    <row r="1427" spans="1:8">
       <c r="A1427">
         <v>2202737</v>
       </c>
@@ -46278,7 +46274,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1429" spans="1:8" hidden="1">
+    <row r="1429" spans="1:8">
       <c r="A1429">
         <v>2202739</v>
       </c>
@@ -46302,7 +46298,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1430" spans="1:8" hidden="1">
+    <row r="1430" spans="1:8">
       <c r="A1430">
         <v>2202740</v>
       </c>
@@ -46353,7 +46349,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1432" spans="1:8" hidden="1">
+    <row r="1432" spans="1:8">
       <c r="A1432">
         <v>2202745</v>
       </c>
@@ -46377,7 +46373,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1433" spans="1:8" hidden="1">
+    <row r="1433" spans="1:8">
       <c r="A1433">
         <v>2202746</v>
       </c>
@@ -46455,7 +46451,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1436" spans="1:8" hidden="1">
+    <row r="1436" spans="1:8">
       <c r="A1436">
         <v>2202750</v>
       </c>
@@ -46506,7 +46502,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1438" spans="1:8" hidden="1">
+    <row r="1438" spans="1:8">
       <c r="A1438">
         <v>2202752</v>
       </c>
@@ -46530,7 +46526,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1439" spans="1:8" hidden="1">
+    <row r="1439" spans="1:8">
       <c r="A1439">
         <v>2202753</v>
       </c>
@@ -46554,7 +46550,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1440" spans="1:8" hidden="1">
+    <row r="1440" spans="1:8">
       <c r="A1440">
         <v>2202754</v>
       </c>
@@ -46794,7 +46790,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1449" spans="1:8" hidden="1">
+    <row r="1449" spans="1:8">
       <c r="A1449">
         <v>2202763</v>
       </c>
@@ -46818,7 +46814,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1450" spans="1:8" hidden="1">
+    <row r="1450" spans="1:8">
       <c r="A1450">
         <v>2202765</v>
       </c>
@@ -46920,7 +46916,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1454" spans="1:8" hidden="1">
+    <row r="1454" spans="1:8">
       <c r="A1454">
         <v>2202773</v>
       </c>
@@ -46971,7 +46967,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1456" spans="1:8" hidden="1">
+    <row r="1456" spans="1:8">
       <c r="A1456">
         <v>2202778</v>
       </c>
@@ -46995,7 +46991,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1457" spans="1:8" hidden="1">
+    <row r="1457" spans="1:8">
       <c r="A1457">
         <v>2202779</v>
       </c>
@@ -47046,7 +47042,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1459" spans="1:8" hidden="1">
+    <row r="1459" spans="1:8">
       <c r="A1459">
         <v>2202781</v>
       </c>
@@ -47094,7 +47090,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1461" spans="1:8" hidden="1">
+    <row r="1461" spans="1:8">
       <c r="A1461">
         <v>2202783</v>
       </c>
@@ -47118,7 +47114,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1462" spans="1:8" hidden="1">
+    <row r="1462" spans="1:8">
       <c r="A1462">
         <v>2202784</v>
       </c>
@@ -47142,7 +47138,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1463" spans="1:8" hidden="1">
+    <row r="1463" spans="1:8">
       <c r="A1463">
         <v>2202786</v>
       </c>
@@ -47166,7 +47162,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1464" spans="1:8" hidden="1">
+    <row r="1464" spans="1:8">
       <c r="A1464">
         <v>2202787</v>
       </c>
@@ -47268,7 +47264,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1468" spans="1:8" hidden="1">
+    <row r="1468" spans="1:8">
       <c r="A1468">
         <v>2202791</v>
       </c>
@@ -47373,7 +47369,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1472" spans="1:8" hidden="1">
+    <row r="1472" spans="1:8">
       <c r="A1472">
         <v>2202795</v>
       </c>
@@ -47424,7 +47420,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1474" spans="1:8" hidden="1">
+    <row r="1474" spans="1:8">
       <c r="A1474">
         <v>2202797</v>
       </c>
@@ -47529,7 +47525,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1478" spans="1:8" hidden="1">
+    <row r="1478" spans="1:8">
       <c r="A1478">
         <v>2202805</v>
       </c>
@@ -47607,7 +47603,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1481" spans="1:8" hidden="1">
+    <row r="1481" spans="1:8">
       <c r="A1481">
         <v>2202808</v>
       </c>
@@ -47655,7 +47651,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1483" spans="1:8" hidden="1">
+    <row r="1483" spans="1:8">
       <c r="A1483">
         <v>2202810</v>
       </c>
@@ -47679,7 +47675,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1484" spans="1:8" hidden="1">
+    <row r="1484" spans="1:8">
       <c r="A1484">
         <v>2202811</v>
       </c>
@@ -47703,7 +47699,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1485" spans="1:8" hidden="1">
+    <row r="1485" spans="1:8">
       <c r="A1485">
         <v>2202812</v>
       </c>
@@ -47781,7 +47777,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1488" spans="1:8" hidden="1">
+    <row r="1488" spans="1:8">
       <c r="A1488">
         <v>2202817</v>
       </c>
@@ -47886,7 +47882,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1492" spans="1:8" hidden="1">
+    <row r="1492" spans="1:8">
       <c r="A1492">
         <v>2202823</v>
       </c>
@@ -47910,7 +47906,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1493" spans="1:8" hidden="1">
+    <row r="1493" spans="1:8">
       <c r="A1493">
         <v>2202824</v>
       </c>
@@ -47958,7 +47954,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1495" spans="1:8" hidden="1">
+    <row r="1495" spans="1:8">
       <c r="A1495">
         <v>2202826</v>
       </c>
@@ -47982,7 +47978,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1496" spans="1:8" hidden="1">
+    <row r="1496" spans="1:8">
       <c r="A1496">
         <v>2202830</v>
       </c>
@@ -48036,7 +48032,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1498" spans="1:8" hidden="1">
+    <row r="1498" spans="1:8">
       <c r="A1498">
         <v>2202833</v>
       </c>
@@ -48060,7 +48056,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1499" spans="1:8" hidden="1">
+    <row r="1499" spans="1:8">
       <c r="A1499">
         <v>2202834</v>
       </c>
@@ -48084,7 +48080,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1500" spans="1:8" hidden="1">
+    <row r="1500" spans="1:8">
       <c r="A1500">
         <v>2202835</v>
       </c>
@@ -48132,7 +48128,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1502" spans="1:8" hidden="1">
+    <row r="1502" spans="1:8">
       <c r="A1502">
         <v>2202837</v>
       </c>
@@ -48237,7 +48233,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1506" spans="1:8" hidden="1">
+    <row r="1506" spans="1:8">
       <c r="A1506">
         <v>2202842</v>
       </c>
@@ -48423,7 +48419,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1513" spans="1:8" hidden="1">
+    <row r="1513" spans="1:8">
       <c r="A1513">
         <v>2202849</v>
       </c>
@@ -48555,7 +48551,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1518" spans="1:8" hidden="1">
+    <row r="1518" spans="1:8">
       <c r="A1518">
         <v>2202854</v>
       </c>
@@ -48627,7 +48623,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1521" spans="1:8" hidden="1">
+    <row r="1521" spans="1:8">
       <c r="A1521">
         <v>2202857</v>
       </c>
@@ -48651,7 +48647,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1522" spans="1:8" hidden="1">
+    <row r="1522" spans="1:8">
       <c r="A1522">
         <v>2202858</v>
       </c>
@@ -48675,7 +48671,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1523" spans="1:8" hidden="1">
+    <row r="1523" spans="1:8">
       <c r="A1523">
         <v>2202859</v>
       </c>
@@ -48726,7 +48722,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1525" spans="1:8" hidden="1">
+    <row r="1525" spans="1:8">
       <c r="A1525">
         <v>2202863</v>
       </c>
@@ -48885,7 +48881,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1531" spans="1:8" hidden="1">
+    <row r="1531" spans="1:8">
       <c r="A1531">
         <v>2202872</v>
       </c>
@@ -48909,7 +48905,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1532" spans="1:8" hidden="1">
+    <row r="1532" spans="1:8">
       <c r="A1532">
         <v>2202873</v>
       </c>
@@ -48987,7 +48983,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1535" spans="1:8" hidden="1">
+    <row r="1535" spans="1:8">
       <c r="A1535">
         <v>2202876</v>
       </c>
@@ -49011,7 +49007,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1536" spans="1:8" hidden="1">
+    <row r="1536" spans="1:8">
       <c r="A1536">
         <v>2202877</v>
       </c>
@@ -49035,7 +49031,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1537" spans="1:8" hidden="1">
+    <row r="1537" spans="1:8">
       <c r="A1537">
         <v>2202878</v>
       </c>
@@ -49164,7 +49160,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1542" spans="1:8" hidden="1">
+    <row r="1542" spans="1:8">
       <c r="A1542">
         <v>2202883</v>
       </c>
@@ -49188,7 +49184,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1543" spans="1:8" hidden="1">
+    <row r="1543" spans="1:8">
       <c r="A1543">
         <v>2202884</v>
       </c>
@@ -49293,7 +49289,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1547" spans="1:8" hidden="1">
+    <row r="1547" spans="1:8">
       <c r="A1547">
         <v>2202888</v>
       </c>
@@ -49341,7 +49337,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1549" spans="1:8" hidden="1">
+    <row r="1549" spans="1:8">
       <c r="A1549">
         <v>2202890</v>
       </c>
@@ -49365,7 +49361,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1550" spans="1:8" hidden="1">
+    <row r="1550" spans="1:8">
       <c r="A1550">
         <v>2202891</v>
       </c>
@@ -49416,7 +49412,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1552" spans="1:8" hidden="1">
+    <row r="1552" spans="1:8">
       <c r="A1552">
         <v>2202893</v>
       </c>
@@ -49521,7 +49517,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1556" spans="1:8" hidden="1">
+    <row r="1556" spans="1:8">
       <c r="A1556">
         <v>2202897</v>
       </c>
@@ -49572,7 +49568,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1558" spans="1:8" hidden="1">
+    <row r="1558" spans="1:8">
       <c r="A1558">
         <v>2202899</v>
       </c>
@@ -49620,7 +49616,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1560" spans="1:8" hidden="1">
+    <row r="1560" spans="1:8">
       <c r="A1560">
         <v>2202903</v>
       </c>
@@ -49698,7 +49694,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1563" spans="1:8" hidden="1">
+    <row r="1563" spans="1:8">
       <c r="A1563">
         <v>2202907</v>
       </c>
@@ -49857,7 +49853,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1569" spans="1:8" hidden="1">
+    <row r="1569" spans="1:8">
       <c r="A1569">
         <v>2202916</v>
       </c>
@@ -49908,7 +49904,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1571" spans="1:8" hidden="1">
+    <row r="1571" spans="1:8">
       <c r="A1571">
         <v>2202918</v>
       </c>
@@ -49932,7 +49928,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1572" spans="1:8" hidden="1">
+    <row r="1572" spans="1:8">
       <c r="A1572">
         <v>2202919</v>
       </c>
@@ -49956,7 +49952,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1573" spans="1:8" hidden="1">
+    <row r="1573" spans="1:8">
       <c r="A1573">
         <v>2202920</v>
       </c>
@@ -49980,7 +49976,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1574" spans="1:8" hidden="1">
+    <row r="1574" spans="1:8">
       <c r="A1574">
         <v>2202921</v>
       </c>
@@ -50085,7 +50081,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1578" spans="1:8" hidden="1">
+    <row r="1578" spans="1:8">
       <c r="A1578">
         <v>2202927</v>
       </c>
@@ -50109,7 +50105,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1579" spans="1:8" hidden="1">
+    <row r="1579" spans="1:8">
       <c r="A1579">
         <v>2202928</v>
       </c>
@@ -50187,7 +50183,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1582" spans="1:8" hidden="1">
+    <row r="1582" spans="1:8">
       <c r="A1582">
         <v>2202932</v>
       </c>
@@ -50238,7 +50234,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1584" spans="1:8" hidden="1">
+    <row r="1584" spans="1:8">
       <c r="A1584">
         <v>2202934</v>
       </c>
@@ -50262,7 +50258,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1585" spans="1:8" hidden="1">
+    <row r="1585" spans="1:8">
       <c r="A1585">
         <v>2202935</v>
       </c>
@@ -50313,7 +50309,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1587" spans="1:8" hidden="1">
+    <row r="1587" spans="1:8">
       <c r="A1587">
         <v>2202937</v>
       </c>
@@ -50337,7 +50333,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1588" spans="1:8" hidden="1">
+    <row r="1588" spans="1:8">
       <c r="A1588">
         <v>2202938</v>
       </c>
@@ -50361,7 +50357,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1589" spans="1:8" hidden="1">
+    <row r="1589" spans="1:8">
       <c r="A1589">
         <v>2202939</v>
       </c>
@@ -50385,7 +50381,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1590" spans="1:8" hidden="1">
+    <row r="1590" spans="1:8">
       <c r="A1590">
         <v>2202940</v>
       </c>
@@ -50436,7 +50432,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1592" spans="1:8" hidden="1">
+    <row r="1592" spans="1:8">
       <c r="A1592">
         <v>2202942</v>
       </c>
@@ -50568,7 +50564,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1597" spans="1:8" hidden="1">
+    <row r="1597" spans="1:8">
       <c r="A1597">
         <v>2202947</v>
       </c>
@@ -50592,7 +50588,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1598" spans="1:8" hidden="1">
+    <row r="1598" spans="1:8">
       <c r="A1598">
         <v>2202948</v>
       </c>
@@ -50640,7 +50636,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1600" spans="1:8" hidden="1">
+    <row r="1600" spans="1:8">
       <c r="A1600">
         <v>2202950</v>
       </c>
@@ -50691,7 +50687,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1602" spans="1:8" hidden="1">
+    <row r="1602" spans="1:8">
       <c r="A1602">
         <v>2202952</v>
       </c>
@@ -50715,7 +50711,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1603" spans="1:8" hidden="1">
+    <row r="1603" spans="1:8">
       <c r="A1603">
         <v>2202953</v>
       </c>
@@ -50739,7 +50735,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1604" spans="1:8" hidden="1">
+    <row r="1604" spans="1:8">
       <c r="A1604">
         <v>2202954</v>
       </c>
@@ -50763,7 +50759,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1605" spans="1:8" hidden="1">
+    <row r="1605" spans="1:8">
       <c r="A1605">
         <v>2202955</v>
       </c>
@@ -50787,7 +50783,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1606" spans="1:8" hidden="1">
+    <row r="1606" spans="1:8">
       <c r="A1606">
         <v>2202956</v>
       </c>
@@ -50811,7 +50807,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1607" spans="1:8" hidden="1">
+    <row r="1607" spans="1:8">
       <c r="A1607">
         <v>2202957</v>
       </c>
@@ -50835,7 +50831,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1608" spans="1:8" hidden="1">
+    <row r="1608" spans="1:8">
       <c r="A1608">
         <v>2202958</v>
       </c>
@@ -50886,7 +50882,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1610" spans="1:8" hidden="1">
+    <row r="1610" spans="1:8">
       <c r="A1610">
         <v>2202962</v>
       </c>
@@ -50910,7 +50906,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1611" spans="1:8" hidden="1">
+    <row r="1611" spans="1:8">
       <c r="A1611">
         <v>2202966</v>
       </c>
@@ -51015,7 +51011,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1615" spans="1:8" hidden="1">
+    <row r="1615" spans="1:8">
       <c r="A1615">
         <v>2202971</v>
       </c>
@@ -51066,7 +51062,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1617" spans="1:8" hidden="1">
+    <row r="1617" spans="1:8">
       <c r="A1617">
         <v>2202980</v>
       </c>
@@ -51117,7 +51113,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1619" spans="1:8" hidden="1">
+    <row r="1619" spans="1:8">
       <c r="A1619">
         <v>2202982</v>
       </c>
@@ -51141,7 +51137,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1620" spans="1:8" hidden="1">
+    <row r="1620" spans="1:8">
       <c r="A1620">
         <v>2202985</v>
       </c>
@@ -51165,7 +51161,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1621" spans="1:8" hidden="1">
+    <row r="1621" spans="1:8">
       <c r="A1621">
         <v>2202986</v>
       </c>
@@ -51189,7 +51185,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1622" spans="1:8" hidden="1">
+    <row r="1622" spans="1:8">
       <c r="A1622">
         <v>2202987</v>
       </c>
@@ -51213,7 +51209,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1623" spans="1:8" hidden="1">
+    <row r="1623" spans="1:8">
       <c r="A1623">
         <v>2202988</v>
       </c>
@@ -51237,7 +51233,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1624" spans="1:8" hidden="1">
+    <row r="1624" spans="1:8">
       <c r="A1624">
         <v>2202989</v>
       </c>
@@ -51315,7 +51311,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1627" spans="1:8" hidden="1">
+    <row r="1627" spans="1:8">
       <c r="A1627">
         <v>2202992</v>
       </c>
@@ -51339,7 +51335,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1628" spans="1:8" hidden="1">
+    <row r="1628" spans="1:8">
       <c r="A1628">
         <v>2202993</v>
       </c>
@@ -51363,7 +51359,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1629" spans="1:8" hidden="1">
+    <row r="1629" spans="1:8">
       <c r="A1629">
         <v>2202994</v>
       </c>
@@ -51387,7 +51383,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1630" spans="1:8" hidden="1">
+    <row r="1630" spans="1:8">
       <c r="A1630">
         <v>2202997</v>
       </c>
@@ -51465,7 +51461,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1633" spans="1:8" hidden="1">
+    <row r="1633" spans="1:8">
       <c r="A1633">
         <v>2203000</v>
       </c>
@@ -51516,7 +51512,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1635" spans="1:8" hidden="1">
+    <row r="1635" spans="1:8">
       <c r="A1635">
         <v>2203002</v>
       </c>
@@ -51540,7 +51536,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1636" spans="1:8" hidden="1">
+    <row r="1636" spans="1:8">
       <c r="A1636">
         <v>2203003</v>
       </c>
@@ -51672,7 +51668,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1641" spans="1:8" hidden="1">
+    <row r="1641" spans="1:8">
       <c r="A1641">
         <v>2203011</v>
       </c>
@@ -51696,7 +51692,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1642" spans="1:8" hidden="1">
+    <row r="1642" spans="1:8">
       <c r="A1642">
         <v>2203012</v>
       </c>
@@ -51744,7 +51740,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1644" spans="1:8" hidden="1">
+    <row r="1644" spans="1:8">
       <c r="A1644">
         <v>2203014</v>
       </c>
@@ -51795,7 +51791,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1646" spans="1:8" hidden="1">
+    <row r="1646" spans="1:8">
       <c r="A1646">
         <v>2203018</v>
       </c>
@@ -51819,7 +51815,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1647" spans="1:8" hidden="1">
+    <row r="1647" spans="1:8">
       <c r="A1647">
         <v>2203019</v>
       </c>
@@ -51843,7 +51839,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1648" spans="1:8" hidden="1">
+    <row r="1648" spans="1:8">
       <c r="A1648">
         <v>2203020</v>
       </c>
@@ -52002,7 +51998,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1654" spans="1:8" hidden="1">
+    <row r="1654" spans="1:8">
       <c r="A1654">
         <v>2203026</v>
       </c>
@@ -52290,7 +52286,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1665" spans="1:8" hidden="1">
+    <row r="1665" spans="1:8">
       <c r="A1665">
         <v>2203037</v>
       </c>
@@ -52530,7 +52526,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1674" spans="1:8" hidden="1">
+    <row r="1674" spans="1:8">
       <c r="A1674">
         <v>2203047</v>
       </c>
@@ -52635,7 +52631,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1678" spans="1:8" hidden="1">
+    <row r="1678" spans="1:8">
       <c r="A1678">
         <v>2203052</v>
       </c>
@@ -52713,7 +52709,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1681" spans="1:8" hidden="1">
+    <row r="1681" spans="1:8">
       <c r="A1681">
         <v>2203055</v>
       </c>
@@ -52737,7 +52733,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1682" spans="1:8">
+    <row r="1682" spans="1:8" hidden="1">
       <c r="A1682">
         <v>2203056</v>
       </c>
@@ -52899,7 +52895,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1688" spans="1:8" hidden="1">
+    <row r="1688" spans="1:8">
       <c r="A1688">
         <v>2203062</v>
       </c>
@@ -54864,7 +54860,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1761" spans="1:8" hidden="1">
+    <row r="1761" spans="1:8">
       <c r="A1761">
         <v>2203153</v>
       </c>
@@ -54939,7 +54935,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1764" spans="1:8" hidden="1">
+    <row r="1764" spans="1:8">
       <c r="A1764">
         <v>2203166</v>
       </c>
@@ -55129,7 +55125,7 @@
   <autoFilter ref="A1:G1770" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters>
-        <filter val="3支持"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/Aid/分类算法数据-师兄.xlsx
+++ b/data/Aid/分类算法数据-师兄.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef3b8070ea8c7de/Project/BertWithPretrained/data/Aid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C692982A-2FA4-4E8E-874C-2E2E4584C924}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A69358E-43EC-41B3-B8DB-A76FFA5F2B7C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8894,8 +8894,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -9197,10 +9197,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I1770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B344" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F1682" sqref="F1682"/>
     </sheetView>
   </sheetViews>
@@ -9268,7 +9267,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2200062</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2200076</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>2200090</v>
       </c>
@@ -9463,7 +9462,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>2200095</v>
       </c>
@@ -9487,7 +9486,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="90" hidden="1">
+    <row r="11" spans="1:9" ht="90">
       <c r="A11">
         <v>2200100</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>2200140</v>
       </c>
@@ -9610,7 +9609,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>2200141</v>
       </c>
@@ -9637,7 +9636,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2200142</v>
       </c>
@@ -9664,7 +9663,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2200143</v>
       </c>
@@ -9691,7 +9690,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2200144</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2200145</v>
       </c>
@@ -9769,7 +9768,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2200147</v>
       </c>
@@ -9844,7 +9843,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2200150</v>
       </c>
@@ -9868,7 +9867,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2200151</v>
       </c>
@@ -9895,7 +9894,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2200152</v>
       </c>
@@ -9946,7 +9945,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2200154</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2200155</v>
       </c>
@@ -10000,7 +9999,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>2200156</v>
       </c>
@@ -10027,7 +10026,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>2200157</v>
       </c>
@@ -10054,7 +10053,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>2200158</v>
       </c>
@@ -10081,7 +10080,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>2200159</v>
       </c>
@@ -10108,7 +10107,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>2200160</v>
       </c>
@@ -10216,7 +10215,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>2200173</v>
       </c>
@@ -10243,7 +10242,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>2200174</v>
       </c>
@@ -10270,7 +10269,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>2200175</v>
       </c>
@@ -10297,7 +10296,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>2200176</v>
       </c>
@@ -10324,7 +10323,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>2200177</v>
       </c>
@@ -10351,7 +10350,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>2200178</v>
       </c>
@@ -10378,7 +10377,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>2200179</v>
       </c>
@@ -10405,7 +10404,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>2200180</v>
       </c>
@@ -10432,7 +10431,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>2200181</v>
       </c>
@@ -10459,7 +10458,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>2200182</v>
       </c>
@@ -10486,7 +10485,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>2200183</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>2200184</v>
       </c>
@@ -10540,7 +10539,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>2200185</v>
       </c>
@@ -10567,7 +10566,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>2200186</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>2200187</v>
       </c>
@@ -10621,7 +10620,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>2200188</v>
       </c>
@@ -10699,7 +10698,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>2200193</v>
       </c>
@@ -10723,7 +10722,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>2200194</v>
       </c>
@@ -10804,7 +10803,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>2200197</v>
       </c>
@@ -10831,7 +10830,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>2200198</v>
       </c>
@@ -10858,7 +10857,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>2200199</v>
       </c>
@@ -10885,7 +10884,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>2200200</v>
       </c>
@@ -10912,7 +10911,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>2200201</v>
       </c>
@@ -10966,7 +10965,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>2200203</v>
       </c>
@@ -10993,7 +10992,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>2200204</v>
       </c>
@@ -11047,7 +11046,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>2200206</v>
       </c>
@@ -11101,7 +11100,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>2200208</v>
       </c>
@@ -11152,7 +11151,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>2200210</v>
       </c>
@@ -11179,7 +11178,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>2200211</v>
       </c>
@@ -11206,7 +11205,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>2200212</v>
       </c>
@@ -11314,7 +11313,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>2200216</v>
       </c>
@@ -11341,7 +11340,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>2200217</v>
       </c>
@@ -11449,7 +11448,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>2200222</v>
       </c>
@@ -11476,7 +11475,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>2200223</v>
       </c>
@@ -11503,7 +11502,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>2200229</v>
       </c>
@@ -11557,7 +11556,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>2200231</v>
       </c>
@@ -11584,7 +11583,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>2200232</v>
       </c>
@@ -11662,7 +11661,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>2200237</v>
       </c>
@@ -11689,7 +11688,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>2200238</v>
       </c>
@@ -11716,7 +11715,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>2200239</v>
       </c>
@@ -11743,7 +11742,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>2200240</v>
       </c>
@@ -11770,7 +11769,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>2200241</v>
       </c>
@@ -11797,7 +11796,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>2200242</v>
       </c>
@@ -11824,7 +11823,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>2200243</v>
       </c>
@@ -11851,7 +11850,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>2200244</v>
       </c>
@@ -11878,7 +11877,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>2200245</v>
       </c>
@@ -11905,7 +11904,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>2200246</v>
       </c>
@@ -11932,7 +11931,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>2200249</v>
       </c>
@@ -11959,7 +11958,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>2200250</v>
       </c>
@@ -11986,7 +11985,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>2200251</v>
       </c>
@@ -12013,7 +12012,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>2200252</v>
       </c>
@@ -12040,7 +12039,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>2200253</v>
       </c>
@@ -12067,7 +12066,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>2200254</v>
       </c>
@@ -12094,7 +12093,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>2200255</v>
       </c>
@@ -12121,7 +12120,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>2200257</v>
       </c>
@@ -12148,7 +12147,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>2200258</v>
       </c>
@@ -12172,7 +12171,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>2200259</v>
       </c>
@@ -12253,7 +12252,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>2200262</v>
       </c>
@@ -12280,7 +12279,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>2200263</v>
       </c>
@@ -12442,7 +12441,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>2200270</v>
       </c>
@@ -12466,7 +12465,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>2200271</v>
       </c>
@@ -12493,7 +12492,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>2200272</v>
       </c>
@@ -12520,7 +12519,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>2200273</v>
       </c>
@@ -12574,7 +12573,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>2200275</v>
       </c>
@@ -12628,7 +12627,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>2200277</v>
       </c>
@@ -12814,7 +12813,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>2200284</v>
       </c>
@@ -12865,7 +12864,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>2200286</v>
       </c>
@@ -12892,7 +12891,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>2200287</v>
       </c>
@@ -12919,7 +12918,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>2200288</v>
       </c>
@@ -12946,7 +12945,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>2200289</v>
       </c>
@@ -12973,7 +12972,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>2200290</v>
       </c>
@@ -13000,7 +12999,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>2200293</v>
       </c>
@@ -13108,7 +13107,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>2200298</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>2200342</v>
       </c>
@@ -13282,7 +13281,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>2200367</v>
       </c>
@@ -13363,7 +13362,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>2200377</v>
       </c>
@@ -13441,7 +13440,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1">
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>2200381</v>
       </c>
@@ -13495,7 +13494,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1">
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>2200423</v>
       </c>
@@ -13522,7 +13521,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1">
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>2200424</v>
       </c>
@@ -13549,7 +13548,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1">
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>2200425</v>
       </c>
@@ -13576,7 +13575,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>2200426</v>
       </c>
@@ -13600,7 +13599,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1">
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>2200428</v>
       </c>
@@ -13651,7 +13650,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1">
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>2200432</v>
       </c>
@@ -13678,7 +13677,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>2200433</v>
       </c>
@@ -13705,7 +13704,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1">
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>2200434</v>
       </c>
@@ -13732,7 +13731,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>2200440</v>
       </c>
@@ -13783,7 +13782,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>2200442</v>
       </c>
@@ -13837,7 +13836,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>2200445</v>
       </c>
@@ -13864,7 +13863,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1">
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>2200446</v>
       </c>
@@ -13891,7 +13890,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>2200447</v>
       </c>
@@ -14023,7 +14022,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1">
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>2200453</v>
       </c>
@@ -14182,7 +14181,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1">
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>2200461</v>
       </c>
@@ -14209,7 +14208,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1">
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>2200462</v>
       </c>
@@ -14236,7 +14235,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1">
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>2200503</v>
       </c>
@@ -14317,7 +14316,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1">
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>2200509</v>
       </c>
@@ -14371,7 +14370,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1">
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>2200515</v>
       </c>
@@ -14479,7 +14478,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1">
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>2200519</v>
       </c>
@@ -14506,7 +14505,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1">
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>2200520</v>
       </c>
@@ -14587,7 +14586,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1">
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>2200523</v>
       </c>
@@ -14668,7 +14667,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1">
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>2200537</v>
       </c>
@@ -14695,7 +14694,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1">
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>2200541</v>
       </c>
@@ -14722,7 +14721,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1">
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>2200542</v>
       </c>
@@ -14749,7 +14748,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1">
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>2200543</v>
       </c>
@@ -14776,7 +14775,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1">
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>2200544</v>
       </c>
@@ -14803,7 +14802,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1">
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>2200545</v>
       </c>
@@ -14938,7 +14937,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1">
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>2200586</v>
       </c>
@@ -14965,7 +14964,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1">
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>2200587</v>
       </c>
@@ -15046,7 +15045,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1">
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>2200599</v>
       </c>
@@ -15181,7 +15180,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1">
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>2200640</v>
       </c>
@@ -15205,7 +15204,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1">
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>2200642</v>
       </c>
@@ -15232,7 +15231,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1">
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>2200643</v>
       </c>
@@ -15259,7 +15258,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1">
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>2200644</v>
       </c>
@@ -15313,7 +15312,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1">
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>2200667</v>
       </c>
@@ -15367,7 +15366,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1">
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>2200669</v>
       </c>
@@ -15448,7 +15447,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1">
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>2200673</v>
       </c>
@@ -15475,7 +15474,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1">
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>2200674</v>
       </c>
@@ -15583,7 +15582,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1">
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>2200680</v>
       </c>
@@ -15610,7 +15609,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1">
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>2200681</v>
       </c>
@@ -15664,7 +15663,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1">
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>2200692</v>
       </c>
@@ -15688,7 +15687,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1">
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>2200693</v>
       </c>
@@ -15742,7 +15741,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1">
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>2200695</v>
       </c>
@@ -15769,7 +15768,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1">
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>2200698</v>
       </c>
@@ -15796,7 +15795,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1">
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>2200700</v>
       </c>
@@ -15874,7 +15873,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1">
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>2200704</v>
       </c>
@@ -15955,7 +15954,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1">
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>2200708</v>
       </c>
@@ -15982,7 +15981,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1">
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>2200709</v>
       </c>
@@ -16009,7 +16008,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1">
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>2200710</v>
       </c>
@@ -16036,7 +16035,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1">
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>2200711</v>
       </c>
@@ -16063,7 +16062,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1">
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>2200712</v>
       </c>
@@ -16144,7 +16143,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1">
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>2200718</v>
       </c>
@@ -16171,7 +16170,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1">
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>2200726</v>
       </c>
@@ -16198,7 +16197,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1">
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>2200727</v>
       </c>
@@ -16225,7 +16224,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1">
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>2200728</v>
       </c>
@@ -16252,7 +16251,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1">
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>2200729</v>
       </c>
@@ -16279,7 +16278,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1">
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>2200730</v>
       </c>
@@ -16387,7 +16386,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1">
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>2200735</v>
       </c>
@@ -16414,7 +16413,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1">
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>2200736</v>
       </c>
@@ -16441,7 +16440,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1">
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>2200737</v>
       </c>
@@ -16468,7 +16467,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1">
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>2200738</v>
       </c>
@@ -16522,7 +16521,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1">
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>2200740</v>
       </c>
@@ -16549,7 +16548,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1">
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>2200741</v>
       </c>
@@ -16576,7 +16575,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1">
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>2200745</v>
       </c>
@@ -16603,7 +16602,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1">
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>2200746</v>
       </c>
@@ -16657,7 +16656,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1">
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>2200748</v>
       </c>
@@ -16711,7 +16710,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>2200750</v>
       </c>
@@ -16738,7 +16737,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>2200751</v>
       </c>
@@ -16819,7 +16818,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>2200758</v>
       </c>
@@ -16846,7 +16845,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>2200759</v>
       </c>
@@ -17035,7 +17034,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>2200799</v>
       </c>
@@ -17140,7 +17139,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>2200803</v>
       </c>
@@ -17167,7 +17166,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>2200804</v>
       </c>
@@ -17221,7 +17220,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>2200808</v>
       </c>
@@ -17248,7 +17247,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>2200809</v>
       </c>
@@ -17275,7 +17274,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>2200810</v>
       </c>
@@ -17302,7 +17301,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>2200811</v>
       </c>
@@ -17356,7 +17355,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>2200814</v>
       </c>
@@ -17383,7 +17382,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>2200815</v>
       </c>
@@ -17410,7 +17409,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>2200816</v>
       </c>
@@ -17464,7 +17463,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>2200819</v>
       </c>
@@ -17518,7 +17517,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>2200822</v>
       </c>
@@ -17545,7 +17544,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>2200824</v>
       </c>
@@ -17599,7 +17598,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>2200826</v>
       </c>
@@ -17626,7 +17625,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>2200827</v>
       </c>
@@ -17653,7 +17652,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>2200828</v>
       </c>
@@ -17680,7 +17679,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>2200829</v>
       </c>
@@ -17761,7 +17760,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>2200834</v>
       </c>
@@ -17842,7 +17841,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>2200837</v>
       </c>
@@ -17869,7 +17868,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>2200840</v>
       </c>
@@ -17892,7 +17891,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>2200842</v>
       </c>
@@ -17915,7 +17914,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>2200843</v>
       </c>
@@ -17938,7 +17937,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>2200844</v>
       </c>
@@ -17961,7 +17960,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>2200845</v>
       </c>
@@ -17984,7 +17983,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>2200846</v>
       </c>
@@ -18007,7 +18006,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>2200847</v>
       </c>
@@ -18030,7 +18029,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>2200848</v>
       </c>
@@ -18056,7 +18055,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>2200849</v>
       </c>
@@ -18079,7 +18078,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>2200850</v>
       </c>
@@ -18105,7 +18104,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>2200851</v>
       </c>
@@ -18128,7 +18127,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>2200852</v>
       </c>
@@ -18151,7 +18150,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>2200853</v>
       </c>
@@ -18174,7 +18173,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>2200855</v>
       </c>
@@ -18197,7 +18196,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>2200858</v>
       </c>
@@ -18275,7 +18274,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>2200866</v>
       </c>
@@ -18380,7 +18379,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>2200875</v>
       </c>
@@ -18407,7 +18406,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>2200876</v>
       </c>
@@ -18434,7 +18433,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>2200879</v>
       </c>
@@ -18515,7 +18514,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>2200886</v>
       </c>
@@ -18623,7 +18622,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1">
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>2200895</v>
       </c>
@@ -18647,7 +18646,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1">
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>2200896</v>
       </c>
@@ -18779,7 +18778,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1">
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>2200918</v>
       </c>
@@ -18806,7 +18805,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1">
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>2200921</v>
       </c>
@@ -18830,7 +18829,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1">
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>2200926</v>
       </c>
@@ -18857,7 +18856,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1">
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>2200927</v>
       </c>
@@ -18884,7 +18883,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1">
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>2200929</v>
       </c>
@@ -18911,7 +18910,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1">
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>2200930</v>
       </c>
@@ -18938,7 +18937,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1">
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>2200931</v>
       </c>
@@ -18992,7 +18991,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>2200933</v>
       </c>
@@ -19019,7 +19018,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>2200934</v>
       </c>
@@ -19046,7 +19045,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>2200935</v>
       </c>
@@ -19073,7 +19072,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>2200937</v>
       </c>
@@ -19121,7 +19120,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>2200941</v>
       </c>
@@ -19202,7 +19201,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>2200946</v>
       </c>
@@ -19283,7 +19282,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>2200966</v>
       </c>
@@ -19310,7 +19309,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>2200967</v>
       </c>
@@ -19337,7 +19336,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>2200970</v>
       </c>
@@ -19391,7 +19390,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>2200974</v>
       </c>
@@ -19418,7 +19417,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>2200977</v>
       </c>
@@ -19445,7 +19444,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>2200979</v>
       </c>
@@ -19541,7 +19540,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>2200985</v>
       </c>
@@ -19565,7 +19564,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>2200988</v>
       </c>
@@ -19592,7 +19591,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>2200991</v>
       </c>
@@ -19646,7 +19645,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>2200995</v>
       </c>
@@ -19673,7 +19672,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>2200998</v>
       </c>
@@ -19700,7 +19699,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>2201000</v>
       </c>
@@ -19727,7 +19726,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>2201001</v>
       </c>
@@ -19781,7 +19780,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>2201006</v>
       </c>
@@ -19835,7 +19834,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>2201008</v>
       </c>
@@ -19862,7 +19861,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>2201009</v>
       </c>
@@ -19889,7 +19888,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>2201010</v>
       </c>
@@ -19994,7 +19993,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>2201022</v>
       </c>
@@ -20021,7 +20020,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>2201023</v>
       </c>
@@ -20048,7 +20047,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>2201024</v>
       </c>
@@ -20075,7 +20074,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>2201025</v>
       </c>
@@ -20102,7 +20101,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>2201026</v>
       </c>
@@ -20237,7 +20236,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1">
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>2201042</v>
       </c>
@@ -20264,7 +20263,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>2201043</v>
       </c>
@@ -20315,7 +20314,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1">
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>2201051</v>
       </c>
@@ -20342,7 +20341,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1">
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>2201052</v>
       </c>
@@ -20369,7 +20368,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1">
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>2201060</v>
       </c>
@@ -20396,7 +20395,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1">
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>2201061</v>
       </c>
@@ -20471,7 +20470,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1">
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>2201067</v>
       </c>
@@ -20522,7 +20521,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1">
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>2201069</v>
       </c>
@@ -20549,7 +20548,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1">
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>2201071</v>
       </c>
@@ -20576,7 +20575,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1">
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>2201073</v>
       </c>
@@ -20624,7 +20623,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1">
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>2201075</v>
       </c>
@@ -20651,7 +20650,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1">
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>2201076</v>
       </c>
@@ -20678,7 +20677,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1">
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>2201077</v>
       </c>
@@ -20705,7 +20704,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1">
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>2201078</v>
       </c>
@@ -20732,7 +20731,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1">
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>2201083</v>
       </c>
@@ -20759,7 +20758,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1">
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>2201086</v>
       </c>
@@ -20810,7 +20809,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1">
+    <row r="438" spans="1:8">
       <c r="A438">
         <v>2201088</v>
       </c>
@@ -20837,7 +20836,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1">
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>2201089</v>
       </c>
@@ -20864,7 +20863,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1">
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>2201091</v>
       </c>
@@ -20891,7 +20890,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1">
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>2201093</v>
       </c>
@@ -20942,7 +20941,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1">
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>2201097</v>
       </c>
@@ -20969,7 +20968,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1">
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>2201098</v>
       </c>
@@ -20996,7 +20995,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1">
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>2201099</v>
       </c>
@@ -21047,7 +21046,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1">
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>2201101</v>
       </c>
@@ -21074,7 +21073,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1">
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>2201102</v>
       </c>
@@ -21101,7 +21100,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1">
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>2201103</v>
       </c>
@@ -21128,7 +21127,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1">
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>2201106</v>
       </c>
@@ -21152,7 +21151,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1">
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>2201107</v>
       </c>
@@ -21179,7 +21178,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1">
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>2201108</v>
       </c>
@@ -21206,7 +21205,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1">
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>2201109</v>
       </c>
@@ -21311,7 +21310,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1">
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>2201120</v>
       </c>
@@ -21338,7 +21337,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1">
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>2201121</v>
       </c>
@@ -21365,7 +21364,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1">
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>2201122</v>
       </c>
@@ -21389,7 +21388,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1">
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>2201123</v>
       </c>
@@ -21416,7 +21415,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1">
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>2201134</v>
       </c>
@@ -21443,7 +21442,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1">
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>2201143</v>
       </c>
@@ -21524,7 +21523,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1">
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>2201153</v>
       </c>
@@ -21578,7 +21577,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1">
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>2201155</v>
       </c>
@@ -21605,7 +21604,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1">
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>2201156</v>
       </c>
@@ -21629,7 +21628,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1">
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>2201157</v>
       </c>
@@ -21656,7 +21655,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1">
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>2201158</v>
       </c>
@@ -21683,7 +21682,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1">
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>2201159</v>
       </c>
@@ -21710,7 +21709,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1">
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>2201160</v>
       </c>
@@ -21737,7 +21736,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1">
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>2201161</v>
       </c>
@@ -21764,7 +21763,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1">
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>2201162</v>
       </c>
@@ -21791,7 +21790,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1">
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>2201163</v>
       </c>
@@ -21818,7 +21817,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1">
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>2201164</v>
       </c>
@@ -21845,7 +21844,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1">
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>2201165</v>
       </c>
@@ -21872,7 +21871,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1">
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>2201166</v>
       </c>
@@ -21899,7 +21898,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1">
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>2201167</v>
       </c>
@@ -21926,7 +21925,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1">
+    <row r="480" spans="1:8">
       <c r="A480">
         <v>2201168</v>
       </c>
@@ -21950,7 +21949,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1">
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>2201170</v>
       </c>
@@ -22082,7 +22081,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1">
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>2201179</v>
       </c>
@@ -22136,7 +22135,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1">
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>2201181</v>
       </c>
@@ -22163,7 +22162,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1">
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>2201182</v>
       </c>
@@ -22190,7 +22189,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1">
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>2201184</v>
       </c>
@@ -22217,7 +22216,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1">
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>2201185</v>
       </c>
@@ -22244,7 +22243,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1">
+    <row r="492" spans="1:8">
       <c r="A492">
         <v>2201187</v>
       </c>
@@ -22271,7 +22270,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1">
+    <row r="493" spans="1:8">
       <c r="A493">
         <v>2201188</v>
       </c>
@@ -22298,7 +22297,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1">
+    <row r="494" spans="1:8">
       <c r="A494">
         <v>2201191</v>
       </c>
@@ -22376,7 +22375,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1">
+    <row r="497" spans="1:8">
       <c r="A497">
         <v>2201197</v>
       </c>
@@ -22403,7 +22402,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1">
+    <row r="498" spans="1:8">
       <c r="A498">
         <v>2201199</v>
       </c>
@@ -22430,7 +22429,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1">
+    <row r="499" spans="1:8">
       <c r="A499">
         <v>2201208</v>
       </c>
@@ -22451,7 +22450,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1">
+    <row r="500" spans="1:8">
       <c r="A500">
         <v>2201213</v>
       </c>
@@ -22475,7 +22474,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1">
+    <row r="501" spans="1:8">
       <c r="A501">
         <v>2201215</v>
       </c>
@@ -22523,7 +22522,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1">
+    <row r="503" spans="1:8">
       <c r="A503">
         <v>2201225</v>
       </c>
@@ -22547,7 +22546,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1">
+    <row r="504" spans="1:8">
       <c r="A504">
         <v>2201226</v>
       </c>
@@ -22751,7 +22750,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1">
+    <row r="512" spans="1:8">
       <c r="A512">
         <v>2201237</v>
       </c>
@@ -22853,7 +22852,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1">
+    <row r="516" spans="1:8">
       <c r="A516">
         <v>2201263</v>
       </c>
@@ -22877,7 +22876,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1">
+    <row r="517" spans="1:8">
       <c r="A517">
         <v>2201264</v>
       </c>
@@ -22904,7 +22903,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1">
+    <row r="518" spans="1:8">
       <c r="A518">
         <v>2201273</v>
       </c>
@@ -22931,7 +22930,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1">
+    <row r="519" spans="1:8">
       <c r="A519">
         <v>2201274</v>
       </c>
@@ -22985,7 +22984,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1">
+    <row r="521" spans="1:8">
       <c r="A521">
         <v>2201282</v>
       </c>
@@ -23039,7 +23038,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="90" hidden="1">
+    <row r="523" spans="1:8" ht="90">
       <c r="A523">
         <v>2201285</v>
       </c>
@@ -23066,7 +23065,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1">
+    <row r="524" spans="1:8">
       <c r="A524">
         <v>2201286</v>
       </c>
@@ -23093,7 +23092,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1">
+    <row r="525" spans="1:8">
       <c r="A525">
         <v>2201287</v>
       </c>
@@ -23120,7 +23119,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1">
+    <row r="526" spans="1:8">
       <c r="A526">
         <v>2201289</v>
       </c>
@@ -23174,7 +23173,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1">
+    <row r="528" spans="1:8">
       <c r="A528">
         <v>2201291</v>
       </c>
@@ -23201,7 +23200,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1">
+    <row r="529" spans="1:8">
       <c r="A529">
         <v>2201292</v>
       </c>
@@ -23228,7 +23227,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1">
+    <row r="530" spans="1:8">
       <c r="A530">
         <v>2201293</v>
       </c>
@@ -23252,7 +23251,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1">
+    <row r="531" spans="1:8">
       <c r="A531">
         <v>2201294</v>
       </c>
@@ -23276,7 +23275,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1">
+    <row r="532" spans="1:8">
       <c r="A532">
         <v>2201296</v>
       </c>
@@ -23300,7 +23299,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1">
+    <row r="533" spans="1:8">
       <c r="A533">
         <v>2201297</v>
       </c>
@@ -23324,7 +23323,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1">
+    <row r="534" spans="1:8">
       <c r="A534">
         <v>2201298</v>
       </c>
@@ -23348,7 +23347,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1">
+    <row r="535" spans="1:8">
       <c r="A535">
         <v>2201299</v>
       </c>
@@ -23375,7 +23374,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1">
+    <row r="536" spans="1:8">
       <c r="A536">
         <v>2201300</v>
       </c>
@@ -23399,7 +23398,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1">
+    <row r="537" spans="1:8">
       <c r="A537">
         <v>2201301</v>
       </c>
@@ -23423,7 +23422,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1">
+    <row r="538" spans="1:8">
       <c r="A538">
         <v>2201302</v>
       </c>
@@ -23450,7 +23449,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1">
+    <row r="539" spans="1:8">
       <c r="A539">
         <v>2201304</v>
       </c>
@@ -23504,7 +23503,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1">
+    <row r="541" spans="1:8">
       <c r="A541">
         <v>2201313</v>
       </c>
@@ -23558,7 +23557,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1">
+    <row r="543" spans="1:8">
       <c r="A543">
         <v>2201315</v>
       </c>
@@ -23585,7 +23584,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1">
+    <row r="544" spans="1:8">
       <c r="A544">
         <v>2201316</v>
       </c>
@@ -23639,7 +23638,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1">
+    <row r="546" spans="1:8">
       <c r="A546">
         <v>2201318</v>
       </c>
@@ -23666,7 +23665,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1">
+    <row r="547" spans="1:8">
       <c r="A547">
         <v>2201319</v>
       </c>
@@ -23693,7 +23692,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1">
+    <row r="548" spans="1:8">
       <c r="A548">
         <v>2201320</v>
       </c>
@@ -23720,7 +23719,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1">
+    <row r="549" spans="1:8">
       <c r="A549">
         <v>2201321</v>
       </c>
@@ -23747,7 +23746,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1">
+    <row r="550" spans="1:8">
       <c r="A550">
         <v>2201322</v>
       </c>
@@ -23774,7 +23773,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1">
+    <row r="551" spans="1:8">
       <c r="A551">
         <v>2201323</v>
       </c>
@@ -23801,7 +23800,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1">
+    <row r="552" spans="1:8">
       <c r="A552">
         <v>2201324</v>
       </c>
@@ -23855,7 +23854,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1">
+    <row r="554" spans="1:8">
       <c r="A554">
         <v>2201326</v>
       </c>
@@ -23909,7 +23908,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1">
+    <row r="556" spans="1:8">
       <c r="A556">
         <v>2201328</v>
       </c>
@@ -23936,7 +23935,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1">
+    <row r="557" spans="1:8">
       <c r="A557">
         <v>2201329</v>
       </c>
@@ -23963,7 +23962,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1">
+    <row r="558" spans="1:8">
       <c r="A558">
         <v>2201330</v>
       </c>
@@ -23990,7 +23989,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1">
+    <row r="559" spans="1:8">
       <c r="A559">
         <v>2201331</v>
       </c>
@@ -24017,7 +24016,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1">
+    <row r="560" spans="1:8">
       <c r="A560">
         <v>2201334</v>
       </c>
@@ -24044,7 +24043,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1">
+    <row r="561" spans="1:8">
       <c r="A561">
         <v>2201335</v>
       </c>
@@ -24068,7 +24067,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1">
+    <row r="562" spans="1:8">
       <c r="A562">
         <v>2201336</v>
       </c>
@@ -24122,7 +24121,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1">
+    <row r="564" spans="1:8">
       <c r="A564">
         <v>2201338</v>
       </c>
@@ -24176,7 +24175,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1">
+    <row r="566" spans="1:8">
       <c r="A566">
         <v>2201342</v>
       </c>
@@ -24203,7 +24202,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1">
+    <row r="567" spans="1:8">
       <c r="A567">
         <v>2201348</v>
       </c>
@@ -24257,7 +24256,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1">
+    <row r="569" spans="1:8">
       <c r="A569">
         <v>2201357</v>
       </c>
@@ -24365,7 +24364,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1">
+    <row r="573" spans="1:8">
       <c r="A573">
         <v>2201362</v>
       </c>
@@ -24392,7 +24391,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1">
+    <row r="574" spans="1:8">
       <c r="A574">
         <v>2201363</v>
       </c>
@@ -24419,7 +24418,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1">
+    <row r="575" spans="1:8">
       <c r="A575">
         <v>2201364</v>
       </c>
@@ -24446,7 +24445,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1">
+    <row r="576" spans="1:8">
       <c r="A576">
         <v>2201365</v>
       </c>
@@ -24473,7 +24472,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1">
+    <row r="577" spans="1:8">
       <c r="A577">
         <v>2201366</v>
       </c>
@@ -24500,7 +24499,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="578" spans="1:8" hidden="1">
+    <row r="578" spans="1:8">
       <c r="A578">
         <v>2201367</v>
       </c>
@@ -24527,7 +24526,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="360" hidden="1">
+    <row r="579" spans="1:8" ht="360">
       <c r="A579">
         <v>2201370</v>
       </c>
@@ -24575,7 +24574,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1">
+    <row r="581" spans="1:8">
       <c r="A581">
         <v>2201372</v>
       </c>
@@ -24602,7 +24601,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="409.5" hidden="1">
+    <row r="582" spans="1:8" ht="409.5">
       <c r="A582">
         <v>2201375</v>
       </c>
@@ -24626,7 +24625,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="583" spans="1:8" hidden="1">
+    <row r="583" spans="1:8">
       <c r="A583">
         <v>2201376</v>
       </c>
@@ -24650,7 +24649,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1">
+    <row r="584" spans="1:8">
       <c r="A584">
         <v>2201377</v>
       </c>
@@ -24677,7 +24676,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="585" spans="1:8" hidden="1">
+    <row r="585" spans="1:8">
       <c r="A585">
         <v>2201378</v>
       </c>
@@ -24728,7 +24727,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="587" spans="1:8" hidden="1">
+    <row r="587" spans="1:8">
       <c r="A587">
         <v>2201380</v>
       </c>
@@ -24755,7 +24754,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="588" spans="1:8" hidden="1">
+    <row r="588" spans="1:8">
       <c r="A588">
         <v>2201381</v>
       </c>
@@ -24782,7 +24781,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1">
+    <row r="589" spans="1:8">
       <c r="A589">
         <v>2201382</v>
       </c>
@@ -24809,7 +24808,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1">
+    <row r="590" spans="1:8">
       <c r="A590">
         <v>2201383</v>
       </c>
@@ -24836,7 +24835,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1">
+    <row r="591" spans="1:8">
       <c r="A591">
         <v>2201384</v>
       </c>
@@ -24863,7 +24862,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1">
+    <row r="592" spans="1:8">
       <c r="A592">
         <v>2201385</v>
       </c>
@@ -24890,7 +24889,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1">
+    <row r="593" spans="1:8">
       <c r="A593">
         <v>2201386</v>
       </c>
@@ -24917,7 +24916,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1">
+    <row r="594" spans="1:8">
       <c r="A594">
         <v>2201387</v>
       </c>
@@ -24968,7 +24967,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1">
+    <row r="596" spans="1:8">
       <c r="A596">
         <v>2201390</v>
       </c>
@@ -24992,7 +24991,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1">
+    <row r="597" spans="1:8">
       <c r="A597">
         <v>2201391</v>
       </c>
@@ -25019,7 +25018,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1">
+    <row r="598" spans="1:8">
       <c r="A598">
         <v>2201395</v>
       </c>
@@ -25046,7 +25045,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1">
+    <row r="599" spans="1:8">
       <c r="A599">
         <v>2201408</v>
       </c>
@@ -25073,7 +25072,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1">
+    <row r="600" spans="1:8">
       <c r="A600">
         <v>2201409</v>
       </c>
@@ -25097,7 +25096,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1">
+    <row r="601" spans="1:8">
       <c r="A601">
         <v>2201410</v>
       </c>
@@ -25124,7 +25123,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1">
+    <row r="602" spans="1:8">
       <c r="A602">
         <v>2201411</v>
       </c>
@@ -25151,7 +25150,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1">
+    <row r="603" spans="1:8">
       <c r="A603">
         <v>2201412</v>
       </c>
@@ -25175,7 +25174,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="604" spans="1:8" hidden="1">
+    <row r="604" spans="1:8">
       <c r="A604">
         <v>2201413</v>
       </c>
@@ -25202,7 +25201,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="605" spans="1:8" hidden="1">
+    <row r="605" spans="1:8">
       <c r="A605">
         <v>2201415</v>
       </c>
@@ -25283,7 +25282,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="608" spans="1:8" hidden="1">
+    <row r="608" spans="1:8">
       <c r="A608">
         <v>2201418</v>
       </c>
@@ -25310,7 +25309,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1">
+    <row r="609" spans="1:8">
       <c r="A609">
         <v>2201419</v>
       </c>
@@ -25334,7 +25333,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1">
+    <row r="610" spans="1:8">
       <c r="A610">
         <v>2201420</v>
       </c>
@@ -25523,7 +25522,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1">
+    <row r="617" spans="1:8">
       <c r="A617">
         <v>2201428</v>
       </c>
@@ -25550,7 +25549,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1">
+    <row r="618" spans="1:8">
       <c r="A618">
         <v>2201429</v>
       </c>
@@ -25577,7 +25576,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1">
+    <row r="619" spans="1:8">
       <c r="A619">
         <v>2201430</v>
       </c>
@@ -25601,7 +25600,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1">
+    <row r="620" spans="1:8">
       <c r="A620">
         <v>2201432</v>
       </c>
@@ -25625,7 +25624,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1">
+    <row r="621" spans="1:8">
       <c r="A621">
         <v>2201433</v>
       </c>
@@ -25649,7 +25648,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1">
+    <row r="622" spans="1:8">
       <c r="A622">
         <v>2201434</v>
       </c>
@@ -25676,7 +25675,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1">
+    <row r="623" spans="1:8">
       <c r="A623">
         <v>2201435</v>
       </c>
@@ -25700,7 +25699,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1">
+    <row r="624" spans="1:8">
       <c r="A624">
         <v>2201436</v>
       </c>
@@ -25727,7 +25726,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1">
+    <row r="625" spans="1:8">
       <c r="A625">
         <v>2201437</v>
       </c>
@@ -25754,7 +25753,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1">
+    <row r="626" spans="1:8">
       <c r="A626">
         <v>2201438</v>
       </c>
@@ -25778,7 +25777,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1">
+    <row r="627" spans="1:8">
       <c r="A627">
         <v>2201439</v>
       </c>
@@ -25913,7 +25912,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1">
+    <row r="632" spans="1:8">
       <c r="A632">
         <v>2201444</v>
       </c>
@@ -25940,7 +25939,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1">
+    <row r="633" spans="1:8">
       <c r="A633">
         <v>2201445</v>
       </c>
@@ -25967,7 +25966,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="634" spans="1:8" hidden="1">
+    <row r="634" spans="1:8">
       <c r="A634">
         <v>2201446</v>
       </c>
@@ -25991,7 +25990,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1">
+    <row r="635" spans="1:8">
       <c r="A635">
         <v>2201447</v>
       </c>
@@ -26015,7 +26014,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1">
+    <row r="636" spans="1:8">
       <c r="A636">
         <v>2201448</v>
       </c>
@@ -26042,7 +26041,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1">
+    <row r="637" spans="1:8">
       <c r="A637">
         <v>2201449</v>
       </c>
@@ -26066,7 +26065,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1">
+    <row r="638" spans="1:8">
       <c r="A638">
         <v>2201450</v>
       </c>
@@ -26090,7 +26089,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="639" spans="1:8" hidden="1">
+    <row r="639" spans="1:8">
       <c r="A639">
         <v>2201451</v>
       </c>
@@ -26117,7 +26116,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="640" spans="1:8" hidden="1">
+    <row r="640" spans="1:8">
       <c r="A640">
         <v>2201452</v>
       </c>
@@ -26141,7 +26140,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1">
+    <row r="641" spans="1:8">
       <c r="A641">
         <v>2201453</v>
       </c>
@@ -26168,7 +26167,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1">
+    <row r="642" spans="1:8">
       <c r="A642">
         <v>2201454</v>
       </c>
@@ -26195,7 +26194,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1">
+    <row r="643" spans="1:8">
       <c r="A643">
         <v>2201455</v>
       </c>
@@ -26222,7 +26221,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1">
+    <row r="644" spans="1:8">
       <c r="A644">
         <v>2201456</v>
       </c>
@@ -26249,7 +26248,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1">
+    <row r="645" spans="1:8">
       <c r="A645">
         <v>2201457</v>
       </c>
@@ -26276,7 +26275,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1">
+    <row r="646" spans="1:8">
       <c r="A646">
         <v>2201458</v>
       </c>
@@ -26303,7 +26302,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1">
+    <row r="647" spans="1:8">
       <c r="A647">
         <v>2201459</v>
       </c>
@@ -26330,7 +26329,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="648" spans="1:8" hidden="1">
+    <row r="648" spans="1:8">
       <c r="A648">
         <v>2201463</v>
       </c>
@@ -26357,7 +26356,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1">
+    <row r="649" spans="1:8">
       <c r="A649">
         <v>2201464</v>
       </c>
@@ -26411,7 +26410,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1">
+    <row r="651" spans="1:8">
       <c r="A651">
         <v>2201466</v>
       </c>
@@ -26438,7 +26437,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1">
+    <row r="652" spans="1:8">
       <c r="A652">
         <v>2201467</v>
       </c>
@@ -26597,7 +26596,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1">
+    <row r="658" spans="1:8">
       <c r="A658">
         <v>2201473</v>
       </c>
@@ -26651,7 +26650,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="660" spans="1:8" hidden="1">
+    <row r="660" spans="1:8">
       <c r="A660">
         <v>2201479</v>
       </c>
@@ -26732,7 +26731,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="663" spans="1:8" hidden="1">
+    <row r="663" spans="1:8">
       <c r="A663">
         <v>2201482</v>
       </c>
@@ -26813,7 +26812,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="666" spans="1:8" hidden="1">
+    <row r="666" spans="1:8">
       <c r="A666">
         <v>2201485</v>
       </c>
@@ -26840,7 +26839,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="667" spans="1:8" hidden="1">
+    <row r="667" spans="1:8">
       <c r="A667">
         <v>2201486</v>
       </c>
@@ -26867,7 +26866,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="668" spans="1:8" hidden="1">
+    <row r="668" spans="1:8">
       <c r="A668">
         <v>2201488</v>
       </c>
@@ -26975,7 +26974,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="672" spans="1:8" hidden="1">
+    <row r="672" spans="1:8">
       <c r="A672">
         <v>2201495</v>
       </c>
@@ -27002,7 +27001,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="673" spans="1:8" hidden="1">
+    <row r="673" spans="1:8">
       <c r="A673">
         <v>2201496</v>
       </c>
@@ -27029,7 +27028,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="674" spans="1:8" hidden="1">
+    <row r="674" spans="1:8">
       <c r="A674">
         <v>2201497</v>
       </c>
@@ -27056,7 +27055,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="675" spans="1:8" hidden="1">
+    <row r="675" spans="1:8">
       <c r="A675">
         <v>2201499</v>
       </c>
@@ -27179,7 +27178,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="680" spans="1:8" hidden="1">
+    <row r="680" spans="1:8">
       <c r="A680">
         <v>2201512</v>
       </c>
@@ -27206,7 +27205,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="681" spans="1:8" hidden="1">
+    <row r="681" spans="1:8">
       <c r="A681">
         <v>2201514</v>
       </c>
@@ -27233,7 +27232,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1">
+    <row r="682" spans="1:8">
       <c r="A682">
         <v>2201515</v>
       </c>
@@ -27356,7 +27355,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="687" spans="1:8" hidden="1">
+    <row r="687" spans="1:8">
       <c r="A687">
         <v>2201527</v>
       </c>
@@ -27719,7 +27718,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="702" spans="1:8" hidden="1">
+    <row r="702" spans="1:8">
       <c r="A702">
         <v>2201575</v>
       </c>
@@ -27743,7 +27742,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="703" spans="1:8" hidden="1">
+    <row r="703" spans="1:8">
       <c r="A703">
         <v>2201576</v>
       </c>
@@ -27767,7 +27766,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="704" spans="1:8" hidden="1">
+    <row r="704" spans="1:8">
       <c r="A704">
         <v>2201577</v>
       </c>
@@ -27791,7 +27790,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="705" spans="1:8" hidden="1">
+    <row r="705" spans="1:8">
       <c r="A705">
         <v>2201578</v>
       </c>
@@ -28055,7 +28054,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="716" spans="1:8" hidden="1">
+    <row r="716" spans="1:8">
       <c r="A716">
         <v>2201591</v>
       </c>
@@ -28127,7 +28126,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="719" spans="1:8" hidden="1">
+    <row r="719" spans="1:8">
       <c r="A719">
         <v>2201594</v>
       </c>
@@ -28175,7 +28174,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="721" spans="1:8" hidden="1">
+    <row r="721" spans="1:8">
       <c r="A721">
         <v>2201596</v>
       </c>
@@ -28199,7 +28198,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="722" spans="1:8" hidden="1">
+    <row r="722" spans="1:8">
       <c r="A722">
         <v>2201597</v>
       </c>
@@ -28274,7 +28273,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="725" spans="1:8" hidden="1">
+    <row r="725" spans="1:8">
       <c r="A725">
         <v>2201600</v>
       </c>
@@ -28325,7 +28324,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="727" spans="1:8" hidden="1">
+    <row r="727" spans="1:8">
       <c r="A727">
         <v>2201602</v>
       </c>
@@ -28376,7 +28375,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="729" spans="1:8" hidden="1">
+    <row r="729" spans="1:8">
       <c r="A729">
         <v>2201605</v>
       </c>
@@ -28451,7 +28450,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="732" spans="1:8" hidden="1">
+    <row r="732" spans="1:8">
       <c r="A732">
         <v>2201608</v>
       </c>
@@ -28502,7 +28501,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="734" spans="1:8" hidden="1">
+    <row r="734" spans="1:8">
       <c r="A734">
         <v>2201610</v>
       </c>
@@ -28982,7 +28981,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="754" spans="1:8" hidden="1">
+    <row r="754" spans="1:8">
       <c r="A754">
         <v>2201631</v>
       </c>
@@ -29297,7 +29296,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="767" spans="1:8" hidden="1">
+    <row r="767" spans="1:8">
       <c r="A767">
         <v>2201651</v>
       </c>
@@ -29348,7 +29347,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="769" spans="1:8" hidden="1">
+    <row r="769" spans="1:8">
       <c r="A769">
         <v>2201654</v>
       </c>
@@ -29375,7 +29374,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="770" spans="1:8" hidden="1">
+    <row r="770" spans="1:8">
       <c r="A770">
         <v>2201655</v>
       </c>
@@ -29450,7 +29449,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="773" spans="1:8" hidden="1">
+    <row r="773" spans="1:8">
       <c r="A773">
         <v>2201668</v>
       </c>
@@ -29549,7 +29548,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="777" spans="1:8" hidden="1">
+    <row r="777" spans="1:8">
       <c r="A777">
         <v>2201673</v>
       </c>
@@ -29984,7 +29983,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="795" spans="1:8" hidden="1">
+    <row r="795" spans="1:8">
       <c r="A795">
         <v>2201702</v>
       </c>
@@ -30011,7 +30010,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="796" spans="1:8" hidden="1">
+    <row r="796" spans="1:8">
       <c r="A796">
         <v>2201703</v>
       </c>
@@ -30038,7 +30037,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="797" spans="1:8" hidden="1">
+    <row r="797" spans="1:8">
       <c r="A797">
         <v>2201704</v>
       </c>
@@ -30233,7 +30232,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="805" spans="1:8" hidden="1">
+    <row r="805" spans="1:8">
       <c r="A805">
         <v>2201718</v>
       </c>
@@ -30281,7 +30280,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="807" spans="1:8" hidden="1">
+    <row r="807" spans="1:8">
       <c r="A807">
         <v>2201720</v>
       </c>
@@ -30308,7 +30307,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="808" spans="1:8" hidden="1">
+    <row r="808" spans="1:8">
       <c r="A808">
         <v>2201723</v>
       </c>
@@ -30356,7 +30355,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="810" spans="1:8" hidden="1">
+    <row r="810" spans="1:8">
       <c r="A810">
         <v>2201725</v>
       </c>
@@ -30431,7 +30430,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="813" spans="1:8" hidden="1">
+    <row r="813" spans="1:8">
       <c r="A813">
         <v>2201731</v>
       </c>
@@ -30482,7 +30481,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="815" spans="1:8" hidden="1">
+    <row r="815" spans="1:8">
       <c r="A815">
         <v>2201734</v>
       </c>
@@ -30701,7 +30700,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="824" spans="1:8" hidden="1">
+    <row r="824" spans="1:8">
       <c r="A824">
         <v>2201746</v>
       </c>
@@ -30896,7 +30895,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="832" spans="1:8" hidden="1">
+    <row r="832" spans="1:8">
       <c r="A832">
         <v>2201759</v>
       </c>
@@ -30968,7 +30967,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="835" spans="1:8" hidden="1">
+    <row r="835" spans="1:8">
       <c r="A835">
         <v>2201762</v>
       </c>
@@ -30995,7 +30994,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="836" spans="1:8" hidden="1">
+    <row r="836" spans="1:8">
       <c r="A836">
         <v>2201763</v>
       </c>
@@ -31046,7 +31045,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="838" spans="1:8" hidden="1">
+    <row r="838" spans="1:8">
       <c r="A838">
         <v>2201765</v>
       </c>
@@ -31073,7 +31072,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="839" spans="1:8" hidden="1">
+    <row r="839" spans="1:8">
       <c r="A839">
         <v>2201766</v>
       </c>
@@ -31295,7 +31294,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="848" spans="1:8" hidden="1">
+    <row r="848" spans="1:8">
       <c r="A848">
         <v>2201788</v>
       </c>
@@ -31322,7 +31321,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="849" spans="1:8" hidden="1">
+    <row r="849" spans="1:8">
       <c r="A849">
         <v>2201789</v>
       </c>
@@ -31397,7 +31396,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="852" spans="1:8" hidden="1">
+    <row r="852" spans="1:8">
       <c r="A852">
         <v>2201802</v>
       </c>
@@ -31448,7 +31447,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="854" spans="1:8" hidden="1">
+    <row r="854" spans="1:8">
       <c r="A854">
         <v>2201804</v>
       </c>
@@ -31931,7 +31930,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="874" spans="1:8" hidden="1">
+    <row r="874" spans="1:8">
       <c r="A874">
         <v>2201838</v>
       </c>
@@ -31955,7 +31954,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="875" spans="1:8" hidden="1">
+    <row r="875" spans="1:8">
       <c r="A875">
         <v>2201839</v>
       </c>
@@ -32006,7 +32005,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="877" spans="1:8" hidden="1">
+    <row r="877" spans="1:8">
       <c r="A877">
         <v>2201841</v>
       </c>
@@ -32105,7 +32104,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="881" spans="1:8" hidden="1">
+    <row r="881" spans="1:8">
       <c r="A881">
         <v>2201845</v>
       </c>
@@ -32180,7 +32179,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="884" spans="1:8" hidden="1">
+    <row r="884" spans="1:8">
       <c r="A884">
         <v>2201849</v>
       </c>
@@ -32207,7 +32206,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="885" spans="1:8" hidden="1">
+    <row r="885" spans="1:8">
       <c r="A885">
         <v>2201850</v>
       </c>
@@ -32234,7 +32233,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="886" spans="1:8" hidden="1">
+    <row r="886" spans="1:8">
       <c r="A886">
         <v>2201851</v>
       </c>
@@ -32261,7 +32260,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="887" spans="1:8" hidden="1">
+    <row r="887" spans="1:8">
       <c r="A887">
         <v>2201852</v>
       </c>
@@ -32288,7 +32287,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="888" spans="1:8" hidden="1">
+    <row r="888" spans="1:8">
       <c r="A888">
         <v>2201853</v>
       </c>
@@ -32315,7 +32314,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="889" spans="1:8" hidden="1">
+    <row r="889" spans="1:8">
       <c r="A889">
         <v>2201854</v>
       </c>
@@ -32366,7 +32365,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="891" spans="1:8" hidden="1">
+    <row r="891" spans="1:8">
       <c r="A891">
         <v>2201856</v>
       </c>
@@ -32465,7 +32464,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="895" spans="1:8" hidden="1">
+    <row r="895" spans="1:8">
       <c r="A895">
         <v>2201861</v>
       </c>
@@ -32492,7 +32491,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="896" spans="1:8" hidden="1">
+    <row r="896" spans="1:8">
       <c r="A896">
         <v>2201862</v>
       </c>
@@ -32594,7 +32593,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="900" spans="1:8" hidden="1">
+    <row r="900" spans="1:8">
       <c r="A900">
         <v>2201866</v>
       </c>
@@ -32621,7 +32620,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="901" spans="1:8" hidden="1">
+    <row r="901" spans="1:8">
       <c r="A901">
         <v>2201867</v>
       </c>
@@ -32648,7 +32647,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="902" spans="1:8" hidden="1">
+    <row r="902" spans="1:8">
       <c r="A902">
         <v>2201868</v>
       </c>
@@ -32675,7 +32674,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="903" spans="1:8" hidden="1">
+    <row r="903" spans="1:8">
       <c r="A903">
         <v>2201869</v>
       </c>
@@ -32702,7 +32701,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="904" spans="1:8" hidden="1">
+    <row r="904" spans="1:8">
       <c r="A904">
         <v>2201870</v>
       </c>
@@ -32729,7 +32728,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="905" spans="1:8" hidden="1">
+    <row r="905" spans="1:8">
       <c r="A905">
         <v>2201871</v>
       </c>
@@ -32756,7 +32755,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="906" spans="1:8" hidden="1">
+    <row r="906" spans="1:8">
       <c r="A906">
         <v>2201872</v>
       </c>
@@ -32783,7 +32782,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="907" spans="1:8" hidden="1">
+    <row r="907" spans="1:8">
       <c r="A907">
         <v>2201873</v>
       </c>
@@ -32855,7 +32854,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="910" spans="1:8" hidden="1">
+    <row r="910" spans="1:8">
       <c r="A910">
         <v>2201877</v>
       </c>
@@ -32882,7 +32881,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="911" spans="1:8" hidden="1">
+    <row r="911" spans="1:8">
       <c r="A911">
         <v>2201878</v>
       </c>
@@ -32957,7 +32956,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="914" spans="1:8" hidden="1">
+    <row r="914" spans="1:8">
       <c r="A914">
         <v>2201881</v>
       </c>
@@ -33080,7 +33079,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="919" spans="1:8" hidden="1">
+    <row r="919" spans="1:8">
       <c r="A919">
         <v>2201886</v>
       </c>
@@ -33107,7 +33106,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="920" spans="1:8" hidden="1">
+    <row r="920" spans="1:8">
       <c r="A920">
         <v>2201887</v>
       </c>
@@ -33155,7 +33154,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="922" spans="1:8" hidden="1">
+    <row r="922" spans="1:8">
       <c r="A922">
         <v>2201889</v>
       </c>
@@ -33182,7 +33181,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="923" spans="1:8" hidden="1">
+    <row r="923" spans="1:8">
       <c r="A923">
         <v>2201890</v>
       </c>
@@ -33233,7 +33232,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="925" spans="1:8" hidden="1">
+    <row r="925" spans="1:8">
       <c r="A925">
         <v>2201894</v>
       </c>
@@ -33332,7 +33331,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="929" spans="1:8" hidden="1">
+    <row r="929" spans="1:8">
       <c r="A929">
         <v>2201899</v>
       </c>
@@ -33524,7 +33523,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="937" spans="1:8" hidden="1">
+    <row r="937" spans="1:8">
       <c r="A937">
         <v>2201908</v>
       </c>
@@ -33599,7 +33598,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="940" spans="1:8" hidden="1">
+    <row r="940" spans="1:8">
       <c r="A940">
         <v>2201911</v>
       </c>
@@ -33650,7 +33649,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="942" spans="1:8" hidden="1">
+    <row r="942" spans="1:8">
       <c r="A942">
         <v>2201914</v>
       </c>
@@ -33677,7 +33676,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="943" spans="1:8" hidden="1">
+    <row r="943" spans="1:8">
       <c r="A943">
         <v>2201915</v>
       </c>
@@ -33701,7 +33700,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="944" spans="1:8" hidden="1">
+    <row r="944" spans="1:8">
       <c r="A944">
         <v>2201917</v>
       </c>
@@ -33728,7 +33727,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="945" spans="1:8" hidden="1">
+    <row r="945" spans="1:8">
       <c r="A945">
         <v>2201918</v>
       </c>
@@ -33848,7 +33847,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="950" spans="1:8" hidden="1">
+    <row r="950" spans="1:8">
       <c r="A950">
         <v>2201923</v>
       </c>
@@ -33899,7 +33898,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="952" spans="1:8" hidden="1">
+    <row r="952" spans="1:8">
       <c r="A952">
         <v>2201927</v>
       </c>
@@ -33926,7 +33925,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="953" spans="1:8" hidden="1">
+    <row r="953" spans="1:8">
       <c r="A953">
         <v>2201929</v>
       </c>
@@ -34022,7 +34021,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="957" spans="1:8" hidden="1">
+    <row r="957" spans="1:8">
       <c r="A957">
         <v>2201933</v>
       </c>
@@ -34073,7 +34072,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="959" spans="1:8" hidden="1">
+    <row r="959" spans="1:8">
       <c r="A959">
         <v>2201935</v>
       </c>
@@ -34124,7 +34123,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="961" spans="1:8" hidden="1">
+    <row r="961" spans="1:8">
       <c r="A961">
         <v>2201938</v>
       </c>
@@ -34175,7 +34174,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="963" spans="1:8" hidden="1">
+    <row r="963" spans="1:8">
       <c r="A963">
         <v>2201942</v>
       </c>
@@ -34202,7 +34201,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="964" spans="1:8" hidden="1">
+    <row r="964" spans="1:8">
       <c r="A964">
         <v>2201947</v>
       </c>
@@ -34301,7 +34300,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="968" spans="1:8" hidden="1">
+    <row r="968" spans="1:8">
       <c r="A968">
         <v>2201963</v>
       </c>
@@ -34328,7 +34327,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="969" spans="1:8" hidden="1">
+    <row r="969" spans="1:8">
       <c r="A969">
         <v>2201964</v>
       </c>
@@ -34352,7 +34351,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="970" spans="1:8" hidden="1">
+    <row r="970" spans="1:8">
       <c r="A970">
         <v>2201965</v>
       </c>
@@ -34376,7 +34375,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="971" spans="1:8" hidden="1">
+    <row r="971" spans="1:8">
       <c r="A971">
         <v>2201966</v>
       </c>
@@ -34403,7 +34402,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="972" spans="1:8" hidden="1">
+    <row r="972" spans="1:8">
       <c r="A972">
         <v>2201967</v>
       </c>
@@ -34430,7 +34429,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="973" spans="1:8" hidden="1">
+    <row r="973" spans="1:8">
       <c r="A973">
         <v>2201969</v>
       </c>
@@ -34457,7 +34456,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="974" spans="1:8" hidden="1">
+    <row r="974" spans="1:8">
       <c r="A974">
         <v>2201970</v>
       </c>
@@ -34607,7 +34606,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="980" spans="1:8" hidden="1">
+    <row r="980" spans="1:8">
       <c r="A980">
         <v>2201976</v>
       </c>
@@ -34634,7 +34633,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="981" spans="1:8" hidden="1">
+    <row r="981" spans="1:8">
       <c r="A981">
         <v>2201978</v>
       </c>
@@ -34661,7 +34660,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="982" spans="1:8" hidden="1">
+    <row r="982" spans="1:8">
       <c r="A982">
         <v>2201980</v>
       </c>
@@ -34736,7 +34735,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="985" spans="1:8" hidden="1">
+    <row r="985" spans="1:8">
       <c r="A985">
         <v>2201984</v>
       </c>
@@ -34760,7 +34759,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="986" spans="1:8" hidden="1">
+    <row r="986" spans="1:8">
       <c r="A986">
         <v>2201985</v>
       </c>
@@ -34811,7 +34810,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="988" spans="1:8" hidden="1">
+    <row r="988" spans="1:8">
       <c r="A988">
         <v>2201987</v>
       </c>
@@ -34838,7 +34837,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="989" spans="1:8" hidden="1">
+    <row r="989" spans="1:8">
       <c r="A989">
         <v>2201988</v>
       </c>
@@ -34865,7 +34864,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="990" spans="1:8" hidden="1">
+    <row r="990" spans="1:8">
       <c r="A990">
         <v>2201989</v>
       </c>
@@ -34892,7 +34891,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="991" spans="1:8" hidden="1">
+    <row r="991" spans="1:8">
       <c r="A991">
         <v>2201991</v>
       </c>
@@ -34919,7 +34918,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="992" spans="1:8" hidden="1">
+    <row r="992" spans="1:8">
       <c r="A992">
         <v>2201992</v>
       </c>
@@ -34946,7 +34945,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="993" spans="1:8" hidden="1">
+    <row r="993" spans="1:8">
       <c r="A993">
         <v>2201993</v>
       </c>
@@ -34973,7 +34972,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="994" spans="1:8" hidden="1">
+    <row r="994" spans="1:8">
       <c r="A994">
         <v>2201994</v>
       </c>
@@ -35000,7 +34999,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="995" spans="1:8" hidden="1">
+    <row r="995" spans="1:8">
       <c r="A995">
         <v>2201995</v>
       </c>
@@ -35027,7 +35026,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="996" spans="1:8" hidden="1">
+    <row r="996" spans="1:8">
       <c r="A996">
         <v>2201996</v>
       </c>
@@ -35054,7 +35053,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="997" spans="1:8" hidden="1">
+    <row r="997" spans="1:8">
       <c r="A997">
         <v>2201997</v>
       </c>
@@ -35081,7 +35080,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="998" spans="1:8" hidden="1">
+    <row r="998" spans="1:8">
       <c r="A998">
         <v>2201998</v>
       </c>
@@ -35108,7 +35107,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="999" spans="1:8" hidden="1">
+    <row r="999" spans="1:8">
       <c r="A999">
         <v>2202000</v>
       </c>
@@ -35135,7 +35134,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1000" spans="1:8" hidden="1">
+    <row r="1000" spans="1:8">
       <c r="A1000">
         <v>2202001</v>
       </c>
@@ -35162,7 +35161,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1001" spans="1:8" hidden="1">
+    <row r="1001" spans="1:8">
       <c r="A1001">
         <v>2202002</v>
       </c>
@@ -35189,7 +35188,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1002" spans="1:8" hidden="1">
+    <row r="1002" spans="1:8">
       <c r="A1002">
         <v>2202003</v>
       </c>
@@ -35216,7 +35215,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1003" spans="1:8" hidden="1">
+    <row r="1003" spans="1:8">
       <c r="A1003">
         <v>2202004</v>
       </c>
@@ -35243,7 +35242,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1004" spans="1:8" hidden="1">
+    <row r="1004" spans="1:8">
       <c r="A1004">
         <v>2202005</v>
       </c>
@@ -35297,7 +35296,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1006" spans="1:8" hidden="1">
+    <row r="1006" spans="1:8">
       <c r="A1006">
         <v>2202007</v>
       </c>
@@ -35324,7 +35323,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1007" spans="1:8" hidden="1">
+    <row r="1007" spans="1:8">
       <c r="A1007">
         <v>2202008</v>
       </c>
@@ -35351,7 +35350,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1008" spans="1:8" hidden="1">
+    <row r="1008" spans="1:8">
       <c r="A1008">
         <v>2202009</v>
       </c>
@@ -35378,7 +35377,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1009" spans="1:8" hidden="1">
+    <row r="1009" spans="1:8">
       <c r="A1009">
         <v>2202010</v>
       </c>
@@ -35405,7 +35404,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1010" spans="1:8" hidden="1">
+    <row r="1010" spans="1:8">
       <c r="A1010">
         <v>2202013</v>
       </c>
@@ -35432,7 +35431,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1011" spans="1:8" hidden="1">
+    <row r="1011" spans="1:8">
       <c r="A1011">
         <v>2202014</v>
       </c>
@@ -35459,7 +35458,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1012" spans="1:8" hidden="1">
+    <row r="1012" spans="1:8">
       <c r="A1012">
         <v>2202016</v>
       </c>
@@ -35486,7 +35485,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1013" spans="1:8" hidden="1">
+    <row r="1013" spans="1:8">
       <c r="A1013">
         <v>2202019</v>
       </c>
@@ -35513,7 +35512,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1014" spans="1:8" hidden="1">
+    <row r="1014" spans="1:8">
       <c r="A1014">
         <v>2202020</v>
       </c>
@@ -35540,7 +35539,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1015" spans="1:8" hidden="1">
+    <row r="1015" spans="1:8">
       <c r="A1015">
         <v>2202021</v>
       </c>
@@ -35567,7 +35566,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1016" spans="1:8" hidden="1">
+    <row r="1016" spans="1:8">
       <c r="A1016">
         <v>2202022</v>
       </c>
@@ -35594,7 +35593,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1017" spans="1:8" hidden="1">
+    <row r="1017" spans="1:8">
       <c r="A1017">
         <v>2202023</v>
       </c>
@@ -35621,7 +35620,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1018" spans="1:8" hidden="1">
+    <row r="1018" spans="1:8">
       <c r="A1018">
         <v>2202024</v>
       </c>
@@ -35648,7 +35647,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1019" spans="1:8" hidden="1">
+    <row r="1019" spans="1:8">
       <c r="A1019">
         <v>2202025</v>
       </c>
@@ -35675,7 +35674,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1020" spans="1:8" hidden="1">
+    <row r="1020" spans="1:8">
       <c r="A1020">
         <v>2202026</v>
       </c>
@@ -35702,7 +35701,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1021" spans="1:8" hidden="1">
+    <row r="1021" spans="1:8">
       <c r="A1021">
         <v>2202027</v>
       </c>
@@ -35729,7 +35728,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1022" spans="1:8" hidden="1">
+    <row r="1022" spans="1:8">
       <c r="A1022">
         <v>2202028</v>
       </c>
@@ -35756,7 +35755,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1023" spans="1:8" hidden="1">
+    <row r="1023" spans="1:8">
       <c r="A1023">
         <v>2202029</v>
       </c>
@@ -35783,7 +35782,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1024" spans="1:8" hidden="1">
+    <row r="1024" spans="1:8">
       <c r="A1024">
         <v>2202030</v>
       </c>
@@ -35810,7 +35809,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1025" spans="1:8" hidden="1">
+    <row r="1025" spans="1:8">
       <c r="A1025">
         <v>2202031</v>
       </c>
@@ -35837,7 +35836,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1026" spans="1:8" hidden="1">
+    <row r="1026" spans="1:8">
       <c r="A1026">
         <v>2202032</v>
       </c>
@@ -35864,7 +35863,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1027" spans="1:8" hidden="1">
+    <row r="1027" spans="1:8">
       <c r="A1027">
         <v>2202033</v>
       </c>
@@ -35891,7 +35890,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1028" spans="1:8" hidden="1">
+    <row r="1028" spans="1:8">
       <c r="A1028">
         <v>2202034</v>
       </c>
@@ -35918,7 +35917,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1029" spans="1:8" hidden="1">
+    <row r="1029" spans="1:8">
       <c r="A1029">
         <v>2202035</v>
       </c>
@@ -35945,7 +35944,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1030" spans="1:8" hidden="1">
+    <row r="1030" spans="1:8">
       <c r="A1030">
         <v>2202038</v>
       </c>
@@ -35972,7 +35971,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1031" spans="1:8" hidden="1">
+    <row r="1031" spans="1:8">
       <c r="A1031">
         <v>2202039</v>
       </c>
@@ -35999,7 +35998,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1032" spans="1:8" hidden="1">
+    <row r="1032" spans="1:8">
       <c r="A1032">
         <v>2202040</v>
       </c>
@@ -36026,7 +36025,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1033" spans="1:8" hidden="1">
+    <row r="1033" spans="1:8">
       <c r="A1033">
         <v>2202041</v>
       </c>
@@ -36053,7 +36052,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1034" spans="1:8" hidden="1">
+    <row r="1034" spans="1:8">
       <c r="A1034">
         <v>2202042</v>
       </c>
@@ -36080,7 +36079,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1035" spans="1:8" hidden="1">
+    <row r="1035" spans="1:8">
       <c r="A1035">
         <v>2202043</v>
       </c>
@@ -36107,7 +36106,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1036" spans="1:8" hidden="1">
+    <row r="1036" spans="1:8">
       <c r="A1036">
         <v>2202044</v>
       </c>
@@ -36134,7 +36133,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1037" spans="1:8" hidden="1">
+    <row r="1037" spans="1:8">
       <c r="A1037">
         <v>2202045</v>
       </c>
@@ -36161,7 +36160,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1038" spans="1:8" hidden="1">
+    <row r="1038" spans="1:8">
       <c r="A1038">
         <v>2202046</v>
       </c>
@@ -36188,7 +36187,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1039" spans="1:8" hidden="1">
+    <row r="1039" spans="1:8">
       <c r="A1039">
         <v>2202047</v>
       </c>
@@ -36215,7 +36214,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1040" spans="1:8" hidden="1">
+    <row r="1040" spans="1:8">
       <c r="A1040">
         <v>2202048</v>
       </c>
@@ -36242,7 +36241,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1041" spans="1:8" hidden="1">
+    <row r="1041" spans="1:8">
       <c r="A1041">
         <v>2202049</v>
       </c>
@@ -36269,7 +36268,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1042" spans="1:8" hidden="1">
+    <row r="1042" spans="1:8">
       <c r="A1042">
         <v>2202050</v>
       </c>
@@ -36296,7 +36295,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1043" spans="1:8" hidden="1">
+    <row r="1043" spans="1:8">
       <c r="A1043">
         <v>2202051</v>
       </c>
@@ -36323,7 +36322,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1044" spans="1:8" hidden="1">
+    <row r="1044" spans="1:8">
       <c r="A1044">
         <v>2202052</v>
       </c>
@@ -36350,7 +36349,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1045" spans="1:8" hidden="1">
+    <row r="1045" spans="1:8">
       <c r="A1045">
         <v>2202053</v>
       </c>
@@ -36377,7 +36376,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1046" spans="1:8" hidden="1">
+    <row r="1046" spans="1:8">
       <c r="A1046">
         <v>2202054</v>
       </c>
@@ -36404,7 +36403,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1047" spans="1:8" hidden="1">
+    <row r="1047" spans="1:8">
       <c r="A1047">
         <v>2202055</v>
       </c>
@@ -36431,7 +36430,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1048" spans="1:8" hidden="1">
+    <row r="1048" spans="1:8">
       <c r="A1048">
         <v>2202056</v>
       </c>
@@ -36458,7 +36457,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1049" spans="1:8" hidden="1">
+    <row r="1049" spans="1:8">
       <c r="A1049">
         <v>2202057</v>
       </c>
@@ -36485,7 +36484,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1050" spans="1:8" hidden="1">
+    <row r="1050" spans="1:8">
       <c r="A1050">
         <v>2202058</v>
       </c>
@@ -36512,7 +36511,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1051" spans="1:8" hidden="1">
+    <row r="1051" spans="1:8">
       <c r="A1051">
         <v>2202059</v>
       </c>
@@ -36539,7 +36538,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1052" spans="1:8" hidden="1">
+    <row r="1052" spans="1:8">
       <c r="A1052">
         <v>2202060</v>
       </c>
@@ -36566,7 +36565,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1053" spans="1:8" ht="105" hidden="1">
+    <row r="1053" spans="1:8" ht="105">
       <c r="A1053">
         <v>2202061</v>
       </c>
@@ -36593,7 +36592,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1054" spans="1:8" hidden="1">
+    <row r="1054" spans="1:8">
       <c r="A1054">
         <v>2202062</v>
       </c>
@@ -36620,7 +36619,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1055" spans="1:8" hidden="1">
+    <row r="1055" spans="1:8">
       <c r="A1055">
         <v>2202063</v>
       </c>
@@ -36647,7 +36646,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1056" spans="1:8" hidden="1">
+    <row r="1056" spans="1:8">
       <c r="A1056">
         <v>2202065</v>
       </c>
@@ -36674,7 +36673,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1057" spans="1:8" hidden="1">
+    <row r="1057" spans="1:8">
       <c r="A1057">
         <v>2202066</v>
       </c>
@@ -36701,7 +36700,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1058" spans="1:8" hidden="1">
+    <row r="1058" spans="1:8">
       <c r="A1058">
         <v>2202069</v>
       </c>
@@ -36728,7 +36727,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1059" spans="1:8" hidden="1">
+    <row r="1059" spans="1:8">
       <c r="A1059">
         <v>2202070</v>
       </c>
@@ -36755,7 +36754,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1060" spans="1:8" hidden="1">
+    <row r="1060" spans="1:8">
       <c r="A1060">
         <v>2202071</v>
       </c>
@@ -36782,7 +36781,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1061" spans="1:8" hidden="1">
+    <row r="1061" spans="1:8">
       <c r="A1061">
         <v>2202072</v>
       </c>
@@ -36809,7 +36808,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1062" spans="1:8" hidden="1">
+    <row r="1062" spans="1:8">
       <c r="A1062">
         <v>2202073</v>
       </c>
@@ -36836,7 +36835,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1063" spans="1:8" hidden="1">
+    <row r="1063" spans="1:8">
       <c r="A1063">
         <v>2202074</v>
       </c>
@@ -36863,7 +36862,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1064" spans="1:8" hidden="1">
+    <row r="1064" spans="1:8">
       <c r="A1064">
         <v>2202075</v>
       </c>
@@ -36890,7 +36889,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1065" spans="1:8" hidden="1">
+    <row r="1065" spans="1:8">
       <c r="A1065">
         <v>2202076</v>
       </c>
@@ -36917,7 +36916,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1066" spans="1:8" hidden="1">
+    <row r="1066" spans="1:8">
       <c r="A1066">
         <v>2202077</v>
       </c>
@@ -36944,7 +36943,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1067" spans="1:8" hidden="1">
+    <row r="1067" spans="1:8">
       <c r="A1067">
         <v>2202078</v>
       </c>
@@ -36971,7 +36970,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1068" spans="1:8" hidden="1">
+    <row r="1068" spans="1:8">
       <c r="A1068">
         <v>2202083</v>
       </c>
@@ -36998,7 +36997,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1069" spans="1:8" hidden="1">
+    <row r="1069" spans="1:8">
       <c r="A1069">
         <v>2202084</v>
       </c>
@@ -37025,7 +37024,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1070" spans="1:8" hidden="1">
+    <row r="1070" spans="1:8">
       <c r="A1070">
         <v>2202085</v>
       </c>
@@ -37052,7 +37051,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1071" spans="1:8" hidden="1">
+    <row r="1071" spans="1:8">
       <c r="A1071">
         <v>2202092</v>
       </c>
@@ -37079,7 +37078,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1072" spans="1:8" hidden="1">
+    <row r="1072" spans="1:8">
       <c r="A1072">
         <v>2202102</v>
       </c>
@@ -37106,7 +37105,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1073" spans="1:8" hidden="1">
+    <row r="1073" spans="1:8">
       <c r="A1073">
         <v>2202103</v>
       </c>
@@ -37133,7 +37132,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1074" spans="1:8" hidden="1">
+    <row r="1074" spans="1:8">
       <c r="A1074">
         <v>2202106</v>
       </c>
@@ -37160,7 +37159,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1075" spans="1:8" hidden="1">
+    <row r="1075" spans="1:8">
       <c r="A1075">
         <v>2202107</v>
       </c>
@@ -37187,7 +37186,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1076" spans="1:8" hidden="1">
+    <row r="1076" spans="1:8">
       <c r="A1076">
         <v>2202108</v>
       </c>
@@ -37214,7 +37213,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1077" spans="1:8" hidden="1">
+    <row r="1077" spans="1:8">
       <c r="A1077">
         <v>2202112</v>
       </c>
@@ -37241,7 +37240,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1078" spans="1:8" hidden="1">
+    <row r="1078" spans="1:8">
       <c r="A1078">
         <v>2202116</v>
       </c>
@@ -37268,7 +37267,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1079" spans="1:8" hidden="1">
+    <row r="1079" spans="1:8">
       <c r="A1079">
         <v>2202117</v>
       </c>
@@ -37295,7 +37294,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1080" spans="1:8" hidden="1">
+    <row r="1080" spans="1:8">
       <c r="A1080">
         <v>2202118</v>
       </c>
@@ -37322,7 +37321,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1081" spans="1:8" hidden="1">
+    <row r="1081" spans="1:8">
       <c r="A1081">
         <v>2202119</v>
       </c>
@@ -37349,7 +37348,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1082" spans="1:8" hidden="1">
+    <row r="1082" spans="1:8">
       <c r="A1082">
         <v>2202120</v>
       </c>
@@ -37376,7 +37375,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1083" spans="1:8" hidden="1">
+    <row r="1083" spans="1:8">
       <c r="A1083">
         <v>2202121</v>
       </c>
@@ -37403,7 +37402,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1084" spans="1:8" hidden="1">
+    <row r="1084" spans="1:8">
       <c r="A1084">
         <v>2202127</v>
       </c>
@@ -37430,7 +37429,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1085" spans="1:8" hidden="1">
+    <row r="1085" spans="1:8">
       <c r="A1085">
         <v>2202129</v>
       </c>
@@ -37457,7 +37456,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1086" spans="1:8" hidden="1">
+    <row r="1086" spans="1:8">
       <c r="A1086">
         <v>2202130</v>
       </c>
@@ -37484,7 +37483,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1087" spans="1:8" hidden="1">
+    <row r="1087" spans="1:8">
       <c r="A1087">
         <v>2202131</v>
       </c>
@@ -37511,7 +37510,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1088" spans="1:8" hidden="1">
+    <row r="1088" spans="1:8">
       <c r="A1088">
         <v>2202139</v>
       </c>
@@ -37535,7 +37534,7 @@
         <v/>
       </c>
     </row>
-    <row r="1089" spans="1:8" hidden="1">
+    <row r="1089" spans="1:8">
       <c r="A1089">
         <v>2202141</v>
       </c>
@@ -37559,7 +37558,7 @@
         <v/>
       </c>
     </row>
-    <row r="1090" spans="1:8" hidden="1">
+    <row r="1090" spans="1:8">
       <c r="A1090">
         <v>2202143</v>
       </c>
@@ -37583,7 +37582,7 @@
         <v/>
       </c>
     </row>
-    <row r="1091" spans="1:8" hidden="1">
+    <row r="1091" spans="1:8">
       <c r="A1091">
         <v>2202144</v>
       </c>
@@ -37607,7 +37606,7 @@
         <v/>
       </c>
     </row>
-    <row r="1092" spans="1:8" hidden="1">
+    <row r="1092" spans="1:8">
       <c r="A1092">
         <v>2202148</v>
       </c>
@@ -37631,7 +37630,7 @@
         <v/>
       </c>
     </row>
-    <row r="1093" spans="1:8" hidden="1">
+    <row r="1093" spans="1:8">
       <c r="A1093">
         <v>2202149</v>
       </c>
@@ -37655,7 +37654,7 @@
         <v/>
       </c>
     </row>
-    <row r="1094" spans="1:8" hidden="1">
+    <row r="1094" spans="1:8">
       <c r="A1094">
         <v>2202157</v>
       </c>
@@ -37679,7 +37678,7 @@
         <v/>
       </c>
     </row>
-    <row r="1095" spans="1:8" hidden="1">
+    <row r="1095" spans="1:8">
       <c r="A1095">
         <v>2202158</v>
       </c>
@@ -37727,7 +37726,7 @@
         <v/>
       </c>
     </row>
-    <row r="1097" spans="1:8" hidden="1">
+    <row r="1097" spans="1:8">
       <c r="A1097">
         <v>2202160</v>
       </c>
@@ -37751,7 +37750,7 @@
         <v/>
       </c>
     </row>
-    <row r="1098" spans="1:8" hidden="1">
+    <row r="1098" spans="1:8">
       <c r="A1098">
         <v>2202172</v>
       </c>
@@ -37775,7 +37774,7 @@
         <v/>
       </c>
     </row>
-    <row r="1099" spans="1:8" hidden="1">
+    <row r="1099" spans="1:8">
       <c r="A1099">
         <v>2202189</v>
       </c>
@@ -37799,7 +37798,7 @@
         <v/>
       </c>
     </row>
-    <row r="1100" spans="1:8" hidden="1">
+    <row r="1100" spans="1:8">
       <c r="A1100">
         <v>2202190</v>
       </c>
@@ -37826,7 +37825,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1101" spans="1:8" hidden="1">
+    <row r="1101" spans="1:8">
       <c r="A1101">
         <v>2202191</v>
       </c>
@@ -37853,7 +37852,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1102" spans="1:8" hidden="1">
+    <row r="1102" spans="1:8">
       <c r="A1102">
         <v>2202194</v>
       </c>
@@ -37880,7 +37879,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1103" spans="1:8" hidden="1">
+    <row r="1103" spans="1:8">
       <c r="A1103">
         <v>2202195</v>
       </c>
@@ -37907,7 +37906,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1104" spans="1:8" hidden="1">
+    <row r="1104" spans="1:8">
       <c r="A1104">
         <v>2202196</v>
       </c>
@@ -37934,7 +37933,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1105" spans="1:8" hidden="1">
+    <row r="1105" spans="1:8">
       <c r="A1105">
         <v>2202197</v>
       </c>
@@ -37961,7 +37960,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1106" spans="1:8" hidden="1">
+    <row r="1106" spans="1:8">
       <c r="A1106">
         <v>2202198</v>
       </c>
@@ -37988,7 +37987,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1107" spans="1:8" hidden="1">
+    <row r="1107" spans="1:8">
       <c r="A1107">
         <v>2202200</v>
       </c>
@@ -38015,7 +38014,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1108" spans="1:8" hidden="1">
+    <row r="1108" spans="1:8">
       <c r="A1108">
         <v>2202201</v>
       </c>
@@ -38042,7 +38041,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1109" spans="1:8" hidden="1">
+    <row r="1109" spans="1:8">
       <c r="A1109">
         <v>2202202</v>
       </c>
@@ -38093,7 +38092,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1111" spans="1:8" hidden="1">
+    <row r="1111" spans="1:8">
       <c r="A1111">
         <v>2202205</v>
       </c>
@@ -38120,7 +38119,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1112" spans="1:8" hidden="1">
+    <row r="1112" spans="1:8">
       <c r="A1112">
         <v>2202206</v>
       </c>
@@ -38147,7 +38146,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1113" spans="1:8" hidden="1">
+    <row r="1113" spans="1:8">
       <c r="A1113">
         <v>2202207</v>
       </c>
@@ -38174,7 +38173,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1114" spans="1:8" hidden="1">
+    <row r="1114" spans="1:8">
       <c r="A1114">
         <v>2202209</v>
       </c>
@@ -38201,7 +38200,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1115" spans="1:8" hidden="1">
+    <row r="1115" spans="1:8">
       <c r="A1115">
         <v>2202213</v>
       </c>
@@ -38228,7 +38227,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1116" spans="1:8" hidden="1">
+    <row r="1116" spans="1:8">
       <c r="A1116">
         <v>2202214</v>
       </c>
@@ -38255,7 +38254,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1117" spans="1:8" hidden="1">
+    <row r="1117" spans="1:8">
       <c r="A1117">
         <v>2202215</v>
       </c>
@@ -38282,7 +38281,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1118" spans="1:8" hidden="1">
+    <row r="1118" spans="1:8">
       <c r="A1118">
         <v>2202216</v>
       </c>
@@ -38309,7 +38308,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1119" spans="1:8" hidden="1">
+    <row r="1119" spans="1:8">
       <c r="A1119">
         <v>2202217</v>
       </c>
@@ -38336,7 +38335,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1120" spans="1:8" hidden="1">
+    <row r="1120" spans="1:8">
       <c r="A1120">
         <v>2202218</v>
       </c>
@@ -38363,7 +38362,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1121" spans="1:8" hidden="1">
+    <row r="1121" spans="1:8">
       <c r="A1121">
         <v>2202219</v>
       </c>
@@ -38390,7 +38389,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1122" spans="1:8" hidden="1">
+    <row r="1122" spans="1:8">
       <c r="A1122">
         <v>2202220</v>
       </c>
@@ -38417,7 +38416,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1123" spans="1:8" hidden="1">
+    <row r="1123" spans="1:8">
       <c r="A1123">
         <v>2202221</v>
       </c>
@@ -38444,7 +38443,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1124" spans="1:8" hidden="1">
+    <row r="1124" spans="1:8">
       <c r="A1124">
         <v>2202223</v>
       </c>
@@ -38471,7 +38470,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1125" spans="1:8" hidden="1">
+    <row r="1125" spans="1:8">
       <c r="A1125">
         <v>2202226</v>
       </c>
@@ -38498,7 +38497,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1126" spans="1:8" hidden="1">
+    <row r="1126" spans="1:8">
       <c r="A1126">
         <v>2202227</v>
       </c>
@@ -38525,7 +38524,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1127" spans="1:8" hidden="1">
+    <row r="1127" spans="1:8">
       <c r="A1127">
         <v>2202228</v>
       </c>
@@ -38552,7 +38551,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1128" spans="1:8" hidden="1">
+    <row r="1128" spans="1:8">
       <c r="A1128">
         <v>2202229</v>
       </c>
@@ -38579,7 +38578,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1129" spans="1:8" hidden="1">
+    <row r="1129" spans="1:8">
       <c r="A1129">
         <v>2202230</v>
       </c>
@@ -38606,7 +38605,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1130" spans="1:8" hidden="1">
+    <row r="1130" spans="1:8">
       <c r="A1130">
         <v>2202231</v>
       </c>
@@ -38633,7 +38632,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1131" spans="1:8" hidden="1">
+    <row r="1131" spans="1:8">
       <c r="A1131">
         <v>2202232</v>
       </c>
@@ -38660,7 +38659,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1132" spans="1:8" hidden="1">
+    <row r="1132" spans="1:8">
       <c r="A1132">
         <v>2202233</v>
       </c>
@@ -38687,7 +38686,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1133" spans="1:8" hidden="1">
+    <row r="1133" spans="1:8">
       <c r="A1133">
         <v>2202236</v>
       </c>
@@ -38714,7 +38713,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1134" spans="1:8" hidden="1">
+    <row r="1134" spans="1:8">
       <c r="A1134">
         <v>2202237</v>
       </c>
@@ -38741,7 +38740,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1135" spans="1:8" hidden="1">
+    <row r="1135" spans="1:8">
       <c r="A1135">
         <v>2202239</v>
       </c>
@@ -38768,7 +38767,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1136" spans="1:8" hidden="1">
+    <row r="1136" spans="1:8">
       <c r="A1136">
         <v>2202240</v>
       </c>
@@ -38795,7 +38794,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1137" spans="1:8" hidden="1">
+    <row r="1137" spans="1:8">
       <c r="A1137">
         <v>2202241</v>
       </c>
@@ -38822,7 +38821,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1138" spans="1:8" hidden="1">
+    <row r="1138" spans="1:8">
       <c r="A1138">
         <v>2202242</v>
       </c>
@@ -38849,7 +38848,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1139" spans="1:8" hidden="1">
+    <row r="1139" spans="1:8">
       <c r="A1139">
         <v>2202243</v>
       </c>
@@ -38876,7 +38875,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1140" spans="1:8" hidden="1">
+    <row r="1140" spans="1:8">
       <c r="A1140">
         <v>2202244</v>
       </c>
@@ -38903,7 +38902,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1141" spans="1:8" hidden="1">
+    <row r="1141" spans="1:8">
       <c r="A1141">
         <v>2202245</v>
       </c>
@@ -38930,7 +38929,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1142" spans="1:8" hidden="1">
+    <row r="1142" spans="1:8">
       <c r="A1142">
         <v>2202246</v>
       </c>
@@ -38957,7 +38956,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1143" spans="1:8" hidden="1">
+    <row r="1143" spans="1:8">
       <c r="A1143">
         <v>2202247</v>
       </c>
@@ -38984,7 +38983,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1144" spans="1:8" hidden="1">
+    <row r="1144" spans="1:8">
       <c r="A1144">
         <v>2202248</v>
       </c>
@@ -39011,7 +39010,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1145" spans="1:8" hidden="1">
+    <row r="1145" spans="1:8">
       <c r="A1145">
         <v>2202251</v>
       </c>
@@ -39038,7 +39037,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1146" spans="1:8" hidden="1">
+    <row r="1146" spans="1:8">
       <c r="A1146">
         <v>2202252</v>
       </c>
@@ -39065,7 +39064,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1147" spans="1:8" hidden="1">
+    <row r="1147" spans="1:8">
       <c r="A1147">
         <v>2202253</v>
       </c>
@@ -39092,7 +39091,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1148" spans="1:8" hidden="1">
+    <row r="1148" spans="1:8">
       <c r="A1148">
         <v>2202254</v>
       </c>
@@ -39119,7 +39118,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1149" spans="1:8" hidden="1">
+    <row r="1149" spans="1:8">
       <c r="A1149">
         <v>2202255</v>
       </c>
@@ -39146,7 +39145,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1150" spans="1:8" hidden="1">
+    <row r="1150" spans="1:8">
       <c r="A1150">
         <v>2202256</v>
       </c>
@@ -39173,7 +39172,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1151" spans="1:8" hidden="1">
+    <row r="1151" spans="1:8">
       <c r="A1151">
         <v>2202257</v>
       </c>
@@ -39200,7 +39199,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1152" spans="1:8" hidden="1">
+    <row r="1152" spans="1:8">
       <c r="A1152">
         <v>2202258</v>
       </c>
@@ -39227,7 +39226,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1153" spans="1:8" hidden="1">
+    <row r="1153" spans="1:8">
       <c r="A1153">
         <v>2202260</v>
       </c>
@@ -39254,7 +39253,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1154" spans="1:8" hidden="1">
+    <row r="1154" spans="1:8">
       <c r="A1154">
         <v>2202261</v>
       </c>
@@ -39281,7 +39280,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1155" spans="1:8" hidden="1">
+    <row r="1155" spans="1:8">
       <c r="A1155">
         <v>2202262</v>
       </c>
@@ -39308,7 +39307,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1156" spans="1:8" hidden="1">
+    <row r="1156" spans="1:8">
       <c r="A1156">
         <v>2202263</v>
       </c>
@@ -39335,7 +39334,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1157" spans="1:8" hidden="1">
+    <row r="1157" spans="1:8">
       <c r="A1157">
         <v>2202265</v>
       </c>
@@ -39362,7 +39361,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1158" spans="1:8" hidden="1">
+    <row r="1158" spans="1:8">
       <c r="A1158">
         <v>2202266</v>
       </c>
@@ -39389,7 +39388,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1159" spans="1:8" hidden="1">
+    <row r="1159" spans="1:8">
       <c r="A1159">
         <v>2202268</v>
       </c>
@@ -39416,7 +39415,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1160" spans="1:8" hidden="1">
+    <row r="1160" spans="1:8">
       <c r="A1160">
         <v>2202269</v>
       </c>
@@ -39443,7 +39442,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1161" spans="1:8" hidden="1">
+    <row r="1161" spans="1:8">
       <c r="A1161">
         <v>2202270</v>
       </c>
@@ -39470,7 +39469,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1162" spans="1:8" hidden="1">
+    <row r="1162" spans="1:8">
       <c r="A1162">
         <v>2202272</v>
       </c>
@@ -39497,7 +39496,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1163" spans="1:8" hidden="1">
+    <row r="1163" spans="1:8">
       <c r="A1163">
         <v>2202273</v>
       </c>
@@ -39524,7 +39523,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1164" spans="1:8" hidden="1">
+    <row r="1164" spans="1:8">
       <c r="A1164">
         <v>2202274</v>
       </c>
@@ -39548,7 +39547,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1165" spans="1:8" hidden="1">
+    <row r="1165" spans="1:8">
       <c r="A1165">
         <v>2202275</v>
       </c>
@@ -39575,7 +39574,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1166" spans="1:8" hidden="1">
+    <row r="1166" spans="1:8">
       <c r="A1166">
         <v>2202276</v>
       </c>
@@ -39602,7 +39601,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1167" spans="1:8" hidden="1">
+    <row r="1167" spans="1:8">
       <c r="A1167">
         <v>2202277</v>
       </c>
@@ -39629,7 +39628,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1168" spans="1:8" hidden="1">
+    <row r="1168" spans="1:8">
       <c r="A1168">
         <v>2202278</v>
       </c>
@@ -39656,7 +39655,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1169" spans="1:8" hidden="1">
+    <row r="1169" spans="1:8">
       <c r="A1169">
         <v>2202279</v>
       </c>
@@ -39683,7 +39682,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1170" spans="1:8" hidden="1">
+    <row r="1170" spans="1:8">
       <c r="A1170">
         <v>2202282</v>
       </c>
@@ -39710,7 +39709,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1171" spans="1:8" hidden="1">
+    <row r="1171" spans="1:8">
       <c r="A1171">
         <v>2202283</v>
       </c>
@@ -39737,7 +39736,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1172" spans="1:8" hidden="1">
+    <row r="1172" spans="1:8">
       <c r="A1172">
         <v>2202286</v>
       </c>
@@ -39764,7 +39763,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1173" spans="1:8" hidden="1">
+    <row r="1173" spans="1:8">
       <c r="A1173">
         <v>2202291</v>
       </c>
@@ -39791,7 +39790,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1174" spans="1:8" hidden="1">
+    <row r="1174" spans="1:8">
       <c r="A1174">
         <v>2202292</v>
       </c>
@@ -39818,7 +39817,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1175" spans="1:8" hidden="1">
+    <row r="1175" spans="1:8">
       <c r="A1175">
         <v>2202293</v>
       </c>
@@ -39845,7 +39844,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1176" spans="1:8" hidden="1">
+    <row r="1176" spans="1:8">
       <c r="A1176">
         <v>2202294</v>
       </c>
@@ -39872,7 +39871,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1177" spans="1:8" hidden="1">
+    <row r="1177" spans="1:8">
       <c r="A1177">
         <v>2202295</v>
       </c>
@@ -39899,7 +39898,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1178" spans="1:8" hidden="1">
+    <row r="1178" spans="1:8">
       <c r="A1178">
         <v>2202296</v>
       </c>
@@ -39926,7 +39925,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1179" spans="1:8" hidden="1">
+    <row r="1179" spans="1:8">
       <c r="A1179">
         <v>2202297</v>
       </c>
@@ -39953,7 +39952,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1180" spans="1:8" hidden="1">
+    <row r="1180" spans="1:8">
       <c r="A1180">
         <v>2202299</v>
       </c>
@@ -39980,7 +39979,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1181" spans="1:8" hidden="1">
+    <row r="1181" spans="1:8">
       <c r="A1181">
         <v>2202301</v>
       </c>
@@ -40007,7 +40006,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1182" spans="1:8" hidden="1">
+    <row r="1182" spans="1:8">
       <c r="A1182">
         <v>2202302</v>
       </c>
@@ -40034,7 +40033,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1183" spans="1:8" hidden="1">
+    <row r="1183" spans="1:8">
       <c r="A1183">
         <v>2202303</v>
       </c>
@@ -40061,7 +40060,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1184" spans="1:8" hidden="1">
+    <row r="1184" spans="1:8">
       <c r="A1184">
         <v>2202305</v>
       </c>
@@ -40088,7 +40087,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1185" spans="1:8" hidden="1">
+    <row r="1185" spans="1:8">
       <c r="A1185">
         <v>2202306</v>
       </c>
@@ -40115,7 +40114,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1186" spans="1:8" hidden="1">
+    <row r="1186" spans="1:8">
       <c r="A1186">
         <v>2202307</v>
       </c>
@@ -40142,7 +40141,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1187" spans="1:8" hidden="1">
+    <row r="1187" spans="1:8">
       <c r="A1187">
         <v>2202308</v>
       </c>
@@ -40169,7 +40168,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1188" spans="1:8" hidden="1">
+    <row r="1188" spans="1:8">
       <c r="A1188">
         <v>2202309</v>
       </c>
@@ -40196,7 +40195,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1189" spans="1:8" hidden="1">
+    <row r="1189" spans="1:8">
       <c r="A1189">
         <v>2202311</v>
       </c>
@@ -40223,7 +40222,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1190" spans="1:8" hidden="1">
+    <row r="1190" spans="1:8">
       <c r="A1190">
         <v>2202312</v>
       </c>
@@ -40250,7 +40249,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1191" spans="1:8" hidden="1">
+    <row r="1191" spans="1:8">
       <c r="A1191">
         <v>2202313</v>
       </c>
@@ -40277,7 +40276,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1192" spans="1:8" hidden="1">
+    <row r="1192" spans="1:8">
       <c r="A1192">
         <v>2202314</v>
       </c>
@@ -40304,7 +40303,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1193" spans="1:8" hidden="1">
+    <row r="1193" spans="1:8">
       <c r="A1193">
         <v>2202315</v>
       </c>
@@ -40331,7 +40330,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1194" spans="1:8" hidden="1">
+    <row r="1194" spans="1:8">
       <c r="A1194">
         <v>2202316</v>
       </c>
@@ -40355,7 +40354,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1195" spans="1:8" hidden="1">
+    <row r="1195" spans="1:8">
       <c r="A1195">
         <v>2202318</v>
       </c>
@@ -40382,7 +40381,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1196" spans="1:8" hidden="1">
+    <row r="1196" spans="1:8">
       <c r="A1196">
         <v>2202319</v>
       </c>
@@ -40409,7 +40408,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1197" spans="1:8" hidden="1">
+    <row r="1197" spans="1:8">
       <c r="A1197">
         <v>2202320</v>
       </c>
@@ -40436,7 +40435,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1198" spans="1:8" hidden="1">
+    <row r="1198" spans="1:8">
       <c r="A1198">
         <v>2202321</v>
       </c>
@@ -40463,7 +40462,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1199" spans="1:8" hidden="1">
+    <row r="1199" spans="1:8">
       <c r="A1199">
         <v>2202323</v>
       </c>
@@ -40487,7 +40486,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1200" spans="1:8" hidden="1">
+    <row r="1200" spans="1:8">
       <c r="A1200">
         <v>2202324</v>
       </c>
@@ -40514,7 +40513,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1201" spans="1:8" hidden="1">
+    <row r="1201" spans="1:8">
       <c r="A1201">
         <v>2202325</v>
       </c>
@@ -40541,7 +40540,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1202" spans="1:8" hidden="1">
+    <row r="1202" spans="1:8">
       <c r="A1202">
         <v>2202326</v>
       </c>
@@ -40568,7 +40567,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1203" spans="1:8" hidden="1">
+    <row r="1203" spans="1:8">
       <c r="A1203">
         <v>2202327</v>
       </c>
@@ -40595,7 +40594,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1204" spans="1:8" hidden="1">
+    <row r="1204" spans="1:8">
       <c r="A1204">
         <v>2202328</v>
       </c>
@@ -40622,7 +40621,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1205" spans="1:8" hidden="1">
+    <row r="1205" spans="1:8">
       <c r="A1205">
         <v>2202329</v>
       </c>
@@ -40649,7 +40648,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1206" spans="1:8" hidden="1">
+    <row r="1206" spans="1:8">
       <c r="A1206">
         <v>2202330</v>
       </c>
@@ -40676,7 +40675,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1207" spans="1:8" hidden="1">
+    <row r="1207" spans="1:8">
       <c r="A1207">
         <v>2202331</v>
       </c>
@@ -40703,7 +40702,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1208" spans="1:8" hidden="1">
+    <row r="1208" spans="1:8">
       <c r="A1208">
         <v>2202332</v>
       </c>
@@ -40730,7 +40729,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1209" spans="1:8" hidden="1">
+    <row r="1209" spans="1:8">
       <c r="A1209">
         <v>2202334</v>
       </c>
@@ -40757,7 +40756,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1210" spans="1:8" hidden="1">
+    <row r="1210" spans="1:8">
       <c r="A1210">
         <v>2202335</v>
       </c>
@@ -40784,7 +40783,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1211" spans="1:8" hidden="1">
+    <row r="1211" spans="1:8">
       <c r="A1211">
         <v>2202336</v>
       </c>
@@ -40811,7 +40810,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1212" spans="1:8" hidden="1">
+    <row r="1212" spans="1:8">
       <c r="A1212">
         <v>2202338</v>
       </c>
@@ -40838,7 +40837,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1213" spans="1:8" hidden="1">
+    <row r="1213" spans="1:8">
       <c r="A1213">
         <v>2202339</v>
       </c>
@@ -40865,7 +40864,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1214" spans="1:8" hidden="1">
+    <row r="1214" spans="1:8">
       <c r="A1214">
         <v>2202344</v>
       </c>
@@ -40892,7 +40891,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1215" spans="1:8" hidden="1">
+    <row r="1215" spans="1:8">
       <c r="A1215">
         <v>2202345</v>
       </c>
@@ -40919,7 +40918,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1216" spans="1:8" hidden="1">
+    <row r="1216" spans="1:8">
       <c r="A1216">
         <v>2202347</v>
       </c>
@@ -40946,7 +40945,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1217" spans="1:8" hidden="1">
+    <row r="1217" spans="1:8">
       <c r="A1217">
         <v>2202359</v>
       </c>
@@ -40970,7 +40969,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1218" spans="1:8" hidden="1">
+    <row r="1218" spans="1:8">
       <c r="A1218">
         <v>2202366</v>
       </c>
@@ -41024,7 +41023,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1220" spans="1:8" hidden="1">
+    <row r="1220" spans="1:8">
       <c r="A1220">
         <v>2202368</v>
       </c>
@@ -41051,7 +41050,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1221" spans="1:8" hidden="1">
+    <row r="1221" spans="1:8">
       <c r="A1221">
         <v>2202369</v>
       </c>
@@ -41078,7 +41077,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1222" spans="1:8" hidden="1">
+    <row r="1222" spans="1:8">
       <c r="A1222">
         <v>2202370</v>
       </c>
@@ -41105,7 +41104,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1223" spans="1:8" hidden="1">
+    <row r="1223" spans="1:8">
       <c r="A1223">
         <v>2202374</v>
       </c>
@@ -41132,7 +41131,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1224" spans="1:8" hidden="1">
+    <row r="1224" spans="1:8">
       <c r="A1224">
         <v>2202381</v>
       </c>
@@ -41159,7 +41158,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1225" spans="1:8" hidden="1">
+    <row r="1225" spans="1:8">
       <c r="A1225">
         <v>2202398</v>
       </c>
@@ -41183,7 +41182,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1226" spans="1:8" hidden="1">
+    <row r="1226" spans="1:8">
       <c r="A1226">
         <v>2202399</v>
       </c>
@@ -41207,7 +41206,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1227" spans="1:8" hidden="1">
+    <row r="1227" spans="1:8">
       <c r="A1227">
         <v>2202402</v>
       </c>
@@ -41231,7 +41230,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1228" spans="1:8" hidden="1">
+    <row r="1228" spans="1:8">
       <c r="A1228">
         <v>2202419</v>
       </c>
@@ -41255,7 +41254,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1229" spans="1:8" hidden="1">
+    <row r="1229" spans="1:8">
       <c r="A1229">
         <v>2202420</v>
       </c>
@@ -41279,7 +41278,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1230" spans="1:8" hidden="1">
+    <row r="1230" spans="1:8">
       <c r="A1230">
         <v>2202428</v>
       </c>
@@ -41306,7 +41305,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1231" spans="1:8" hidden="1">
+    <row r="1231" spans="1:8">
       <c r="A1231">
         <v>2202429</v>
       </c>
@@ -41333,7 +41332,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1232" spans="1:8" hidden="1">
+    <row r="1232" spans="1:8">
       <c r="A1232">
         <v>2202430</v>
       </c>
@@ -41384,7 +41383,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1234" spans="1:8" hidden="1">
+    <row r="1234" spans="1:8">
       <c r="A1234">
         <v>2202441</v>
       </c>
@@ -41744,7 +41743,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1249" spans="1:8" hidden="1">
+    <row r="1249" spans="1:8">
       <c r="A1249">
         <v>2202463</v>
       </c>
@@ -41888,7 +41887,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1255" spans="1:8" hidden="1">
+    <row r="1255" spans="1:8">
       <c r="A1255">
         <v>2202471</v>
       </c>
@@ -42128,7 +42127,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1265" spans="1:8" hidden="1">
+    <row r="1265" spans="1:8">
       <c r="A1265">
         <v>2202484</v>
       </c>
@@ -42227,7 +42226,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1269" spans="1:8" hidden="1">
+    <row r="1269" spans="1:8">
       <c r="A1269">
         <v>2202488</v>
       </c>
@@ -42302,7 +42301,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1272" spans="1:8" hidden="1">
+    <row r="1272" spans="1:8">
       <c r="A1272">
         <v>2202492</v>
       </c>
@@ -42329,7 +42328,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1273" spans="1:8" hidden="1">
+    <row r="1273" spans="1:8">
       <c r="A1273">
         <v>2202493</v>
       </c>
@@ -42404,7 +42403,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1276" spans="1:8" hidden="1">
+    <row r="1276" spans="1:8">
       <c r="A1276">
         <v>2202497</v>
       </c>
@@ -42716,7 +42715,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1289" spans="1:8" hidden="1">
+    <row r="1289" spans="1:8">
       <c r="A1289">
         <v>2202514</v>
       </c>
@@ -42770,7 +42769,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1291" spans="1:8" ht="90" hidden="1">
+    <row r="1291" spans="1:8" ht="90">
       <c r="A1291">
         <v>2202517</v>
       </c>
@@ -42917,7 +42916,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1297" spans="1:8" hidden="1">
+    <row r="1297" spans="1:8">
       <c r="A1297">
         <v>2202525</v>
       </c>
@@ -42944,7 +42943,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1298" spans="1:8" hidden="1">
+    <row r="1298" spans="1:8">
       <c r="A1298">
         <v>2202526</v>
       </c>
@@ -42995,7 +42994,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1300" spans="1:8" hidden="1">
+    <row r="1300" spans="1:8">
       <c r="A1300">
         <v>2202528</v>
       </c>
@@ -43022,7 +43021,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1301" spans="1:8" hidden="1">
+    <row r="1301" spans="1:8">
       <c r="A1301">
         <v>2202529</v>
       </c>
@@ -43337,7 +43336,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1314" spans="1:8" hidden="1">
+    <row r="1314" spans="1:8">
       <c r="A1314">
         <v>2202547</v>
       </c>
@@ -43364,7 +43363,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1315" spans="1:8" hidden="1">
+    <row r="1315" spans="1:8">
       <c r="A1315">
         <v>2202549</v>
       </c>
@@ -43439,7 +43438,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1318" spans="1:8" hidden="1">
+    <row r="1318" spans="1:8">
       <c r="A1318">
         <v>2202553</v>
       </c>
@@ -43682,7 +43681,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1328" spans="1:8" hidden="1">
+    <row r="1328" spans="1:8">
       <c r="A1328">
         <v>2202575</v>
       </c>
@@ -43709,7 +43708,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1329" spans="1:8" hidden="1">
+    <row r="1329" spans="1:8">
       <c r="A1329">
         <v>2202576</v>
       </c>
@@ -43736,7 +43735,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1330" spans="1:8" hidden="1">
+    <row r="1330" spans="1:8">
       <c r="A1330">
         <v>2202577</v>
       </c>
@@ -43763,7 +43762,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1331" spans="1:8" hidden="1">
+    <row r="1331" spans="1:8">
       <c r="A1331">
         <v>2202578</v>
       </c>
@@ -43790,7 +43789,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1332" spans="1:8" hidden="1">
+    <row r="1332" spans="1:8">
       <c r="A1332">
         <v>2202579</v>
       </c>
@@ -43817,7 +43816,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1333" spans="1:8" hidden="1">
+    <row r="1333" spans="1:8">
       <c r="A1333">
         <v>2202580</v>
       </c>
@@ -43841,7 +43840,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1334" spans="1:8" hidden="1">
+    <row r="1334" spans="1:8">
       <c r="A1334">
         <v>2202581</v>
       </c>
@@ -43868,7 +43867,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1335" spans="1:8" hidden="1">
+    <row r="1335" spans="1:8">
       <c r="A1335">
         <v>2202582</v>
       </c>
@@ -43895,7 +43894,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1336" spans="1:8" hidden="1">
+    <row r="1336" spans="1:8">
       <c r="A1336">
         <v>2202583</v>
       </c>
@@ -43919,7 +43918,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1337" spans="1:8" hidden="1">
+    <row r="1337" spans="1:8">
       <c r="A1337">
         <v>2202584</v>
       </c>
@@ -43946,7 +43945,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1338" spans="1:8" hidden="1">
+    <row r="1338" spans="1:8">
       <c r="A1338">
         <v>2202585</v>
       </c>
@@ -43994,7 +43993,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1340" spans="1:8" hidden="1">
+    <row r="1340" spans="1:8">
       <c r="A1340">
         <v>2202587</v>
       </c>
@@ -44018,7 +44017,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1341" spans="1:8" hidden="1">
+    <row r="1341" spans="1:8">
       <c r="A1341">
         <v>2202589</v>
       </c>
@@ -44045,7 +44044,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1342" spans="1:8" hidden="1">
+    <row r="1342" spans="1:8">
       <c r="A1342">
         <v>2202590</v>
       </c>
@@ -44144,7 +44143,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1346" spans="1:8" hidden="1">
+    <row r="1346" spans="1:8">
       <c r="A1346">
         <v>2202595</v>
       </c>
@@ -44171,7 +44170,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1347" spans="1:8" hidden="1">
+    <row r="1347" spans="1:8">
       <c r="A1347">
         <v>2202596</v>
       </c>
@@ -44318,7 +44317,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1353" spans="1:8" hidden="1">
+    <row r="1353" spans="1:8">
       <c r="A1353">
         <v>2202613</v>
       </c>
@@ -44345,7 +44344,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1354" spans="1:8" hidden="1">
+    <row r="1354" spans="1:8">
       <c r="A1354">
         <v>2202614</v>
       </c>
@@ -44372,7 +44371,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1355" spans="1:8" hidden="1">
+    <row r="1355" spans="1:8">
       <c r="A1355">
         <v>2202615</v>
       </c>
@@ -44396,7 +44395,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1356" spans="1:8" hidden="1">
+    <row r="1356" spans="1:8">
       <c r="A1356">
         <v>2202616</v>
       </c>
@@ -44420,7 +44419,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1357" spans="1:8" hidden="1">
+    <row r="1357" spans="1:8">
       <c r="A1357">
         <v>2202617</v>
       </c>
@@ -44543,7 +44542,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1362" spans="1:8" hidden="1">
+    <row r="1362" spans="1:8">
       <c r="A1362">
         <v>2202624</v>
       </c>
@@ -44570,7 +44569,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1363" spans="1:8" hidden="1">
+    <row r="1363" spans="1:8">
       <c r="A1363">
         <v>2202625</v>
       </c>
@@ -44597,7 +44596,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1364" spans="1:8" hidden="1">
+    <row r="1364" spans="1:8">
       <c r="A1364">
         <v>2202626</v>
       </c>
@@ -44624,7 +44623,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1365" spans="1:8" hidden="1">
+    <row r="1365" spans="1:8">
       <c r="A1365">
         <v>2202627</v>
       </c>
@@ -44651,7 +44650,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1366" spans="1:8" hidden="1">
+    <row r="1366" spans="1:8">
       <c r="A1366">
         <v>2202628</v>
       </c>
@@ -44678,7 +44677,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1367" spans="1:8" hidden="1">
+    <row r="1367" spans="1:8">
       <c r="A1367">
         <v>2202629</v>
       </c>
@@ -44705,7 +44704,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1368" spans="1:8" hidden="1">
+    <row r="1368" spans="1:8">
       <c r="A1368">
         <v>2202630</v>
       </c>
@@ -44732,7 +44731,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1369" spans="1:8" hidden="1">
+    <row r="1369" spans="1:8">
       <c r="A1369">
         <v>2202631</v>
       </c>
@@ -44759,7 +44758,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1370" spans="1:8" hidden="1">
+    <row r="1370" spans="1:8">
       <c r="A1370">
         <v>2202653</v>
       </c>
@@ -44786,7 +44785,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1371" spans="1:8" hidden="1">
+    <row r="1371" spans="1:8">
       <c r="A1371">
         <v>2202660</v>
       </c>
@@ -44930,7 +44929,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1377" spans="1:8" hidden="1">
+    <row r="1377" spans="1:8">
       <c r="A1377">
         <v>2202668</v>
       </c>
@@ -44957,7 +44956,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1378" spans="1:8" hidden="1">
+    <row r="1378" spans="1:8">
       <c r="A1378">
         <v>2202669</v>
       </c>
@@ -44984,7 +44983,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1379" spans="1:8" hidden="1">
+    <row r="1379" spans="1:8">
       <c r="A1379">
         <v>2202671</v>
       </c>
@@ -45011,7 +45010,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1380" spans="1:8" hidden="1">
+    <row r="1380" spans="1:8">
       <c r="A1380">
         <v>2202672</v>
       </c>
@@ -45062,7 +45061,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1382" spans="1:8" hidden="1">
+    <row r="1382" spans="1:8">
       <c r="A1382">
         <v>2202674</v>
       </c>
@@ -45089,7 +45088,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1383" spans="1:8" hidden="1">
+    <row r="1383" spans="1:8">
       <c r="A1383">
         <v>2202676</v>
       </c>
@@ -45137,7 +45136,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1385" spans="1:8" hidden="1">
+    <row r="1385" spans="1:8">
       <c r="A1385">
         <v>2202683</v>
       </c>
@@ -45263,7 +45262,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1390" spans="1:8" hidden="1">
+    <row r="1390" spans="1:8">
       <c r="A1390">
         <v>2202688</v>
       </c>
@@ -45290,7 +45289,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1391" spans="1:8" hidden="1">
+    <row r="1391" spans="1:8">
       <c r="A1391">
         <v>2202689</v>
       </c>
@@ -45365,7 +45364,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1394" spans="1:8" hidden="1">
+    <row r="1394" spans="1:8">
       <c r="A1394">
         <v>2202692</v>
       </c>
@@ -45392,7 +45391,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1395" spans="1:8" hidden="1">
+    <row r="1395" spans="1:8">
       <c r="A1395">
         <v>2202693</v>
       </c>
@@ -45419,7 +45418,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1396" spans="1:8" hidden="1">
+    <row r="1396" spans="1:8">
       <c r="A1396">
         <v>2202694</v>
       </c>
@@ -45446,7 +45445,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1397" spans="1:8" hidden="1">
+    <row r="1397" spans="1:8">
       <c r="A1397">
         <v>2202696</v>
       </c>
@@ -45473,7 +45472,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1398" spans="1:8" hidden="1">
+    <row r="1398" spans="1:8">
       <c r="A1398">
         <v>2202697</v>
       </c>
@@ -45524,7 +45523,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1400" spans="1:8" hidden="1">
+    <row r="1400" spans="1:8">
       <c r="A1400">
         <v>2202699</v>
       </c>
@@ -45551,7 +45550,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1401" spans="1:8" hidden="1">
+    <row r="1401" spans="1:8">
       <c r="A1401">
         <v>2202700</v>
       </c>
@@ -45578,7 +45577,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1402" spans="1:8" hidden="1">
+    <row r="1402" spans="1:8">
       <c r="A1402">
         <v>2202701</v>
       </c>
@@ -45605,7 +45604,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1403" spans="1:8" hidden="1">
+    <row r="1403" spans="1:8">
       <c r="A1403">
         <v>2202702</v>
       </c>
@@ -45632,7 +45631,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1404" spans="1:8" hidden="1">
+    <row r="1404" spans="1:8">
       <c r="A1404">
         <v>2202703</v>
       </c>
@@ -45659,7 +45658,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1405" spans="1:8" hidden="1">
+    <row r="1405" spans="1:8">
       <c r="A1405">
         <v>2202704</v>
       </c>
@@ -45758,7 +45757,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1409" spans="1:8" hidden="1">
+    <row r="1409" spans="1:8">
       <c r="A1409">
         <v>2202708</v>
       </c>
@@ -45785,7 +45784,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1410" spans="1:8" hidden="1">
+    <row r="1410" spans="1:8">
       <c r="A1410">
         <v>2202710</v>
       </c>
@@ -45812,7 +45811,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1411" spans="1:8" hidden="1">
+    <row r="1411" spans="1:8">
       <c r="A1411">
         <v>2202719</v>
       </c>
@@ -45860,7 +45859,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1413" spans="1:8" hidden="1">
+    <row r="1413" spans="1:8">
       <c r="A1413">
         <v>2202722</v>
       </c>
@@ -45887,7 +45886,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1414" spans="1:8" hidden="1">
+    <row r="1414" spans="1:8">
       <c r="A1414">
         <v>2202723</v>
       </c>
@@ -45914,7 +45913,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1415" spans="1:8" hidden="1">
+    <row r="1415" spans="1:8">
       <c r="A1415">
         <v>2202724</v>
       </c>
@@ -45941,7 +45940,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1416" spans="1:8" hidden="1">
+    <row r="1416" spans="1:8">
       <c r="A1416">
         <v>2202725</v>
       </c>
@@ -45968,7 +45967,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1417" spans="1:8" hidden="1">
+    <row r="1417" spans="1:8">
       <c r="A1417">
         <v>2202726</v>
       </c>
@@ -45995,7 +45994,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1418" spans="1:8" hidden="1">
+    <row r="1418" spans="1:8">
       <c r="A1418">
         <v>2202727</v>
       </c>
@@ -46022,7 +46021,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1419" spans="1:8" hidden="1">
+    <row r="1419" spans="1:8">
       <c r="A1419">
         <v>2202728</v>
       </c>
@@ -46049,7 +46048,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1420" spans="1:8" hidden="1">
+    <row r="1420" spans="1:8">
       <c r="A1420">
         <v>2202729</v>
       </c>
@@ -46076,7 +46075,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1421" spans="1:8" hidden="1">
+    <row r="1421" spans="1:8">
       <c r="A1421">
         <v>2202730</v>
       </c>
@@ -46199,7 +46198,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1426" spans="1:8" hidden="1">
+    <row r="1426" spans="1:8">
       <c r="A1426">
         <v>2202736</v>
       </c>
@@ -46247,7 +46246,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1428" spans="1:8" hidden="1">
+    <row r="1428" spans="1:8">
       <c r="A1428">
         <v>2202738</v>
       </c>
@@ -46322,7 +46321,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1431" spans="1:8" hidden="1">
+    <row r="1431" spans="1:8">
       <c r="A1431">
         <v>2202742</v>
       </c>
@@ -46397,7 +46396,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1434" spans="1:8" hidden="1">
+    <row r="1434" spans="1:8">
       <c r="A1434">
         <v>2202747</v>
       </c>
@@ -46424,7 +46423,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1435" spans="1:8" hidden="1">
+    <row r="1435" spans="1:8">
       <c r="A1435">
         <v>2202749</v>
       </c>
@@ -46475,7 +46474,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1437" spans="1:8" hidden="1">
+    <row r="1437" spans="1:8">
       <c r="A1437">
         <v>2202751</v>
       </c>
@@ -46574,7 +46573,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1441" spans="1:8" hidden="1">
+    <row r="1441" spans="1:8">
       <c r="A1441">
         <v>2202755</v>
       </c>
@@ -46601,7 +46600,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1442" spans="1:8" hidden="1">
+    <row r="1442" spans="1:8">
       <c r="A1442">
         <v>2202756</v>
       </c>
@@ -46628,7 +46627,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1443" spans="1:8" hidden="1">
+    <row r="1443" spans="1:8">
       <c r="A1443">
         <v>2202757</v>
       </c>
@@ -46655,7 +46654,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1444" spans="1:8" hidden="1">
+    <row r="1444" spans="1:8">
       <c r="A1444">
         <v>2202758</v>
       </c>
@@ -46682,7 +46681,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1445" spans="1:8" hidden="1">
+    <row r="1445" spans="1:8">
       <c r="A1445">
         <v>2202759</v>
       </c>
@@ -46709,7 +46708,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1446" spans="1:8" hidden="1">
+    <row r="1446" spans="1:8">
       <c r="A1446">
         <v>2202760</v>
       </c>
@@ -46736,7 +46735,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1447" spans="1:8" hidden="1">
+    <row r="1447" spans="1:8">
       <c r="A1447">
         <v>2202761</v>
       </c>
@@ -46763,7 +46762,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1448" spans="1:8" hidden="1">
+    <row r="1448" spans="1:8">
       <c r="A1448">
         <v>2202762</v>
       </c>
@@ -46838,7 +46837,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1451" spans="1:8" hidden="1">
+    <row r="1451" spans="1:8">
       <c r="A1451">
         <v>2202768</v>
       </c>
@@ -46862,7 +46861,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1452" spans="1:8" hidden="1">
+    <row r="1452" spans="1:8">
       <c r="A1452">
         <v>2202771</v>
       </c>
@@ -46889,7 +46888,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1453" spans="1:8" hidden="1">
+    <row r="1453" spans="1:8">
       <c r="A1453">
         <v>2202772</v>
       </c>
@@ -46940,7 +46939,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1455" spans="1:8" hidden="1">
+    <row r="1455" spans="1:8">
       <c r="A1455">
         <v>2202774</v>
       </c>
@@ -47015,7 +47014,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1458" spans="1:8" hidden="1">
+    <row r="1458" spans="1:8">
       <c r="A1458">
         <v>2202780</v>
       </c>
@@ -47066,7 +47065,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1460" spans="1:8" hidden="1">
+    <row r="1460" spans="1:8">
       <c r="A1460">
         <v>2202782</v>
       </c>
@@ -47186,7 +47185,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1465" spans="1:8" hidden="1">
+    <row r="1465" spans="1:8">
       <c r="A1465">
         <v>2202788</v>
       </c>
@@ -47213,7 +47212,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1466" spans="1:8" hidden="1">
+    <row r="1466" spans="1:8">
       <c r="A1466">
         <v>2202789</v>
       </c>
@@ -47240,7 +47239,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1467" spans="1:8" hidden="1">
+    <row r="1467" spans="1:8">
       <c r="A1467">
         <v>2202790</v>
       </c>
@@ -47288,7 +47287,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1469" spans="1:8" hidden="1">
+    <row r="1469" spans="1:8">
       <c r="A1469">
         <v>2202792</v>
       </c>
@@ -47315,7 +47314,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1470" spans="1:8" hidden="1">
+    <row r="1470" spans="1:8">
       <c r="A1470">
         <v>2202793</v>
       </c>
@@ -47342,7 +47341,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1471" spans="1:8" hidden="1">
+    <row r="1471" spans="1:8">
       <c r="A1471">
         <v>2202794</v>
       </c>
@@ -47393,7 +47392,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1473" spans="1:8" hidden="1">
+    <row r="1473" spans="1:8">
       <c r="A1473">
         <v>2202796</v>
       </c>
@@ -47444,7 +47443,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1475" spans="1:8" hidden="1">
+    <row r="1475" spans="1:8">
       <c r="A1475">
         <v>2202798</v>
       </c>
@@ -47471,7 +47470,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1476" spans="1:8" hidden="1">
+    <row r="1476" spans="1:8">
       <c r="A1476">
         <v>2202802</v>
       </c>
@@ -47498,7 +47497,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1477" spans="1:8" hidden="1">
+    <row r="1477" spans="1:8">
       <c r="A1477">
         <v>2202803</v>
       </c>
@@ -47549,7 +47548,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1479" spans="1:8" hidden="1">
+    <row r="1479" spans="1:8">
       <c r="A1479">
         <v>2202806</v>
       </c>
@@ -47576,7 +47575,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1480" spans="1:8" hidden="1">
+    <row r="1480" spans="1:8">
       <c r="A1480">
         <v>2202807</v>
       </c>
@@ -47627,7 +47626,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1482" spans="1:8" hidden="1">
+    <row r="1482" spans="1:8">
       <c r="A1482">
         <v>2202809</v>
       </c>
@@ -47723,7 +47722,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1486" spans="1:8" hidden="1">
+    <row r="1486" spans="1:8">
       <c r="A1486">
         <v>2202813</v>
       </c>
@@ -47750,7 +47749,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1487" spans="1:8" hidden="1">
+    <row r="1487" spans="1:8">
       <c r="A1487">
         <v>2202814</v>
       </c>
@@ -47801,7 +47800,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1489" spans="1:8" hidden="1">
+    <row r="1489" spans="1:8">
       <c r="A1489">
         <v>2202819</v>
       </c>
@@ -47828,7 +47827,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1490" spans="1:8" hidden="1">
+    <row r="1490" spans="1:8">
       <c r="A1490">
         <v>2202820</v>
       </c>
@@ -47855,7 +47854,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1491" spans="1:8" hidden="1">
+    <row r="1491" spans="1:8">
       <c r="A1491">
         <v>2202821</v>
       </c>
@@ -47930,7 +47929,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1494" spans="1:8" hidden="1">
+    <row r="1494" spans="1:8">
       <c r="A1494">
         <v>2202825</v>
       </c>
@@ -48005,7 +48004,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1497" spans="1:8" hidden="1">
+    <row r="1497" spans="1:8">
       <c r="A1497">
         <v>2202831</v>
       </c>
@@ -48104,7 +48103,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1501" spans="1:8" hidden="1">
+    <row r="1501" spans="1:8">
       <c r="A1501">
         <v>2202836</v>
       </c>
@@ -48152,7 +48151,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1503" spans="1:8" hidden="1">
+    <row r="1503" spans="1:8">
       <c r="A1503">
         <v>2202838</v>
       </c>
@@ -48179,7 +48178,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1504" spans="1:8" hidden="1">
+    <row r="1504" spans="1:8">
       <c r="A1504">
         <v>2202839</v>
       </c>
@@ -48206,7 +48205,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1505" spans="1:8" hidden="1">
+    <row r="1505" spans="1:8">
       <c r="A1505">
         <v>2202840</v>
       </c>
@@ -48257,7 +48256,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1507" spans="1:8" hidden="1">
+    <row r="1507" spans="1:8">
       <c r="A1507">
         <v>2202843</v>
       </c>
@@ -48284,7 +48283,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1508" spans="1:8" hidden="1">
+    <row r="1508" spans="1:8">
       <c r="A1508">
         <v>2202844</v>
       </c>
@@ -48311,7 +48310,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1509" spans="1:8" hidden="1">
+    <row r="1509" spans="1:8">
       <c r="A1509">
         <v>2202845</v>
       </c>
@@ -48338,7 +48337,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1510" spans="1:8" hidden="1">
+    <row r="1510" spans="1:8">
       <c r="A1510">
         <v>2202846</v>
       </c>
@@ -48365,7 +48364,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1511" spans="1:8" hidden="1">
+    <row r="1511" spans="1:8">
       <c r="A1511">
         <v>2202847</v>
       </c>
@@ -48392,7 +48391,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1512" spans="1:8" hidden="1">
+    <row r="1512" spans="1:8">
       <c r="A1512">
         <v>2202848</v>
       </c>
@@ -48443,7 +48442,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1514" spans="1:8" hidden="1">
+    <row r="1514" spans="1:8">
       <c r="A1514">
         <v>2202850</v>
       </c>
@@ -48470,7 +48469,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1515" spans="1:8" hidden="1">
+    <row r="1515" spans="1:8">
       <c r="A1515">
         <v>2202851</v>
       </c>
@@ -48497,7 +48496,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1516" spans="1:8" hidden="1">
+    <row r="1516" spans="1:8">
       <c r="A1516">
         <v>2202852</v>
       </c>
@@ -48524,7 +48523,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1517" spans="1:8" hidden="1">
+    <row r="1517" spans="1:8">
       <c r="A1517">
         <v>2202853</v>
       </c>
@@ -48575,7 +48574,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1519" spans="1:8" hidden="1">
+    <row r="1519" spans="1:8">
       <c r="A1519">
         <v>2202855</v>
       </c>
@@ -48599,7 +48598,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1520" spans="1:8" hidden="1">
+    <row r="1520" spans="1:8">
       <c r="A1520">
         <v>2202856</v>
       </c>
@@ -48695,7 +48694,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1524" spans="1:8" hidden="1">
+    <row r="1524" spans="1:8">
       <c r="A1524">
         <v>2202862</v>
       </c>
@@ -48746,7 +48745,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1526" spans="1:8" hidden="1">
+    <row r="1526" spans="1:8">
       <c r="A1526">
         <v>2202864</v>
       </c>
@@ -48773,7 +48772,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1527" spans="1:8" hidden="1">
+    <row r="1527" spans="1:8">
       <c r="A1527">
         <v>2202867</v>
       </c>
@@ -48800,7 +48799,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1528" spans="1:8" hidden="1">
+    <row r="1528" spans="1:8">
       <c r="A1528">
         <v>2202869</v>
       </c>
@@ -48827,7 +48826,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1529" spans="1:8" hidden="1">
+    <row r="1529" spans="1:8">
       <c r="A1529">
         <v>2202870</v>
       </c>
@@ -48854,7 +48853,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1530" spans="1:8" hidden="1">
+    <row r="1530" spans="1:8">
       <c r="A1530">
         <v>2202871</v>
       </c>
@@ -48929,7 +48928,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1533" spans="1:8" hidden="1">
+    <row r="1533" spans="1:8">
       <c r="A1533">
         <v>2202874</v>
       </c>
@@ -48956,7 +48955,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1534" spans="1:8" hidden="1">
+    <row r="1534" spans="1:8">
       <c r="A1534">
         <v>2202875</v>
       </c>
@@ -49055,7 +49054,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1538" spans="1:8" hidden="1">
+    <row r="1538" spans="1:8">
       <c r="A1538">
         <v>2202879</v>
       </c>
@@ -49082,7 +49081,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1539" spans="1:8" hidden="1">
+    <row r="1539" spans="1:8">
       <c r="A1539">
         <v>2202880</v>
       </c>
@@ -49109,7 +49108,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1540" spans="1:8" hidden="1">
+    <row r="1540" spans="1:8">
       <c r="A1540">
         <v>2202881</v>
       </c>
@@ -49136,7 +49135,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1541" spans="1:8" hidden="1">
+    <row r="1541" spans="1:8">
       <c r="A1541">
         <v>2202882</v>
       </c>
@@ -49208,7 +49207,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1544" spans="1:8" hidden="1">
+    <row r="1544" spans="1:8">
       <c r="A1544">
         <v>2202885</v>
       </c>
@@ -49235,7 +49234,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1545" spans="1:8" hidden="1">
+    <row r="1545" spans="1:8">
       <c r="A1545">
         <v>2202886</v>
       </c>
@@ -49262,7 +49261,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1546" spans="1:8" hidden="1">
+    <row r="1546" spans="1:8">
       <c r="A1546">
         <v>2202887</v>
       </c>
@@ -49313,7 +49312,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1548" spans="1:8" hidden="1">
+    <row r="1548" spans="1:8">
       <c r="A1548">
         <v>2202889</v>
       </c>
@@ -49385,7 +49384,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1551" spans="1:8" hidden="1">
+    <row r="1551" spans="1:8">
       <c r="A1551">
         <v>2202892</v>
       </c>
@@ -49436,7 +49435,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1553" spans="1:8" hidden="1">
+    <row r="1553" spans="1:8">
       <c r="A1553">
         <v>2202894</v>
       </c>
@@ -49463,7 +49462,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1554" spans="1:8" hidden="1">
+    <row r="1554" spans="1:8">
       <c r="A1554">
         <v>2202895</v>
       </c>
@@ -49490,7 +49489,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1555" spans="1:8" hidden="1">
+    <row r="1555" spans="1:8">
       <c r="A1555">
         <v>2202896</v>
       </c>
@@ -49541,7 +49540,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1557" spans="1:8" hidden="1">
+    <row r="1557" spans="1:8">
       <c r="A1557">
         <v>2202898</v>
       </c>
@@ -49592,7 +49591,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1559" spans="1:8" hidden="1">
+    <row r="1559" spans="1:8">
       <c r="A1559">
         <v>2202900</v>
       </c>
@@ -49640,7 +49639,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1561" spans="1:8" ht="60" hidden="1">
+    <row r="1561" spans="1:8" ht="60">
       <c r="A1561">
         <v>2202904</v>
       </c>
@@ -49667,7 +49666,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1562" spans="1:8" hidden="1">
+    <row r="1562" spans="1:8">
       <c r="A1562">
         <v>2202906</v>
       </c>
@@ -49718,7 +49717,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1564" spans="1:8" hidden="1">
+    <row r="1564" spans="1:8">
       <c r="A1564">
         <v>2202908</v>
       </c>
@@ -49745,7 +49744,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1565" spans="1:8" hidden="1">
+    <row r="1565" spans="1:8">
       <c r="A1565">
         <v>2202910</v>
       </c>
@@ -49772,7 +49771,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1566" spans="1:8" hidden="1">
+    <row r="1566" spans="1:8">
       <c r="A1566">
         <v>2202913</v>
       </c>
@@ -49799,7 +49798,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1567" spans="1:8" hidden="1">
+    <row r="1567" spans="1:8">
       <c r="A1567">
         <v>2202914</v>
       </c>
@@ -49826,7 +49825,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1568" spans="1:8" hidden="1">
+    <row r="1568" spans="1:8">
       <c r="A1568">
         <v>2202915</v>
       </c>
@@ -49877,7 +49876,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1570" spans="1:8" hidden="1">
+    <row r="1570" spans="1:8">
       <c r="A1570">
         <v>2202917</v>
       </c>
@@ -50000,7 +49999,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1575" spans="1:8" hidden="1">
+    <row r="1575" spans="1:8">
       <c r="A1575">
         <v>2202922</v>
       </c>
@@ -50027,7 +50026,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1576" spans="1:8" hidden="1">
+    <row r="1576" spans="1:8">
       <c r="A1576">
         <v>2202924</v>
       </c>
@@ -50054,7 +50053,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1577" spans="1:8" hidden="1">
+    <row r="1577" spans="1:8">
       <c r="A1577">
         <v>2202926</v>
       </c>
@@ -50129,7 +50128,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1580" spans="1:8" hidden="1">
+    <row r="1580" spans="1:8">
       <c r="A1580">
         <v>2202929</v>
       </c>
@@ -50156,7 +50155,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1581" spans="1:8" hidden="1">
+    <row r="1581" spans="1:8">
       <c r="A1581">
         <v>2202931</v>
       </c>
@@ -50207,7 +50206,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1583" spans="1:8" hidden="1">
+    <row r="1583" spans="1:8">
       <c r="A1583">
         <v>2202933</v>
       </c>
@@ -50282,7 +50281,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1586" spans="1:8" hidden="1">
+    <row r="1586" spans="1:8">
       <c r="A1586">
         <v>2202936</v>
       </c>
@@ -50405,7 +50404,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1591" spans="1:8" hidden="1">
+    <row r="1591" spans="1:8">
       <c r="A1591">
         <v>2202941</v>
       </c>
@@ -50456,7 +50455,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1593" spans="1:8" hidden="1">
+    <row r="1593" spans="1:8">
       <c r="A1593">
         <v>2202943</v>
       </c>
@@ -50483,7 +50482,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1594" spans="1:8" hidden="1">
+    <row r="1594" spans="1:8">
       <c r="A1594">
         <v>2202944</v>
       </c>
@@ -50510,7 +50509,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1595" spans="1:8" hidden="1">
+    <row r="1595" spans="1:8">
       <c r="A1595">
         <v>2202945</v>
       </c>
@@ -50537,7 +50536,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1596" spans="1:8" hidden="1">
+    <row r="1596" spans="1:8">
       <c r="A1596">
         <v>2202946</v>
       </c>
@@ -50612,7 +50611,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1599" spans="1:8" hidden="1">
+    <row r="1599" spans="1:8">
       <c r="A1599">
         <v>2202949</v>
       </c>
@@ -50660,7 +50659,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1601" spans="1:8" hidden="1">
+    <row r="1601" spans="1:8">
       <c r="A1601">
         <v>2202951</v>
       </c>
@@ -50855,7 +50854,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1609" spans="1:8" hidden="1">
+    <row r="1609" spans="1:8">
       <c r="A1609">
         <v>2202959</v>
       </c>
@@ -50930,7 +50929,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1612" spans="1:8" hidden="1">
+    <row r="1612" spans="1:8">
       <c r="A1612">
         <v>2202967</v>
       </c>
@@ -50957,7 +50956,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1613" spans="1:8" hidden="1">
+    <row r="1613" spans="1:8">
       <c r="A1613">
         <v>2202968</v>
       </c>
@@ -50984,7 +50983,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1614" spans="1:8" hidden="1">
+    <row r="1614" spans="1:8">
       <c r="A1614">
         <v>2202969</v>
       </c>
@@ -51035,7 +51034,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1616" spans="1:8" hidden="1">
+    <row r="1616" spans="1:8">
       <c r="A1616">
         <v>2202972</v>
       </c>
@@ -51086,7 +51085,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1618" spans="1:8" hidden="1">
+    <row r="1618" spans="1:8">
       <c r="A1618">
         <v>2202981</v>
       </c>
@@ -51257,7 +51256,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1625" spans="1:8" hidden="1">
+    <row r="1625" spans="1:8">
       <c r="A1625">
         <v>2202990</v>
       </c>
@@ -51284,7 +51283,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1626" spans="1:8" hidden="1">
+    <row r="1626" spans="1:8">
       <c r="A1626">
         <v>2202991</v>
       </c>
@@ -51407,7 +51406,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1631" spans="1:8" hidden="1">
+    <row r="1631" spans="1:8">
       <c r="A1631">
         <v>2202998</v>
       </c>
@@ -51434,7 +51433,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1632" spans="1:8" hidden="1">
+    <row r="1632" spans="1:8">
       <c r="A1632">
         <v>2202999</v>
       </c>
@@ -51485,7 +51484,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1634" spans="1:8" hidden="1">
+    <row r="1634" spans="1:8">
       <c r="A1634">
         <v>2203001</v>
       </c>
@@ -51560,7 +51559,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1637" spans="1:8" hidden="1">
+    <row r="1637" spans="1:8">
       <c r="A1637">
         <v>2203004</v>
       </c>
@@ -51587,7 +51586,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1638" spans="1:8" hidden="1">
+    <row r="1638" spans="1:8">
       <c r="A1638">
         <v>2203007</v>
       </c>
@@ -51614,7 +51613,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1639" spans="1:8" hidden="1">
+    <row r="1639" spans="1:8">
       <c r="A1639">
         <v>2203008</v>
       </c>
@@ -51641,7 +51640,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1640" spans="1:8" hidden="1">
+    <row r="1640" spans="1:8">
       <c r="A1640">
         <v>2203010</v>
       </c>
@@ -51716,7 +51715,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1643" spans="1:8" hidden="1">
+    <row r="1643" spans="1:8">
       <c r="A1643">
         <v>2203013</v>
       </c>
@@ -51764,7 +51763,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1645" spans="1:8" hidden="1">
+    <row r="1645" spans="1:8">
       <c r="A1645">
         <v>2203017</v>
       </c>
@@ -51863,7 +51862,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1649" spans="1:8" hidden="1">
+    <row r="1649" spans="1:8">
       <c r="A1649">
         <v>2203021</v>
       </c>
@@ -51890,7 +51889,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1650" spans="1:8" hidden="1">
+    <row r="1650" spans="1:8">
       <c r="A1650">
         <v>2203022</v>
       </c>
@@ -51917,7 +51916,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1651" spans="1:8" hidden="1">
+    <row r="1651" spans="1:8">
       <c r="A1651">
         <v>2203023</v>
       </c>
@@ -51944,7 +51943,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1652" spans="1:8" hidden="1">
+    <row r="1652" spans="1:8">
       <c r="A1652">
         <v>2203024</v>
       </c>
@@ -51971,7 +51970,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1653" spans="1:8" hidden="1">
+    <row r="1653" spans="1:8">
       <c r="A1653">
         <v>2203025</v>
       </c>
@@ -52022,7 +52021,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1655" spans="1:8" hidden="1">
+    <row r="1655" spans="1:8">
       <c r="A1655">
         <v>2203027</v>
       </c>
@@ -52049,7 +52048,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1656" spans="1:8" hidden="1">
+    <row r="1656" spans="1:8">
       <c r="A1656">
         <v>2203028</v>
       </c>
@@ -52076,7 +52075,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1657" spans="1:8" hidden="1">
+    <row r="1657" spans="1:8">
       <c r="A1657">
         <v>2203029</v>
       </c>
@@ -52103,7 +52102,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1658" spans="1:8" hidden="1">
+    <row r="1658" spans="1:8">
       <c r="A1658">
         <v>2203030</v>
       </c>
@@ -52130,7 +52129,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1659" spans="1:8" hidden="1">
+    <row r="1659" spans="1:8">
       <c r="A1659">
         <v>2203031</v>
       </c>
@@ -52157,7 +52156,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1660" spans="1:8" hidden="1">
+    <row r="1660" spans="1:8">
       <c r="A1660">
         <v>2203032</v>
       </c>
@@ -52184,7 +52183,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1661" spans="1:8" hidden="1">
+    <row r="1661" spans="1:8">
       <c r="A1661">
         <v>2203033</v>
       </c>
@@ -52211,7 +52210,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1662" spans="1:8" hidden="1">
+    <row r="1662" spans="1:8">
       <c r="A1662">
         <v>2203034</v>
       </c>
@@ -52235,7 +52234,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1663" spans="1:8" hidden="1">
+    <row r="1663" spans="1:8">
       <c r="A1663">
         <v>2203035</v>
       </c>
@@ -52259,7 +52258,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1664" spans="1:8" hidden="1">
+    <row r="1664" spans="1:8">
       <c r="A1664">
         <v>2203036</v>
       </c>
@@ -52310,7 +52309,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1666" spans="1:8" hidden="1">
+    <row r="1666" spans="1:8">
       <c r="A1666">
         <v>2203039</v>
       </c>
@@ -52337,7 +52336,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1667" spans="1:8" hidden="1">
+    <row r="1667" spans="1:8">
       <c r="A1667">
         <v>2203040</v>
       </c>
@@ -52364,7 +52363,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1668" spans="1:8" hidden="1">
+    <row r="1668" spans="1:8">
       <c r="A1668">
         <v>2203041</v>
       </c>
@@ -52391,7 +52390,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1669" spans="1:8" hidden="1">
+    <row r="1669" spans="1:8">
       <c r="A1669">
         <v>2203042</v>
       </c>
@@ -52418,7 +52417,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1670" spans="1:8" hidden="1">
+    <row r="1670" spans="1:8">
       <c r="A1670">
         <v>2203043</v>
       </c>
@@ -52445,7 +52444,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1671" spans="1:8" hidden="1">
+    <row r="1671" spans="1:8">
       <c r="A1671">
         <v>2203044</v>
       </c>
@@ -52472,7 +52471,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1672" spans="1:8" hidden="1">
+    <row r="1672" spans="1:8">
       <c r="A1672">
         <v>2203045</v>
       </c>
@@ -52499,7 +52498,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1673" spans="1:8" hidden="1">
+    <row r="1673" spans="1:8">
       <c r="A1673">
         <v>2203046</v>
       </c>
@@ -52550,7 +52549,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1675" spans="1:8" hidden="1">
+    <row r="1675" spans="1:8">
       <c r="A1675">
         <v>2203048</v>
       </c>
@@ -52577,7 +52576,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1676" spans="1:8" hidden="1">
+    <row r="1676" spans="1:8">
       <c r="A1676">
         <v>2203049</v>
       </c>
@@ -52604,7 +52603,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1677" spans="1:8" hidden="1">
+    <row r="1677" spans="1:8">
       <c r="A1677">
         <v>2203050</v>
       </c>
@@ -52655,7 +52654,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1679" spans="1:8" hidden="1">
+    <row r="1679" spans="1:8">
       <c r="A1679">
         <v>2203053</v>
       </c>
@@ -52682,7 +52681,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1680" spans="1:8" hidden="1">
+    <row r="1680" spans="1:8">
       <c r="A1680">
         <v>2203054</v>
       </c>
@@ -52733,7 +52732,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1682" spans="1:8" hidden="1">
+    <row r="1682" spans="1:8">
       <c r="A1682">
         <v>2203056</v>
       </c>
@@ -52760,7 +52759,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1683" spans="1:8" hidden="1">
+    <row r="1683" spans="1:8">
       <c r="A1683">
         <v>2203057</v>
       </c>
@@ -52787,7 +52786,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1684" spans="1:8" hidden="1">
+    <row r="1684" spans="1:8">
       <c r="A1684">
         <v>2203058</v>
       </c>
@@ -52814,7 +52813,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1685" spans="1:8" hidden="1">
+    <row r="1685" spans="1:8">
       <c r="A1685">
         <v>2203059</v>
       </c>
@@ -52841,7 +52840,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1686" spans="1:8" hidden="1">
+    <row r="1686" spans="1:8">
       <c r="A1686">
         <v>2203060</v>
       </c>
@@ -52868,7 +52867,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1687" spans="1:8" hidden="1">
+    <row r="1687" spans="1:8">
       <c r="A1687">
         <v>2203061</v>
       </c>
@@ -52919,7 +52918,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1689" spans="1:8" hidden="1">
+    <row r="1689" spans="1:8">
       <c r="A1689">
         <v>2203063</v>
       </c>
@@ -52946,7 +52945,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1690" spans="1:8" hidden="1">
+    <row r="1690" spans="1:8">
       <c r="A1690">
         <v>2203064</v>
       </c>
@@ -52973,7 +52972,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1691" spans="1:8" hidden="1">
+    <row r="1691" spans="1:8">
       <c r="A1691">
         <v>2203065</v>
       </c>
@@ -53000,7 +52999,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1692" spans="1:8" hidden="1">
+    <row r="1692" spans="1:8">
       <c r="A1692">
         <v>2203066</v>
       </c>
@@ -53027,7 +53026,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1693" spans="1:8" hidden="1">
+    <row r="1693" spans="1:8">
       <c r="A1693">
         <v>2203067</v>
       </c>
@@ -53054,7 +53053,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1694" spans="1:8" hidden="1">
+    <row r="1694" spans="1:8">
       <c r="A1694">
         <v>2203068</v>
       </c>
@@ -53081,7 +53080,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1695" spans="1:8" hidden="1">
+    <row r="1695" spans="1:8">
       <c r="A1695">
         <v>2203069</v>
       </c>
@@ -53108,7 +53107,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1696" spans="1:8" hidden="1">
+    <row r="1696" spans="1:8">
       <c r="A1696">
         <v>2203070</v>
       </c>
@@ -53135,7 +53134,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1697" spans="1:8" hidden="1">
+    <row r="1697" spans="1:8">
       <c r="A1697">
         <v>2203072</v>
       </c>
@@ -53162,7 +53161,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1698" spans="1:8" hidden="1">
+    <row r="1698" spans="1:8">
       <c r="A1698">
         <v>2203073</v>
       </c>
@@ -53189,7 +53188,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1699" spans="1:8" hidden="1">
+    <row r="1699" spans="1:8">
       <c r="A1699">
         <v>2203074</v>
       </c>
@@ -53216,7 +53215,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1700" spans="1:8" hidden="1">
+    <row r="1700" spans="1:8">
       <c r="A1700">
         <v>2203075</v>
       </c>
@@ -53243,7 +53242,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1701" spans="1:8" hidden="1">
+    <row r="1701" spans="1:8">
       <c r="A1701">
         <v>2203076</v>
       </c>
@@ -53270,7 +53269,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1702" spans="1:8" hidden="1">
+    <row r="1702" spans="1:8">
       <c r="A1702">
         <v>2203077</v>
       </c>
@@ -53297,7 +53296,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1703" spans="1:8" hidden="1">
+    <row r="1703" spans="1:8">
       <c r="A1703">
         <v>2203078</v>
       </c>
@@ -53324,7 +53323,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1704" spans="1:8" hidden="1">
+    <row r="1704" spans="1:8">
       <c r="A1704">
         <v>2203080</v>
       </c>
@@ -53351,7 +53350,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1705" spans="1:8" hidden="1">
+    <row r="1705" spans="1:8">
       <c r="A1705">
         <v>2203081</v>
       </c>
@@ -53378,7 +53377,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1706" spans="1:8" hidden="1">
+    <row r="1706" spans="1:8">
       <c r="A1706">
         <v>2203083</v>
       </c>
@@ -53405,7 +53404,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1707" spans="1:8" hidden="1">
+    <row r="1707" spans="1:8">
       <c r="A1707">
         <v>2203084</v>
       </c>
@@ -53432,7 +53431,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1708" spans="1:8" hidden="1">
+    <row r="1708" spans="1:8">
       <c r="A1708">
         <v>2203085</v>
       </c>
@@ -53459,7 +53458,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1709" spans="1:8" hidden="1">
+    <row r="1709" spans="1:8">
       <c r="A1709">
         <v>2203086</v>
       </c>
@@ -53486,7 +53485,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1710" spans="1:8" hidden="1">
+    <row r="1710" spans="1:8">
       <c r="A1710">
         <v>2203087</v>
       </c>
@@ -53513,7 +53512,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1711" spans="1:8" hidden="1">
+    <row r="1711" spans="1:8">
       <c r="A1711">
         <v>2203090</v>
       </c>
@@ -53537,7 +53536,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1712" spans="1:8" hidden="1">
+    <row r="1712" spans="1:8">
       <c r="A1712">
         <v>2203091</v>
       </c>
@@ -53564,7 +53563,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1713" spans="1:8" hidden="1">
+    <row r="1713" spans="1:8">
       <c r="A1713">
         <v>2203092</v>
       </c>
@@ -53591,7 +53590,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1714" spans="1:8" hidden="1">
+    <row r="1714" spans="1:8">
       <c r="A1714">
         <v>2203094</v>
       </c>
@@ -53618,7 +53617,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1715" spans="1:8" hidden="1">
+    <row r="1715" spans="1:8">
       <c r="A1715">
         <v>2203095</v>
       </c>
@@ -53645,7 +53644,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1716" spans="1:8" hidden="1">
+    <row r="1716" spans="1:8">
       <c r="A1716">
         <v>2203096</v>
       </c>
@@ -53672,7 +53671,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1717" spans="1:8" hidden="1">
+    <row r="1717" spans="1:8">
       <c r="A1717">
         <v>2203097</v>
       </c>
@@ -53699,7 +53698,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1718" spans="1:8" hidden="1">
+    <row r="1718" spans="1:8">
       <c r="A1718">
         <v>2203099</v>
       </c>
@@ -53726,7 +53725,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1719" spans="1:8" hidden="1">
+    <row r="1719" spans="1:8">
       <c r="A1719">
         <v>2203100</v>
       </c>
@@ -53753,7 +53752,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1720" spans="1:8" hidden="1">
+    <row r="1720" spans="1:8">
       <c r="A1720">
         <v>2203101</v>
       </c>
@@ -53780,7 +53779,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1721" spans="1:8" hidden="1">
+    <row r="1721" spans="1:8">
       <c r="A1721">
         <v>2203102</v>
       </c>
@@ -53807,7 +53806,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1722" spans="1:8" hidden="1">
+    <row r="1722" spans="1:8">
       <c r="A1722">
         <v>2203103</v>
       </c>
@@ -53834,7 +53833,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1723" spans="1:8" hidden="1">
+    <row r="1723" spans="1:8">
       <c r="A1723">
         <v>2203105</v>
       </c>
@@ -53861,7 +53860,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1724" spans="1:8" hidden="1">
+    <row r="1724" spans="1:8">
       <c r="A1724">
         <v>2203106</v>
       </c>
@@ -53888,7 +53887,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1725" spans="1:8" hidden="1">
+    <row r="1725" spans="1:8">
       <c r="A1725">
         <v>2203107</v>
       </c>
@@ -53915,7 +53914,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1726" spans="1:8" hidden="1">
+    <row r="1726" spans="1:8">
       <c r="A1726">
         <v>2203108</v>
       </c>
@@ -53942,7 +53941,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1727" spans="1:8" hidden="1">
+    <row r="1727" spans="1:8">
       <c r="A1727">
         <v>2203109</v>
       </c>
@@ -53969,7 +53968,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1728" spans="1:8" hidden="1">
+    <row r="1728" spans="1:8">
       <c r="A1728">
         <v>2203110</v>
       </c>
@@ -53996,7 +53995,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1729" spans="1:8" hidden="1">
+    <row r="1729" spans="1:8">
       <c r="A1729">
         <v>2203111</v>
       </c>
@@ -54023,7 +54022,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1730" spans="1:8" hidden="1">
+    <row r="1730" spans="1:8">
       <c r="A1730">
         <v>2203112</v>
       </c>
@@ -54050,7 +54049,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1731" spans="1:8" hidden="1">
+    <row r="1731" spans="1:8">
       <c r="A1731">
         <v>2203113</v>
       </c>
@@ -54077,7 +54076,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1732" spans="1:8" hidden="1">
+    <row r="1732" spans="1:8">
       <c r="A1732">
         <v>2203114</v>
       </c>
@@ -54104,7 +54103,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1733" spans="1:8" hidden="1">
+    <row r="1733" spans="1:8">
       <c r="A1733">
         <v>2203115</v>
       </c>
@@ -54131,7 +54130,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1734" spans="1:8" hidden="1">
+    <row r="1734" spans="1:8">
       <c r="A1734">
         <v>2203116</v>
       </c>
@@ -54158,7 +54157,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1735" spans="1:8" hidden="1">
+    <row r="1735" spans="1:8">
       <c r="A1735">
         <v>2203119</v>
       </c>
@@ -54185,7 +54184,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1736" spans="1:8" hidden="1">
+    <row r="1736" spans="1:8">
       <c r="A1736">
         <v>2203120</v>
       </c>
@@ -54212,7 +54211,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1737" spans="1:8" hidden="1">
+    <row r="1737" spans="1:8">
       <c r="A1737">
         <v>2203121</v>
       </c>
@@ -54239,7 +54238,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1738" spans="1:8" hidden="1">
+    <row r="1738" spans="1:8">
       <c r="A1738">
         <v>2203122</v>
       </c>
@@ -54266,7 +54265,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1739" spans="1:8" hidden="1">
+    <row r="1739" spans="1:8">
       <c r="A1739">
         <v>2203123</v>
       </c>
@@ -54293,7 +54292,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1740" spans="1:8" hidden="1">
+    <row r="1740" spans="1:8">
       <c r="A1740">
         <v>2203125</v>
       </c>
@@ -54320,7 +54319,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1741" spans="1:8" hidden="1">
+    <row r="1741" spans="1:8">
       <c r="A1741">
         <v>2203126</v>
       </c>
@@ -54347,7 +54346,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1742" spans="1:8" hidden="1">
+    <row r="1742" spans="1:8">
       <c r="A1742">
         <v>2203127</v>
       </c>
@@ -54374,7 +54373,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1743" spans="1:8" hidden="1">
+    <row r="1743" spans="1:8">
       <c r="A1743">
         <v>2203128</v>
       </c>
@@ -54401,7 +54400,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1744" spans="1:8" hidden="1">
+    <row r="1744" spans="1:8">
       <c r="A1744">
         <v>2203130</v>
       </c>
@@ -54428,7 +54427,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1745" spans="1:8" hidden="1">
+    <row r="1745" spans="1:8">
       <c r="A1745">
         <v>2203132</v>
       </c>
@@ -54455,7 +54454,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1746" spans="1:8" hidden="1">
+    <row r="1746" spans="1:8">
       <c r="A1746">
         <v>2203134</v>
       </c>
@@ -54482,7 +54481,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1747" spans="1:8" hidden="1">
+    <row r="1747" spans="1:8">
       <c r="A1747">
         <v>2203135</v>
       </c>
@@ -54509,7 +54508,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1748" spans="1:8" hidden="1">
+    <row r="1748" spans="1:8">
       <c r="A1748">
         <v>2203136</v>
       </c>
@@ -54536,7 +54535,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1749" spans="1:8" hidden="1">
+    <row r="1749" spans="1:8">
       <c r="A1749">
         <v>2203137</v>
       </c>
@@ -54563,7 +54562,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1750" spans="1:8" hidden="1">
+    <row r="1750" spans="1:8">
       <c r="A1750">
         <v>2203138</v>
       </c>
@@ -54590,7 +54589,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1751" spans="1:8" hidden="1">
+    <row r="1751" spans="1:8">
       <c r="A1751">
         <v>2203139</v>
       </c>
@@ -54617,7 +54616,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1752" spans="1:8" hidden="1">
+    <row r="1752" spans="1:8">
       <c r="A1752">
         <v>2203140</v>
       </c>
@@ -54644,7 +54643,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1753" spans="1:8" hidden="1">
+    <row r="1753" spans="1:8">
       <c r="A1753">
         <v>2203143</v>
       </c>
@@ -54671,7 +54670,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1754" spans="1:8" hidden="1">
+    <row r="1754" spans="1:8">
       <c r="A1754">
         <v>2203144</v>
       </c>
@@ -54698,7 +54697,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1755" spans="1:8" hidden="1">
+    <row r="1755" spans="1:8">
       <c r="A1755">
         <v>2203145</v>
       </c>
@@ -54725,7 +54724,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1756" spans="1:8" hidden="1">
+    <row r="1756" spans="1:8">
       <c r="A1756">
         <v>2203146</v>
       </c>
@@ -54752,7 +54751,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1757" spans="1:8" hidden="1">
+    <row r="1757" spans="1:8">
       <c r="A1757">
         <v>2203147</v>
       </c>
@@ -54779,7 +54778,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1758" spans="1:8" hidden="1">
+    <row r="1758" spans="1:8">
       <c r="A1758">
         <v>2203149</v>
       </c>
@@ -54806,7 +54805,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1759" spans="1:8" hidden="1">
+    <row r="1759" spans="1:8">
       <c r="A1759">
         <v>2203150</v>
       </c>
@@ -54833,7 +54832,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1760" spans="1:8" hidden="1">
+    <row r="1760" spans="1:8">
       <c r="A1760">
         <v>2203152</v>
       </c>
@@ -54884,7 +54883,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1762" spans="1:8" hidden="1">
+    <row r="1762" spans="1:8">
       <c r="A1762">
         <v>2203163</v>
       </c>
@@ -54908,7 +54907,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1763" spans="1:8" ht="60" hidden="1">
+    <row r="1763" spans="1:8" ht="60">
       <c r="A1763">
         <v>2203165</v>
       </c>
@@ -54959,7 +54958,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1765" spans="1:8" hidden="1">
+    <row r="1765" spans="1:8">
       <c r="A1765">
         <v>2203167</v>
       </c>
@@ -54986,7 +54985,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1766" spans="1:8" hidden="1">
+    <row r="1766" spans="1:8">
       <c r="A1766">
         <v>2203173</v>
       </c>
@@ -55013,7 +55012,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1767" spans="1:8" hidden="1">
+    <row r="1767" spans="1:8">
       <c r="A1767">
         <v>2203188</v>
       </c>
@@ -55040,7 +55039,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1768" spans="1:8" hidden="1">
+    <row r="1768" spans="1:8">
       <c r="A1768">
         <v>2203189</v>
       </c>
@@ -55067,7 +55066,7 @@
         <v>深度</v>
       </c>
     </row>
-    <row r="1769" spans="1:8" hidden="1">
+    <row r="1769" spans="1:8">
       <c r="A1769">
         <v>2203191</v>
       </c>
@@ -55094,7 +55093,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1770" spans="1:8" hidden="1">
+    <row r="1770" spans="1:8">
       <c r="A1770">
         <v>2203193</v>
       </c>
@@ -55122,13 +55121,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1770" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G1770" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B450" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
